--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Client_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Client_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197B3EA-E959-4953-A3DB-0303FF3FD4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C243245-6079-441F-81F7-2C79DBC30748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1. Domain definition'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch standard'!$A$1:$AI$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch standard'!$A$1:$AI$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. System specific-validation'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Data!$A$1:$A$22</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="222">
   <si>
     <t>No.</t>
   </si>
@@ -148,37 +148,13 @@
     <t>2.1. Nablarch standard validation</t>
   </si>
   <si>
-    <t>Character type validation (half-width alphanumeric characters)</t>
-  </si>
-  <si>
     <t>Checks that the input value is a valid character type.</t>
   </si>
   <si>
-    <t>Character type validation (Full-width characters)</t>
-  </si>
-  <si>
     <t>Same as above</t>
   </si>
   <si>
-    <t>Character type validation (characters permitted by the system)</t>
-  </si>
-  <si>
-    <t>Character number validation (variable number of digits, specify maximum value)</t>
-  </si>
-  <si>
     <t>Checks that the input value has a valid number of characters.</t>
-  </si>
-  <si>
-    <t>Number validation (integer)</t>
-  </si>
-  <si>
-    <t>Checks that the input value is an integer.</t>
-  </si>
-  <si>
-    <t>Number range validation (specify both minimum and maximum values)</t>
-  </si>
-  <si>
-    <t>Checks that the input value is within the specified range (including both ends).</t>
   </si>
   <si>
     <t>Code value effective validation</t>
@@ -188,20 +164,6 @@
 Also checks that the code value is included in the pattern, when a pattern is specified.</t>
   </si>
   <si>
-    <t>Year, month and day validation</t>
-  </si>
-  <si>
-    <t>Checks that the input value is valid as a character string representing the year, month and day. 
-Valid formats are yyyy/MM/dd or yyyyMMdd.</t>
-  </si>
-  <si>
-    <t>Year, month, day, hour, minute and second validation</t>
-  </si>
-  <si>
-    <t>Checks that the input value is valid as a character string representing the year, month, day, hour, minute and second. 
-Valid formats are yyyy/MM/dd hh/mm/ss or yyyyMMdd hhmmss.</t>
-  </si>
-  <si>
     <t>1. Domain definition</t>
   </si>
   <si>
@@ -251,10 +213,6 @@
   </si>
   <si>
     <t>Name of the client.</t>
-  </si>
-  <si>
-    <t>Character type validation (characters permitted by the system)
-Character number validation (variable number of digits, specify maximum value)</t>
   </si>
   <si>
     <t>Industry code</t>
@@ -694,21 +652,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>Character type validation (half-width alphanumeric characters)
-Character count validation (minimum value specified, maximum value specified)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (system allowed characters)
-Character count validation (variable number of digits, maximum value specified)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (one-byte numbers)
-Character count validation (minimum value specified, maximum value specified)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>half-width alphanumeric character</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -745,12 +688,175 @@
     <phoneticPr fontId="31"/>
   </si>
   <si>
-    <t>Version 1.1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Domain Definition</t>
     <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>Character type validation (ASCII characters)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (half-width alphanumeric characters)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (half-width numeric characters)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (Full-width characters)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (characters permitted by the system)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character number validation (fixed number of digits)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character number validation (variable number of digits, specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Same as above</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character number validation (variable number of digits, specify both maximum and minimum values)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Numeric digit validation (specify decimal part)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Check that the input value is a valid number of digits.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Numeric digit validation (No decimal part specified)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Numeric range validation (specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the input value is less than or equal to the specified maximum value.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Numeric range validation (specify only minimum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the input value is greater than or equal to the specified minimum value.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Numeric range validation (specify both minimum and maximum values)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the input value is within the specified range (including both ends).</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Element count validation (specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the number of elements in the input value is less than or equal to the specified maximum number.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Element count validation (specify only minimum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the number of elements in the input value is greater than or equal to the specified minimum number.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Element count validation (specify both minimum and maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the number of elements in the input value is within the specified range (including both ends).</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Code value effective validation</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Enumerated value validation</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the input value is contained in the specified enumerated type element.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Date format validation</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Checks that the input value is a date string in the specified date format.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Numeric digit validation (No decimal part specified)</t>
+  </si>
+  <si>
+    <t>Character type validation (characters permitted by the system)
+Character number validation (variable number of digits, specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (half-width alphanumeric characters)
+Character number validation (variable number of digits, specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (system allowed characters)
+Character number validation (variable number of digits, specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (one-byte numbers)
+Character number validation (variable number of digits, specify only maximum value)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (half-width alphanumeric characters)
+Character number validation (variable number of digits, specify both maximum and minimum values)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (one-byte numbers)
+Character number validation (variable number of digits, specify both maximum and minimum values)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Version 1.2</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>1. Domain definition
+2.1. Nablarch standard</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>- Changed maximum number of digits for customer ID
+- Added enumerated value validation and date format validation to standard provided validation</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>Version 1.2</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -761,7 +867,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1038,11 +1144,6 @@
     <font>
       <sz val="9"/>
       <color indexed="55"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1798,7 +1899,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2312,13 +2413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2499,10 +2600,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2531,11 +2632,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2634,8 +2732,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7943850" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="7896225" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3742,8 +3840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2934907" y="17101102"/>
-          <a:ext cx="1517921" cy="1318024"/>
+          <a:off x="2903157" y="16415302"/>
+          <a:ext cx="1498871" cy="1267224"/>
           <a:chOff x="3536661" y="8131330"/>
           <a:chExt cx="1522826" cy="1267664"/>
         </a:xfrm>
@@ -6367,8 +6465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7839075" y="10420350"/>
-          <a:ext cx="1200279" cy="2112067"/>
+          <a:off x="7750175" y="10013950"/>
+          <a:ext cx="1187579" cy="2023167"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -7158,8 +7256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7829550" y="17478375"/>
-          <a:ext cx="1200279" cy="2112067"/>
+          <a:off x="7740650" y="16779875"/>
+          <a:ext cx="1187579" cy="2023167"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -8050,9 +8148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8090,9 +8188,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8125,26 +8223,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8177,26 +8258,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8375,53 +8439,53 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="12"/>
       <c r="J23" s="10" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8430,19 +8494,19 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="93">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="J25" s="93"/>
       <c r="K25" s="93"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -8451,7 +8515,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -8460,7 +8524,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -8469,7 +8533,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="12"/>
@@ -8477,7 +8541,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="5"/>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
@@ -8486,7 +8550,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="5"/>
       <c r="G31" s="9"/>
       <c r="H31" s="5"/>
@@ -8495,7 +8559,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="19" x14ac:dyDescent="0.3">
       <c r="F32" s="5"/>
       <c r="G32" s="9"/>
       <c r="H32" s="5"/>
@@ -8504,7 +8568,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19" x14ac:dyDescent="0.3">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="12"/>
@@ -8516,7 +8580,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19" x14ac:dyDescent="0.3">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="12"/>
@@ -8531,515 +8595,515 @@
       <c r="R34" s="97"/>
       <c r="S34" s="97"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="97"/>
       <c r="R35" s="97"/>
       <c r="S35" s="97"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="98"/>
       <c r="P36" s="97"/>
       <c r="Q36" s="98"/>
       <c r="R36" s="97"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="94"/>
       <c r="P37" s="95"/>
       <c r="Q37" s="94"/>
       <c r="R37" s="95"/>
       <c r="S37" s="94"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="95"/>
       <c r="P38" s="95"/>
       <c r="Q38" s="95"/>
       <c r="R38" s="95"/>
       <c r="S38" s="95"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="95"/>
       <c r="P39" s="95"/>
       <c r="Q39" s="95"/>
       <c r="R39" s="95"/>
       <c r="S39" s="95"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -9067,20 +9131,20 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="17"/>
+    <col min="1" max="16384" width="4.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
       <c r="D1" s="103"/>
       <c r="E1" s="159" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F1" s="160"/>
       <c r="G1" s="160"/>
@@ -9092,13 +9156,13 @@
       <c r="M1" s="160"/>
       <c r="N1" s="161"/>
       <c r="O1" s="150" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="P1" s="151"/>
       <c r="Q1" s="151"/>
       <c r="R1" s="152"/>
       <c r="S1" s="113" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="T1" s="114"/>
       <c r="U1" s="114"/>
@@ -9108,7 +9172,7 @@
       <c r="Y1" s="114"/>
       <c r="Z1" s="115"/>
       <c r="AA1" s="102" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AB1" s="103"/>
       <c r="AC1" s="104" t="str">
@@ -9130,15 +9194,15 @@
       <c r="AM1" s="22"/>
       <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B2" s="149"/>
       <c r="C2" s="149"/>
       <c r="D2" s="103"/>
       <c r="E2" s="159" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F2" s="160"/>
       <c r="G2" s="160"/>
@@ -9162,7 +9226,7 @@
       <c r="Y2" s="117"/>
       <c r="Z2" s="118"/>
       <c r="AA2" s="102" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AB2" s="103"/>
       <c r="AC2" s="162" t="str">
@@ -9174,7 +9238,7 @@
       <c r="AF2" s="164"/>
       <c r="AG2" s="107">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="AH2" s="108"/>
       <c r="AI2" s="109"/>
@@ -9184,9 +9248,9 @@
       <c r="AM2" s="22"/>
       <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -9228,9 +9292,9 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
     </row>
-    <row r="5" spans="1:40" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N5" s="84" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AA5" s="85"/>
       <c r="AB5" s="85"/>
@@ -9242,7 +9306,7 @@
       <c r="AH5" s="85"/>
       <c r="AI5" s="85"/>
     </row>
-    <row r="6" spans="1:40" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N6" s="84"/>
       <c r="AA6" s="85"/>
       <c r="AB6" s="85"/>
@@ -9254,26 +9318,26 @@
       <c r="AH6" s="85"/>
       <c r="AI6" s="85"/>
     </row>
-    <row r="7" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="130" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C7" s="131"/>
       <c r="D7" s="132" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E7" s="133"/>
       <c r="F7" s="134"/>
       <c r="G7" s="132" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H7" s="133"/>
       <c r="I7" s="134"/>
       <c r="J7" s="132" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K7" s="133"/>
       <c r="L7" s="133"/>
@@ -9282,7 +9346,7 @@
       <c r="O7" s="133"/>
       <c r="P7" s="134"/>
       <c r="Q7" s="132" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="R7" s="133"/>
       <c r="S7" s="133"/>
@@ -9299,18 +9363,18 @@
       <c r="AD7" s="133"/>
       <c r="AE7" s="134"/>
       <c r="AF7" s="132" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AG7" s="133"/>
       <c r="AH7" s="133"/>
       <c r="AI7" s="134"/>
     </row>
-    <row r="8" spans="1:40" s="88" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="88" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="89">
         <v>1</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C8" s="136"/>
       <c r="D8" s="137">
@@ -9319,7 +9383,7 @@
       <c r="E8" s="138"/>
       <c r="F8" s="139"/>
       <c r="G8" s="140" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H8" s="141"/>
       <c r="I8" s="142"/>
@@ -9333,7 +9397,7 @@
       <c r="O8" s="147"/>
       <c r="P8" s="148"/>
       <c r="Q8" s="146" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="R8" s="147"/>
       <c r="S8" s="147"/>
@@ -9356,12 +9420,12 @@
       <c r="AH8" s="144"/>
       <c r="AI8" s="145"/>
     </row>
-    <row r="9" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="89">
         <v>2</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C9" s="129"/>
       <c r="D9" s="125">
@@ -9370,12 +9434,12 @@
       <c r="E9" s="126"/>
       <c r="F9" s="127"/>
       <c r="G9" s="122" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H9" s="123"/>
       <c r="I9" s="124"/>
       <c r="J9" s="99" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="100"/>
@@ -9384,7 +9448,7 @@
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="110" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="R9" s="111"/>
       <c r="S9" s="111"/>
@@ -9401,30 +9465,42 @@
       <c r="AD9" s="111"/>
       <c r="AE9" s="112"/>
       <c r="AF9" s="99" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="AG9" s="100"/>
       <c r="AH9" s="100"/>
       <c r="AI9" s="101"/>
     </row>
-    <row r="10" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
-      <c r="B10" s="128"/>
+    <row r="10" spans="1:40" s="88" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="89">
+        <v>3</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>218</v>
+      </c>
       <c r="C10" s="129"/>
-      <c r="D10" s="125"/>
+      <c r="D10" s="125">
+        <v>45058</v>
+      </c>
       <c r="E10" s="126"/>
       <c r="F10" s="127"/>
-      <c r="G10" s="122"/>
+      <c r="G10" s="122" t="s">
+        <v>178</v>
+      </c>
       <c r="H10" s="123"/>
       <c r="I10" s="124"/>
-      <c r="J10" s="99"/>
+      <c r="J10" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="K10" s="100"/>
       <c r="L10" s="100"/>
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
       <c r="O10" s="100"/>
       <c r="P10" s="101"/>
-      <c r="Q10" s="110"/>
+      <c r="Q10" s="255" t="s">
+        <v>220</v>
+      </c>
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
       <c r="T10" s="111"/>
@@ -9439,12 +9515,14 @@
       <c r="AC10" s="111"/>
       <c r="AD10" s="111"/>
       <c r="AE10" s="112"/>
-      <c r="AF10" s="99"/>
+      <c r="AF10" s="99" t="s">
+        <v>180</v>
+      </c>
       <c r="AG10" s="100"/>
       <c r="AH10" s="100"/>
       <c r="AI10" s="101"/>
     </row>
-    <row r="11" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="89"/>
       <c r="B11" s="128"/>
       <c r="C11" s="129"/>
@@ -9481,7 +9559,7 @@
       <c r="AH11" s="100"/>
       <c r="AI11" s="101"/>
     </row>
-    <row r="12" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89"/>
       <c r="B12" s="128"/>
       <c r="C12" s="129"/>
@@ -9518,7 +9596,7 @@
       <c r="AH12" s="100"/>
       <c r="AI12" s="101"/>
     </row>
-    <row r="13" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="89"/>
       <c r="B13" s="128"/>
       <c r="C13" s="129"/>
@@ -9555,7 +9633,7 @@
       <c r="AH13" s="100"/>
       <c r="AI13" s="101"/>
     </row>
-    <row r="14" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="89"/>
       <c r="B14" s="128"/>
       <c r="C14" s="129"/>
@@ -9592,7 +9670,7 @@
       <c r="AH14" s="100"/>
       <c r="AI14" s="101"/>
     </row>
-    <row r="15" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="89"/>
       <c r="B15" s="128"/>
       <c r="C15" s="129"/>
@@ -9629,7 +9707,7 @@
       <c r="AH15" s="100"/>
       <c r="AI15" s="101"/>
     </row>
-    <row r="16" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89"/>
       <c r="B16" s="128"/>
       <c r="C16" s="129"/>
@@ -9666,7 +9744,7 @@
       <c r="AH16" s="100"/>
       <c r="AI16" s="101"/>
     </row>
-    <row r="17" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="89"/>
       <c r="B17" s="128"/>
       <c r="C17" s="129"/>
@@ -9703,7 +9781,7 @@
       <c r="AH17" s="100"/>
       <c r="AI17" s="101"/>
     </row>
-    <row r="18" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89"/>
       <c r="B18" s="128"/>
       <c r="C18" s="129"/>
@@ -9740,7 +9818,7 @@
       <c r="AH18" s="100"/>
       <c r="AI18" s="101"/>
     </row>
-    <row r="19" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="89"/>
       <c r="B19" s="128"/>
       <c r="C19" s="129"/>
@@ -9777,7 +9855,7 @@
       <c r="AH19" s="100"/>
       <c r="AI19" s="101"/>
     </row>
-    <row r="20" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89"/>
       <c r="B20" s="128"/>
       <c r="C20" s="129"/>
@@ -9814,7 +9892,7 @@
       <c r="AH20" s="100"/>
       <c r="AI20" s="101"/>
     </row>
-    <row r="21" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="89"/>
       <c r="B21" s="128"/>
       <c r="C21" s="129"/>
@@ -9851,7 +9929,7 @@
       <c r="AH21" s="100"/>
       <c r="AI21" s="101"/>
     </row>
-    <row r="22" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="89"/>
       <c r="B22" s="128"/>
       <c r="C22" s="129"/>
@@ -9888,7 +9966,7 @@
       <c r="AH22" s="100"/>
       <c r="AI22" s="101"/>
     </row>
-    <row r="23" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="89"/>
       <c r="B23" s="128"/>
       <c r="C23" s="129"/>
@@ -9925,7 +10003,7 @@
       <c r="AH23" s="100"/>
       <c r="AI23" s="101"/>
     </row>
-    <row r="24" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="89"/>
       <c r="B24" s="128"/>
       <c r="C24" s="129"/>
@@ -9962,7 +10040,7 @@
       <c r="AH24" s="100"/>
       <c r="AI24" s="101"/>
     </row>
-    <row r="25" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="89"/>
       <c r="B25" s="128"/>
       <c r="C25" s="129"/>
@@ -9999,7 +10077,7 @@
       <c r="AH25" s="100"/>
       <c r="AI25" s="101"/>
     </row>
-    <row r="26" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="89"/>
       <c r="B26" s="128"/>
       <c r="C26" s="129"/>
@@ -10036,7 +10114,7 @@
       <c r="AH26" s="100"/>
       <c r="AI26" s="101"/>
     </row>
-    <row r="27" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="89"/>
       <c r="B27" s="128"/>
       <c r="C27" s="129"/>
@@ -10073,7 +10151,7 @@
       <c r="AH27" s="100"/>
       <c r="AI27" s="101"/>
     </row>
-    <row r="28" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="89"/>
       <c r="B28" s="128"/>
       <c r="C28" s="129"/>
@@ -10110,7 +10188,7 @@
       <c r="AH28" s="100"/>
       <c r="AI28" s="101"/>
     </row>
-    <row r="29" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="89"/>
       <c r="B29" s="128"/>
       <c r="C29" s="129"/>
@@ -10147,7 +10225,7 @@
       <c r="AH29" s="100"/>
       <c r="AI29" s="101"/>
     </row>
-    <row r="30" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="89"/>
       <c r="B30" s="128"/>
       <c r="C30" s="129"/>
@@ -10184,7 +10262,7 @@
       <c r="AH30" s="100"/>
       <c r="AI30" s="101"/>
     </row>
-    <row r="31" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="89"/>
       <c r="B31" s="128"/>
       <c r="C31" s="129"/>
@@ -10221,7 +10299,7 @@
       <c r="AH31" s="100"/>
       <c r="AI31" s="101"/>
     </row>
-    <row r="32" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="89"/>
       <c r="B32" s="128"/>
       <c r="C32" s="129"/>
@@ -10258,7 +10336,7 @@
       <c r="AH32" s="100"/>
       <c r="AI32" s="101"/>
     </row>
-    <row r="33" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="89"/>
       <c r="B33" s="128"/>
       <c r="C33" s="129"/>
@@ -10295,7 +10373,7 @@
       <c r="AH33" s="100"/>
       <c r="AI33" s="101"/>
     </row>
-    <row r="34" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -10530,142 +10608,142 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="31" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="31"/>
-    <col min="257" max="290" width="4.83203125" style="31" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="31"/>
-    <col min="513" max="546" width="4.83203125" style="31" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="31"/>
-    <col min="769" max="802" width="4.83203125" style="31" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="31"/>
-    <col min="1025" max="1058" width="4.83203125" style="31" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="31"/>
-    <col min="1281" max="1314" width="4.83203125" style="31" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="31"/>
-    <col min="1537" max="1570" width="4.83203125" style="31" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="31"/>
-    <col min="1793" max="1826" width="4.83203125" style="31" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="31"/>
-    <col min="2049" max="2082" width="4.83203125" style="31" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="31"/>
-    <col min="2305" max="2338" width="4.83203125" style="31" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="31"/>
-    <col min="2561" max="2594" width="4.83203125" style="31" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="31"/>
-    <col min="2817" max="2850" width="4.83203125" style="31" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="31"/>
-    <col min="3073" max="3106" width="4.83203125" style="31" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="31"/>
-    <col min="3329" max="3362" width="4.83203125" style="31" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="31"/>
-    <col min="3585" max="3618" width="4.83203125" style="31" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="31"/>
-    <col min="3841" max="3874" width="4.83203125" style="31" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="31"/>
-    <col min="4097" max="4130" width="4.83203125" style="31" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="31"/>
-    <col min="4353" max="4386" width="4.83203125" style="31" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="31"/>
-    <col min="4609" max="4642" width="4.83203125" style="31" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="31"/>
-    <col min="4865" max="4898" width="4.83203125" style="31" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="31"/>
-    <col min="5121" max="5154" width="4.83203125" style="31" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="31"/>
-    <col min="5377" max="5410" width="4.83203125" style="31" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="31"/>
-    <col min="5633" max="5666" width="4.83203125" style="31" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="31"/>
-    <col min="5889" max="5922" width="4.83203125" style="31" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="31"/>
-    <col min="6145" max="6178" width="4.83203125" style="31" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="31"/>
-    <col min="6401" max="6434" width="4.83203125" style="31" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="31"/>
-    <col min="6657" max="6690" width="4.83203125" style="31" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="31"/>
-    <col min="6913" max="6946" width="4.83203125" style="31" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="31"/>
-    <col min="7169" max="7202" width="4.83203125" style="31" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="31"/>
-    <col min="7425" max="7458" width="4.83203125" style="31" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="31"/>
-    <col min="7681" max="7714" width="4.83203125" style="31" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="31"/>
-    <col min="7937" max="7970" width="4.83203125" style="31" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="31"/>
-    <col min="8193" max="8226" width="4.83203125" style="31" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="31"/>
-    <col min="8449" max="8482" width="4.83203125" style="31" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="31"/>
-    <col min="8705" max="8738" width="4.83203125" style="31" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="31"/>
-    <col min="8961" max="8994" width="4.83203125" style="31" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="31"/>
-    <col min="9217" max="9250" width="4.83203125" style="31" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="31"/>
-    <col min="9473" max="9506" width="4.83203125" style="31" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="31"/>
-    <col min="9729" max="9762" width="4.83203125" style="31" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="31"/>
-    <col min="9985" max="10018" width="4.83203125" style="31" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="31"/>
-    <col min="10241" max="10274" width="4.83203125" style="31" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="31"/>
-    <col min="10497" max="10530" width="4.83203125" style="31" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="31"/>
-    <col min="10753" max="10786" width="4.83203125" style="31" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="31"/>
-    <col min="11009" max="11042" width="4.83203125" style="31" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="31"/>
-    <col min="11265" max="11298" width="4.83203125" style="31" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="31"/>
-    <col min="11521" max="11554" width="4.83203125" style="31" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="31"/>
-    <col min="11777" max="11810" width="4.83203125" style="31" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="31"/>
-    <col min="12033" max="12066" width="4.83203125" style="31" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="31"/>
-    <col min="12289" max="12322" width="4.83203125" style="31" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="31"/>
-    <col min="12545" max="12578" width="4.83203125" style="31" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="31"/>
-    <col min="12801" max="12834" width="4.83203125" style="31" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="31"/>
-    <col min="13057" max="13090" width="4.83203125" style="31" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="31"/>
-    <col min="13313" max="13346" width="4.83203125" style="31" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="31"/>
-    <col min="13569" max="13602" width="4.83203125" style="31" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="31"/>
-    <col min="13825" max="13858" width="4.83203125" style="31" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="31"/>
-    <col min="14081" max="14114" width="4.83203125" style="31" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="31"/>
-    <col min="14337" max="14370" width="4.83203125" style="31" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="31"/>
-    <col min="14593" max="14626" width="4.83203125" style="31" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="31"/>
-    <col min="14849" max="14882" width="4.83203125" style="31" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="31"/>
-    <col min="15105" max="15138" width="4.83203125" style="31" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="31"/>
-    <col min="15361" max="15394" width="4.83203125" style="31" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="31"/>
-    <col min="15617" max="15650" width="4.83203125" style="31" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="31"/>
-    <col min="15873" max="15906" width="4.83203125" style="31" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="31"/>
-    <col min="16129" max="16162" width="4.83203125" style="31" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="31"/>
+    <col min="1" max="16" width="4.77734375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.77734375" style="31" customWidth="1"/>
+    <col min="34" max="34" width="4.77734375" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.77734375" style="31"/>
+    <col min="257" max="290" width="4.77734375" style="31" customWidth="1"/>
+    <col min="291" max="512" width="4.77734375" style="31"/>
+    <col min="513" max="546" width="4.77734375" style="31" customWidth="1"/>
+    <col min="547" max="768" width="4.77734375" style="31"/>
+    <col min="769" max="802" width="4.77734375" style="31" customWidth="1"/>
+    <col min="803" max="1024" width="4.77734375" style="31"/>
+    <col min="1025" max="1058" width="4.77734375" style="31" customWidth="1"/>
+    <col min="1059" max="1280" width="4.77734375" style="31"/>
+    <col min="1281" max="1314" width="4.77734375" style="31" customWidth="1"/>
+    <col min="1315" max="1536" width="4.77734375" style="31"/>
+    <col min="1537" max="1570" width="4.77734375" style="31" customWidth="1"/>
+    <col min="1571" max="1792" width="4.77734375" style="31"/>
+    <col min="1793" max="1826" width="4.77734375" style="31" customWidth="1"/>
+    <col min="1827" max="2048" width="4.77734375" style="31"/>
+    <col min="2049" max="2082" width="4.77734375" style="31" customWidth="1"/>
+    <col min="2083" max="2304" width="4.77734375" style="31"/>
+    <col min="2305" max="2338" width="4.77734375" style="31" customWidth="1"/>
+    <col min="2339" max="2560" width="4.77734375" style="31"/>
+    <col min="2561" max="2594" width="4.77734375" style="31" customWidth="1"/>
+    <col min="2595" max="2816" width="4.77734375" style="31"/>
+    <col min="2817" max="2850" width="4.77734375" style="31" customWidth="1"/>
+    <col min="2851" max="3072" width="4.77734375" style="31"/>
+    <col min="3073" max="3106" width="4.77734375" style="31" customWidth="1"/>
+    <col min="3107" max="3328" width="4.77734375" style="31"/>
+    <col min="3329" max="3362" width="4.77734375" style="31" customWidth="1"/>
+    <col min="3363" max="3584" width="4.77734375" style="31"/>
+    <col min="3585" max="3618" width="4.77734375" style="31" customWidth="1"/>
+    <col min="3619" max="3840" width="4.77734375" style="31"/>
+    <col min="3841" max="3874" width="4.77734375" style="31" customWidth="1"/>
+    <col min="3875" max="4096" width="4.77734375" style="31"/>
+    <col min="4097" max="4130" width="4.77734375" style="31" customWidth="1"/>
+    <col min="4131" max="4352" width="4.77734375" style="31"/>
+    <col min="4353" max="4386" width="4.77734375" style="31" customWidth="1"/>
+    <col min="4387" max="4608" width="4.77734375" style="31"/>
+    <col min="4609" max="4642" width="4.77734375" style="31" customWidth="1"/>
+    <col min="4643" max="4864" width="4.77734375" style="31"/>
+    <col min="4865" max="4898" width="4.77734375" style="31" customWidth="1"/>
+    <col min="4899" max="5120" width="4.77734375" style="31"/>
+    <col min="5121" max="5154" width="4.77734375" style="31" customWidth="1"/>
+    <col min="5155" max="5376" width="4.77734375" style="31"/>
+    <col min="5377" max="5410" width="4.77734375" style="31" customWidth="1"/>
+    <col min="5411" max="5632" width="4.77734375" style="31"/>
+    <col min="5633" max="5666" width="4.77734375" style="31" customWidth="1"/>
+    <col min="5667" max="5888" width="4.77734375" style="31"/>
+    <col min="5889" max="5922" width="4.77734375" style="31" customWidth="1"/>
+    <col min="5923" max="6144" width="4.77734375" style="31"/>
+    <col min="6145" max="6178" width="4.77734375" style="31" customWidth="1"/>
+    <col min="6179" max="6400" width="4.77734375" style="31"/>
+    <col min="6401" max="6434" width="4.77734375" style="31" customWidth="1"/>
+    <col min="6435" max="6656" width="4.77734375" style="31"/>
+    <col min="6657" max="6690" width="4.77734375" style="31" customWidth="1"/>
+    <col min="6691" max="6912" width="4.77734375" style="31"/>
+    <col min="6913" max="6946" width="4.77734375" style="31" customWidth="1"/>
+    <col min="6947" max="7168" width="4.77734375" style="31"/>
+    <col min="7169" max="7202" width="4.77734375" style="31" customWidth="1"/>
+    <col min="7203" max="7424" width="4.77734375" style="31"/>
+    <col min="7425" max="7458" width="4.77734375" style="31" customWidth="1"/>
+    <col min="7459" max="7680" width="4.77734375" style="31"/>
+    <col min="7681" max="7714" width="4.77734375" style="31" customWidth="1"/>
+    <col min="7715" max="7936" width="4.77734375" style="31"/>
+    <col min="7937" max="7970" width="4.77734375" style="31" customWidth="1"/>
+    <col min="7971" max="8192" width="4.77734375" style="31"/>
+    <col min="8193" max="8226" width="4.77734375" style="31" customWidth="1"/>
+    <col min="8227" max="8448" width="4.77734375" style="31"/>
+    <col min="8449" max="8482" width="4.77734375" style="31" customWidth="1"/>
+    <col min="8483" max="8704" width="4.77734375" style="31"/>
+    <col min="8705" max="8738" width="4.77734375" style="31" customWidth="1"/>
+    <col min="8739" max="8960" width="4.77734375" style="31"/>
+    <col min="8961" max="8994" width="4.77734375" style="31" customWidth="1"/>
+    <col min="8995" max="9216" width="4.77734375" style="31"/>
+    <col min="9217" max="9250" width="4.77734375" style="31" customWidth="1"/>
+    <col min="9251" max="9472" width="4.77734375" style="31"/>
+    <col min="9473" max="9506" width="4.77734375" style="31" customWidth="1"/>
+    <col min="9507" max="9728" width="4.77734375" style="31"/>
+    <col min="9729" max="9762" width="4.77734375" style="31" customWidth="1"/>
+    <col min="9763" max="9984" width="4.77734375" style="31"/>
+    <col min="9985" max="10018" width="4.77734375" style="31" customWidth="1"/>
+    <col min="10019" max="10240" width="4.77734375" style="31"/>
+    <col min="10241" max="10274" width="4.77734375" style="31" customWidth="1"/>
+    <col min="10275" max="10496" width="4.77734375" style="31"/>
+    <col min="10497" max="10530" width="4.77734375" style="31" customWidth="1"/>
+    <col min="10531" max="10752" width="4.77734375" style="31"/>
+    <col min="10753" max="10786" width="4.77734375" style="31" customWidth="1"/>
+    <col min="10787" max="11008" width="4.77734375" style="31"/>
+    <col min="11009" max="11042" width="4.77734375" style="31" customWidth="1"/>
+    <col min="11043" max="11264" width="4.77734375" style="31"/>
+    <col min="11265" max="11298" width="4.77734375" style="31" customWidth="1"/>
+    <col min="11299" max="11520" width="4.77734375" style="31"/>
+    <col min="11521" max="11554" width="4.77734375" style="31" customWidth="1"/>
+    <col min="11555" max="11776" width="4.77734375" style="31"/>
+    <col min="11777" max="11810" width="4.77734375" style="31" customWidth="1"/>
+    <col min="11811" max="12032" width="4.77734375" style="31"/>
+    <col min="12033" max="12066" width="4.77734375" style="31" customWidth="1"/>
+    <col min="12067" max="12288" width="4.77734375" style="31"/>
+    <col min="12289" max="12322" width="4.77734375" style="31" customWidth="1"/>
+    <col min="12323" max="12544" width="4.77734375" style="31"/>
+    <col min="12545" max="12578" width="4.77734375" style="31" customWidth="1"/>
+    <col min="12579" max="12800" width="4.77734375" style="31"/>
+    <col min="12801" max="12834" width="4.77734375" style="31" customWidth="1"/>
+    <col min="12835" max="13056" width="4.77734375" style="31"/>
+    <col min="13057" max="13090" width="4.77734375" style="31" customWidth="1"/>
+    <col min="13091" max="13312" width="4.77734375" style="31"/>
+    <col min="13313" max="13346" width="4.77734375" style="31" customWidth="1"/>
+    <col min="13347" max="13568" width="4.77734375" style="31"/>
+    <col min="13569" max="13602" width="4.77734375" style="31" customWidth="1"/>
+    <col min="13603" max="13824" width="4.77734375" style="31"/>
+    <col min="13825" max="13858" width="4.77734375" style="31" customWidth="1"/>
+    <col min="13859" max="14080" width="4.77734375" style="31"/>
+    <col min="14081" max="14114" width="4.77734375" style="31" customWidth="1"/>
+    <col min="14115" max="14336" width="4.77734375" style="31"/>
+    <col min="14337" max="14370" width="4.77734375" style="31" customWidth="1"/>
+    <col min="14371" max="14592" width="4.77734375" style="31"/>
+    <col min="14593" max="14626" width="4.77734375" style="31" customWidth="1"/>
+    <col min="14627" max="14848" width="4.77734375" style="31"/>
+    <col min="14849" max="14882" width="4.77734375" style="31" customWidth="1"/>
+    <col min="14883" max="15104" width="4.77734375" style="31"/>
+    <col min="15105" max="15138" width="4.77734375" style="31" customWidth="1"/>
+    <col min="15139" max="15360" width="4.77734375" style="31"/>
+    <col min="15361" max="15394" width="4.77734375" style="31" customWidth="1"/>
+    <col min="15395" max="15616" width="4.77734375" style="31"/>
+    <col min="15617" max="15650" width="4.77734375" style="31" customWidth="1"/>
+    <col min="15651" max="15872" width="4.77734375" style="31"/>
+    <col min="15873" max="15906" width="4.77734375" style="31" customWidth="1"/>
+    <col min="15907" max="16128" width="4.77734375" style="31"/>
+    <col min="16129" max="16162" width="4.77734375" style="31" customWidth="1"/>
+    <col min="16163" max="16384" width="4.77734375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -10723,7 +10801,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -10770,12 +10848,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -10824,7 +10902,7 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="4" spans="1:35" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10861,7 +10939,7 @@
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
     </row>
-    <row r="5" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -10879,7 +10957,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="58" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -10900,7 +10978,7 @@
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
     </row>
-    <row r="6" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -10937,10 +11015,10 @@
       <c r="AH6" s="17"/>
       <c r="AI6" s="17"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="59" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -10970,7 +11048,7 @@
       <c r="AH7" s="61"/>
       <c r="AI7" s="17"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="59"/>
@@ -11001,7 +11079,7 @@
       <c r="AH8" s="61"/>
       <c r="AI8" s="17"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
@@ -11030,7 +11108,7 @@
       <c r="AH9" s="61"/>
       <c r="AI9" s="17"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="s">
@@ -11063,7 +11141,7 @@
       <c r="AH10" s="61"/>
       <c r="AI10" s="17"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="59"/>
       <c r="C11" s="21" t="s">
@@ -11102,7 +11180,7 @@
       <c r="AH11" s="61"/>
       <c r="AI11" s="17"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="P12" s="56"/>
       <c r="Q12" s="17"/>
@@ -11125,7 +11203,7 @@
       <c r="AH12" s="61"/>
       <c r="AI12" s="17"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -11162,7 +11240,7 @@
       <c r="AH13" s="61"/>
       <c r="AI13" s="17"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="C14" s="17"/>
       <c r="O14" s="17"/>
@@ -11187,7 +11265,7 @@
       <c r="AH14" s="61"/>
       <c r="AI14" s="17"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -11224,7 +11302,7 @@
       <c r="AH15" s="61"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -11261,7 +11339,7 @@
       <c r="AH16" s="61"/>
       <c r="AI16" s="17"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -11296,7 +11374,7 @@
       <c r="AH17" s="61"/>
       <c r="AI17" s="17"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -11318,7 +11396,7 @@
       <c r="AH18" s="61"/>
       <c r="AI18" s="17"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="N19" s="62"/>
       <c r="P19" s="59"/>
@@ -11338,7 +11416,7 @@
       <c r="AH19" s="61"/>
       <c r="AI19" s="17"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
@@ -11356,7 +11434,7 @@
       <c r="AH20" s="61"/>
       <c r="AI20" s="17"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
@@ -11374,7 +11452,7 @@
       <c r="AH21" s="61"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
@@ -11392,7 +11470,7 @@
       <c r="AH22" s="61"/>
       <c r="AI22" s="17"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
@@ -11410,7 +11488,7 @@
       <c r="AH23" s="61"/>
       <c r="AI23" s="17"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -11445,7 +11523,7 @@
       <c r="AH24" s="61"/>
       <c r="AI24" s="17"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -11482,7 +11560,7 @@
       <c r="AH25" s="61"/>
       <c r="AI25" s="17"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -11519,7 +11597,7 @@
       <c r="AH26" s="61"/>
       <c r="AI26" s="17"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -11556,7 +11634,7 @@
       <c r="AH27" s="61"/>
       <c r="AI27" s="17"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -11593,7 +11671,7 @@
       <c r="AH28" s="61"/>
       <c r="AI28" s="17"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -11630,7 +11708,7 @@
       <c r="AH29" s="61"/>
       <c r="AI29" s="17"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -11667,7 +11745,7 @@
       <c r="AH30" s="66"/>
       <c r="AI30" s="64"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="B31" s="17"/>
       <c r="C31" s="56"/>
@@ -11704,7 +11782,7 @@
       <c r="AH31" s="66"/>
       <c r="AI31" s="64"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="17"/>
@@ -11741,7 +11819,7 @@
       <c r="AH32" s="66"/>
       <c r="AI32" s="64"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="17"/>
@@ -11778,7 +11856,7 @@
       <c r="AH33" s="66"/>
       <c r="AI33" s="64"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="17"/>
@@ -11815,7 +11893,7 @@
       <c r="AH34" s="66"/>
       <c r="AI34" s="64"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="17"/>
@@ -11852,7 +11930,7 @@
       <c r="AH35" s="66"/>
       <c r="AI35" s="64"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
@@ -11889,50 +11967,50 @@
       <c r="AH36" s="66"/>
       <c r="AI36" s="64"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P37" s="72"/>
       <c r="U37" s="73"/>
       <c r="AG37" s="74"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U38" s="73"/>
       <c r="AF38" s="74"/>
       <c r="AG38" s="72"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T39" s="73"/>
       <c r="AF39" s="74"/>
       <c r="AG39" s="74"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG40" s="72"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG41" s="72"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF42" s="74"/>
       <c r="AG42" s="72"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF44" s="74"/>
       <c r="AG44" s="74"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG45" s="74"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF46" s="74"/>
       <c r="AG46" s="74"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG47" s="74"/>
     </row>
-    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG49" s="74"/>
     </row>
   </sheetData>
@@ -11973,14 +12051,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="4.83203125" style="17"/>
-    <col min="33" max="35" width="4.83203125" style="17" customWidth="1"/>
-    <col min="36" max="16384" width="4.83203125" style="17"/>
+    <col min="1" max="32" width="4.77734375" style="17"/>
+    <col min="33" max="35" width="4.77734375" style="17" customWidth="1"/>
+    <col min="36" max="16384" width="4.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -12038,7 +12116,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -12085,12 +12163,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -12139,34 +12217,34 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D17" s="183" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E17" s="183"/>
       <c r="F17" s="183"/>
@@ -12175,7 +12253,7 @@
       <c r="I17" s="183"/>
       <c r="J17" s="183"/>
       <c r="K17" s="183" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L17" s="183"/>
       <c r="M17" s="183"/>
@@ -12200,9 +12278,9 @@
       <c r="AF17" s="183"/>
       <c r="AG17" s="183"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D18" s="182" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E18" s="182"/>
       <c r="F18" s="182"/>
@@ -12211,7 +12289,7 @@
       <c r="I18" s="182"/>
       <c r="J18" s="182"/>
       <c r="K18" s="182" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L18" s="182"/>
       <c r="M18" s="182"/>
@@ -12236,9 +12314,9 @@
       <c r="AF18" s="182"/>
       <c r="AG18" s="182"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D19" s="181" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E19" s="181"/>
       <c r="F19" s="181"/>
@@ -12247,7 +12325,7 @@
       <c r="I19" s="181"/>
       <c r="J19" s="181"/>
       <c r="K19" s="192" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="L19" s="181"/>
       <c r="M19" s="181"/>
@@ -12272,7 +12350,7 @@
       <c r="AF19" s="181"/>
       <c r="AG19" s="181"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D20" s="180"/>
       <c r="E20" s="180"/>
       <c r="F20" s="180"/>
@@ -12281,7 +12359,7 @@
       <c r="I20" s="180"/>
       <c r="J20" s="180"/>
       <c r="K20" s="184" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="L20" s="180"/>
       <c r="M20" s="180"/>
@@ -12306,14 +12384,14 @@
       <c r="AF20" s="180"/>
       <c r="AG20" s="180"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D24" s="183" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E24" s="183"/>
       <c r="F24" s="183"/>
@@ -12322,7 +12400,7 @@
       <c r="I24" s="183"/>
       <c r="J24" s="183"/>
       <c r="K24" s="183" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L24" s="183"/>
       <c r="M24" s="183"/>
@@ -12347,9 +12425,9 @@
       <c r="AF24" s="183"/>
       <c r="AG24" s="183"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D25" s="182" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E25" s="182"/>
       <c r="F25" s="182"/>
@@ -12358,7 +12436,7 @@
       <c r="I25" s="182"/>
       <c r="J25" s="182"/>
       <c r="K25" s="182" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L25" s="182"/>
       <c r="M25" s="182"/>
@@ -12383,9 +12461,9 @@
       <c r="AF25" s="182"/>
       <c r="AG25" s="182"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D26" s="182" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E26" s="182"/>
       <c r="F26" s="182"/>
@@ -12394,7 +12472,7 @@
       <c r="I26" s="182"/>
       <c r="J26" s="182"/>
       <c r="K26" s="182" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="L26" s="182"/>
       <c r="M26" s="182"/>
@@ -12419,9 +12497,9 @@
       <c r="AF26" s="182"/>
       <c r="AG26" s="182"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D27" s="182" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E27" s="182"/>
       <c r="F27" s="182"/>
@@ -12430,7 +12508,7 @@
       <c r="I27" s="182"/>
       <c r="J27" s="182"/>
       <c r="K27" s="182" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L27" s="182"/>
       <c r="M27" s="182"/>
@@ -12455,14 +12533,14 @@
       <c r="AF27" s="182"/>
       <c r="AG27" s="182"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D31" s="183" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E31" s="183"/>
       <c r="F31" s="183"/>
@@ -12471,7 +12549,7 @@
       <c r="I31" s="183"/>
       <c r="J31" s="183"/>
       <c r="K31" s="183" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L31" s="183"/>
       <c r="M31" s="183"/>
@@ -12496,9 +12574,9 @@
       <c r="AF31" s="183"/>
       <c r="AG31" s="183"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D32" s="181" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E32" s="181"/>
       <c r="F32" s="181"/>
@@ -12507,7 +12585,7 @@
       <c r="I32" s="181"/>
       <c r="J32" s="181"/>
       <c r="K32" s="181" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L32" s="181"/>
       <c r="M32" s="181"/>
@@ -12532,7 +12610,7 @@
       <c r="AF32" s="181"/>
       <c r="AG32" s="181"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D33" s="180"/>
       <c r="E33" s="180"/>
       <c r="F33" s="180"/>
@@ -12541,7 +12619,7 @@
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
       <c r="K33" s="180" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L33" s="180"/>
       <c r="M33" s="180"/>
@@ -12566,9 +12644,9 @@
       <c r="AF33" s="180"/>
       <c r="AG33" s="180"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D34" s="181" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E34" s="181"/>
       <c r="F34" s="181"/>
@@ -12577,7 +12655,7 @@
       <c r="I34" s="181"/>
       <c r="J34" s="181"/>
       <c r="K34" s="181" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L34" s="181"/>
       <c r="M34" s="181"/>
@@ -12602,7 +12680,7 @@
       <c r="AF34" s="181"/>
       <c r="AG34" s="181"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D35" s="180"/>
       <c r="E35" s="180"/>
       <c r="F35" s="180"/>
@@ -12611,7 +12689,7 @@
       <c r="I35" s="180"/>
       <c r="J35" s="180"/>
       <c r="K35" s="180" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L35" s="180"/>
       <c r="M35" s="180"/>
@@ -12636,9 +12714,9 @@
       <c r="AF35" s="180"/>
       <c r="AG35" s="180"/>
     </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="182" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E36" s="182"/>
       <c r="F36" s="182"/>
@@ -12647,7 +12725,7 @@
       <c r="I36" s="182"/>
       <c r="J36" s="182"/>
       <c r="K36" s="182" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L36" s="182"/>
       <c r="M36" s="182"/>
@@ -12672,14 +12750,14 @@
       <c r="AF36" s="182"/>
       <c r="AG36" s="182"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D40" s="183" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E40" s="183"/>
       <c r="F40" s="183"/>
@@ -12688,7 +12766,7 @@
       <c r="I40" s="183"/>
       <c r="J40" s="183"/>
       <c r="K40" s="183" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L40" s="183"/>
       <c r="M40" s="183"/>
@@ -12713,9 +12791,9 @@
       <c r="AF40" s="183"/>
       <c r="AG40" s="183"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D41" s="182" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E41" s="182"/>
       <c r="F41" s="182"/>
@@ -12724,7 +12802,7 @@
       <c r="I41" s="182"/>
       <c r="J41" s="182"/>
       <c r="K41" s="182" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L41" s="182"/>
       <c r="M41" s="182"/>
@@ -12749,7 +12827,7 @@
       <c r="AF41" s="182"/>
       <c r="AG41" s="182"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -12781,34 +12859,34 @@
       <c r="AF42" s="31"/>
       <c r="AG42" s="31"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C46" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D51" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
       <c r="E53" s="191" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F53" s="191"/>
       <c r="G53" s="191"/>
@@ -12840,7 +12918,7 @@
       <c r="AG53" s="191"/>
       <c r="AH53" s="191"/>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
       <c r="E54" s="191"/>
       <c r="F54" s="191"/>
       <c r="G54" s="191"/>
@@ -12872,109 +12950,109 @@
       <c r="AG54" s="191"/>
       <c r="AH54" s="191"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D85" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E87" s="17" t="s">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E88" s="17" t="s">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E89" s="17" t="s">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C142" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E90" s="17" t="s">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C143" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E91" s="17" t="s">
+    <row r="145" spans="3:31" ht="23" x14ac:dyDescent="0.25">
+      <c r="C145" s="76" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E92" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C95" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D97" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E99" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E100" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D132" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E134" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E135" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E136" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E138" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C142" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C143" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" spans="3:31" ht="24" x14ac:dyDescent="0.2">
-      <c r="C145" s="76" t="s">
-        <v>123</v>
       </c>
       <c r="D145" s="32"/>
       <c r="E145" s="32"/>
@@ -12985,10 +13063,10 @@
       <c r="J145" s="32"/>
       <c r="K145" s="33"/>
       <c r="L145" s="75" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M145" s="76" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="N145" s="32"/>
       <c r="O145" s="32"/>
@@ -13009,9 +13087,9 @@
       <c r="AD145" s="32"/>
       <c r="AE145" s="33"/>
     </row>
-    <row r="146" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C146" s="34" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="35"/>
@@ -13044,10 +13122,10 @@
       <c r="AD146" s="35"/>
       <c r="AE146" s="38"/>
     </row>
-    <row r="147" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C147" s="39"/>
       <c r="D147" s="40" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E147" s="41"/>
       <c r="F147" s="41"/>
@@ -13057,10 +13135,10 @@
       <c r="J147" s="41"/>
       <c r="K147" s="42"/>
       <c r="L147" s="43" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M147" s="40" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="N147" s="41"/>
       <c r="O147" s="41"/>
@@ -13081,10 +13159,10 @@
       <c r="AD147" s="41"/>
       <c r="AE147" s="42"/>
     </row>
-    <row r="148" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C148" s="44"/>
       <c r="D148" s="45" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E148" s="46"/>
       <c r="F148" s="46"/>
@@ -13095,7 +13173,7 @@
       <c r="K148" s="47"/>
       <c r="L148" s="48"/>
       <c r="M148" s="45" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N148" s="46"/>
       <c r="O148" s="46"/>
@@ -13116,7 +13194,7 @@
       <c r="AD148" s="46"/>
       <c r="AE148" s="47"/>
     </row>
-    <row r="149" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C149" s="34" t="s">
         <v>31</v>
       </c>
@@ -13130,7 +13208,7 @@
       <c r="K149" s="38"/>
       <c r="L149" s="49"/>
       <c r="M149" s="34" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N149" s="35"/>
       <c r="O149" s="35"/>
@@ -13151,16 +13229,16 @@
       <c r="AD149" s="35"/>
       <c r="AE149" s="38"/>
     </row>
-    <row r="150" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C150" s="39"/>
       <c r="K150" s="50"/>
       <c r="L150" s="51"/>
       <c r="M150" s="39" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="AE150" s="50"/>
     </row>
-    <row r="151" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C151" s="34" t="s">
         <v>25</v>
       </c>
@@ -13174,7 +13252,7 @@
       <c r="K151" s="38"/>
       <c r="L151" s="52"/>
       <c r="M151" s="185" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="N151" s="186"/>
       <c r="O151" s="186"/>
@@ -13195,7 +13273,7 @@
       <c r="AD151" s="186"/>
       <c r="AE151" s="187"/>
     </row>
-    <row r="152" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C152" s="44"/>
       <c r="D152" s="53"/>
       <c r="E152" s="53"/>
@@ -13226,44 +13304,44 @@
       <c r="AD152" s="189"/>
       <c r="AE152" s="190"/>
     </row>
-    <row r="154" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C154" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="156" spans="3:31" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C156" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="157" spans="3:31" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C157" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="158" spans="3:31" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C158" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="159" spans="3:31" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C159" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="160" spans="3:31" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="160" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C160" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="17" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -13345,18 +13423,18 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="4.83203125" style="17"/>
-    <col min="24" max="24" width="4.83203125" style="17" customWidth="1"/>
-    <col min="25" max="36" width="4.83203125" style="17"/>
-    <col min="37" max="39" width="4.83203125" style="17" customWidth="1"/>
-    <col min="40" max="41" width="4.83203125" style="17"/>
-    <col min="42" max="44" width="4.83203125" style="17" customWidth="1"/>
-    <col min="45" max="16384" width="4.83203125" style="17"/>
+    <col min="1" max="23" width="4.77734375" style="17"/>
+    <col min="24" max="24" width="4.77734375" style="17" customWidth="1"/>
+    <col min="25" max="36" width="4.77734375" style="17"/>
+    <col min="37" max="39" width="4.77734375" style="17" customWidth="1"/>
+    <col min="40" max="41" width="4.77734375" style="17"/>
+    <col min="42" max="44" width="4.77734375" style="17" customWidth="1"/>
+    <col min="45" max="16384" width="4.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -13417,7 +13495,7 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="23"/>
     </row>
-    <row r="2" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -13464,7 +13542,7 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
@@ -13472,7 +13550,7 @@
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
     </row>
-    <row r="3" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -13524,24 +13602,24 @@
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="233" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="235" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C7" s="235"/>
       <c r="D7" s="235"/>
       <c r="E7" s="235"/>
       <c r="F7" s="235"/>
       <c r="G7" s="219" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H7" s="220"/>
       <c r="I7" s="220"/>
@@ -13556,7 +13634,7 @@
       <c r="P7" s="232"/>
       <c r="Q7" s="232"/>
       <c r="R7" s="183" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S7" s="183"/>
       <c r="T7" s="183"/>
@@ -13572,7 +13650,7 @@
       <c r="AB7" s="230"/>
       <c r="AC7" s="231"/>
       <c r="AD7" s="232" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AE7" s="232"/>
       <c r="AF7" s="232"/>
@@ -13595,21 +13673,21 @@
       <c r="AV7" s="237"/>
       <c r="AW7" s="237"/>
       <c r="AX7" s="237" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AY7" s="237"/>
       <c r="AZ7" s="237"/>
       <c r="BA7" s="237"/>
       <c r="BB7" s="237"/>
       <c r="BC7" s="238" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BD7" s="239"/>
       <c r="BE7" s="239"/>
       <c r="BF7" s="239"/>
       <c r="BG7" s="240"/>
       <c r="BH7" s="237" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BI7" s="237"/>
       <c r="BJ7" s="237"/>
@@ -13618,7 +13696,7 @@
       <c r="BM7" s="237"/>
       <c r="BN7" s="237"/>
     </row>
-    <row r="8" spans="1:66" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:66" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="234"/>
       <c r="B8" s="235"/>
       <c r="C8" s="235"/>
@@ -13637,24 +13715,24 @@
       <c r="P8" s="232"/>
       <c r="Q8" s="232"/>
       <c r="R8" s="236" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="S8" s="228"/>
       <c r="T8" s="228" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="U8" s="228"/>
       <c r="V8" s="225" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="W8" s="226"/>
       <c r="X8" s="227" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Y8" s="228"/>
       <c r="Z8" s="228"/>
       <c r="AA8" s="228" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AB8" s="228"/>
       <c r="AC8" s="226"/>
@@ -13695,19 +13773,19 @@
       <c r="BM8" s="237"/>
       <c r="BN8" s="237"/>
     </row>
-    <row r="9" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="209" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C9" s="210"/>
       <c r="D9" s="210"/>
       <c r="E9" s="210"/>
       <c r="F9" s="211"/>
       <c r="G9" s="110" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
@@ -13743,7 +13821,7 @@
       <c r="AI9" s="112"/>
       <c r="AJ9" s="28"/>
       <c r="AL9" s="110" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="AM9" s="100"/>
       <c r="AN9" s="100"/>
@@ -13757,7 +13835,7 @@
       <c r="AV9" s="100"/>
       <c r="AW9" s="101"/>
       <c r="AX9" s="244" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AY9" s="244"/>
       <c r="AZ9" s="244"/>
@@ -13776,19 +13854,19 @@
       <c r="BM9" s="245"/>
       <c r="BN9" s="245"/>
     </row>
-    <row r="10" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>2</v>
       </c>
       <c r="B10" s="209" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C10" s="210"/>
       <c r="D10" s="210"/>
       <c r="E10" s="210"/>
       <c r="F10" s="211"/>
       <c r="G10" s="110" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H10" s="111"/>
       <c r="I10" s="111"/>
@@ -13824,7 +13902,7 @@
       <c r="AI10" s="112"/>
       <c r="AJ10" s="30"/>
       <c r="AL10" s="110" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="AM10" s="100"/>
       <c r="AN10" s="100"/>
@@ -13838,14 +13916,14 @@
       <c r="AV10" s="100"/>
       <c r="AW10" s="101"/>
       <c r="AX10" s="244" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AY10" s="244"/>
       <c r="AZ10" s="244"/>
       <c r="BA10" s="244"/>
       <c r="BB10" s="244"/>
       <c r="BC10" s="110" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="BD10" s="111"/>
       <c r="BE10" s="111"/>
@@ -13859,19 +13937,19 @@
       <c r="BM10" s="245"/>
       <c r="BN10" s="245"/>
     </row>
-    <row r="11" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>3</v>
       </c>
       <c r="B11" s="209" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C11" s="210"/>
       <c r="D11" s="210"/>
       <c r="E11" s="210"/>
       <c r="F11" s="211"/>
       <c r="G11" s="110" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H11" s="111"/>
       <c r="I11" s="111"/>
@@ -13894,7 +13972,7 @@
       <c r="V11" s="214"/>
       <c r="W11" s="215"/>
       <c r="X11" s="216" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Y11" s="217"/>
       <c r="Z11" s="217"/>
@@ -13909,7 +13987,7 @@
       <c r="AI11" s="112"/>
       <c r="AJ11" s="28"/>
       <c r="AL11" s="110" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AM11" s="111"/>
       <c r="AN11" s="111"/>
@@ -13923,7 +14001,7 @@
       <c r="AV11" s="111"/>
       <c r="AW11" s="112"/>
       <c r="AX11" s="244" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AY11" s="244"/>
       <c r="AZ11" s="244"/>
@@ -13942,12 +14020,12 @@
       <c r="BM11" s="245"/>
       <c r="BN11" s="245"/>
     </row>
-    <row r="12" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>4</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
@@ -13988,7 +14066,7 @@
       <c r="AI12" s="194"/>
       <c r="AJ12" s="28"/>
       <c r="AL12" s="110" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="AM12" s="111"/>
       <c r="AN12" s="111"/>
@@ -14002,14 +14080,14 @@
       <c r="AV12" s="111"/>
       <c r="AW12" s="112"/>
       <c r="AX12" s="110" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AY12" s="193"/>
       <c r="AZ12" s="193"/>
       <c r="BA12" s="193"/>
       <c r="BB12" s="194"/>
       <c r="BC12" s="195" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="BD12" s="196"/>
       <c r="BE12" s="196"/>
@@ -14023,12 +14101,12 @@
       <c r="BM12" s="91"/>
       <c r="BN12" s="92"/>
     </row>
-    <row r="13" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>5</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
@@ -14069,7 +14147,7 @@
       <c r="AI13" s="194"/>
       <c r="AJ13" s="28"/>
       <c r="AL13" s="110" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="AM13" s="111"/>
       <c r="AN13" s="111"/>
@@ -14083,14 +14161,14 @@
       <c r="AV13" s="111"/>
       <c r="AW13" s="112"/>
       <c r="AX13" s="110" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AY13" s="193"/>
       <c r="AZ13" s="193"/>
       <c r="BA13" s="193"/>
       <c r="BB13" s="194"/>
       <c r="BC13" s="195" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="BD13" s="196"/>
       <c r="BE13" s="196"/>
@@ -14104,12 +14182,12 @@
       <c r="BM13" s="91"/>
       <c r="BN13" s="92"/>
     </row>
-    <row r="14" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>6</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -14150,7 +14228,7 @@
       <c r="AI14" s="194"/>
       <c r="AJ14" s="28"/>
       <c r="AL14" s="110" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="AM14" s="111"/>
       <c r="AN14" s="111"/>
@@ -14164,14 +14242,14 @@
       <c r="AV14" s="111"/>
       <c r="AW14" s="112"/>
       <c r="AX14" s="110" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AY14" s="193"/>
       <c r="AZ14" s="193"/>
       <c r="BA14" s="193"/>
       <c r="BB14" s="194"/>
       <c r="BC14" s="110" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="BD14" s="111"/>
       <c r="BE14" s="111"/>
@@ -14185,12 +14263,12 @@
       <c r="BM14" s="91"/>
       <c r="BN14" s="92"/>
     </row>
-    <row r="15" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>7</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
@@ -14231,7 +14309,7 @@
       <c r="AI15" s="194"/>
       <c r="AJ15" s="28"/>
       <c r="AL15" s="110" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="AM15" s="111"/>
       <c r="AN15" s="111"/>
@@ -14245,14 +14323,14 @@
       <c r="AV15" s="111"/>
       <c r="AW15" s="112"/>
       <c r="AX15" s="110" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AY15" s="193"/>
       <c r="AZ15" s="193"/>
       <c r="BA15" s="193"/>
       <c r="BB15" s="194"/>
       <c r="BC15" s="110" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="BD15" s="111"/>
       <c r="BE15" s="111"/>
@@ -14266,12 +14344,12 @@
       <c r="BM15" s="91"/>
       <c r="BN15" s="92"/>
     </row>
-    <row r="16" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>8</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
@@ -14314,7 +14392,7 @@
       <c r="AI16" s="194"/>
       <c r="AJ16" s="28"/>
       <c r="AL16" s="110" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AM16" s="111"/>
       <c r="AN16" s="111"/>
@@ -14328,14 +14406,14 @@
       <c r="AV16" s="111"/>
       <c r="AW16" s="112"/>
       <c r="AX16" s="110" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AY16" s="193"/>
       <c r="AZ16" s="193"/>
       <c r="BA16" s="193"/>
       <c r="BB16" s="194"/>
       <c r="BC16" s="195" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="BD16" s="196"/>
       <c r="BE16" s="196"/>
@@ -14349,12 +14427,12 @@
       <c r="BM16" s="91"/>
       <c r="BN16" s="92"/>
     </row>
-    <row r="17" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
@@ -14397,7 +14475,7 @@
       <c r="AI17" s="194"/>
       <c r="AJ17" s="28"/>
       <c r="AL17" s="110" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AM17" s="111"/>
       <c r="AN17" s="111"/>
@@ -14411,14 +14489,14 @@
       <c r="AV17" s="111"/>
       <c r="AW17" s="112"/>
       <c r="AX17" s="110" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AY17" s="193"/>
       <c r="AZ17" s="193"/>
       <c r="BA17" s="193"/>
       <c r="BB17" s="194"/>
       <c r="BC17" s="195" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="BD17" s="193"/>
       <c r="BE17" s="193"/>
@@ -14432,12 +14510,12 @@
       <c r="BM17" s="91"/>
       <c r="BN17" s="92"/>
     </row>
-    <row r="18" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>10</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
@@ -14478,7 +14556,7 @@
       <c r="AI18" s="194"/>
       <c r="AJ18" s="28"/>
       <c r="AL18" s="110" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AM18" s="111"/>
       <c r="AN18" s="111"/>
@@ -14492,14 +14570,14 @@
       <c r="AV18" s="111"/>
       <c r="AW18" s="112"/>
       <c r="AX18" s="110" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AY18" s="193"/>
       <c r="AZ18" s="193"/>
       <c r="BA18" s="193"/>
       <c r="BB18" s="194"/>
       <c r="BC18" s="195" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="BD18" s="193"/>
       <c r="BE18" s="193"/>
@@ -14513,12 +14591,12 @@
       <c r="BM18" s="91"/>
       <c r="BN18" s="92"/>
     </row>
-    <row r="19" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>11</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -14559,7 +14637,7 @@
       <c r="AI19" s="194"/>
       <c r="AJ19" s="28"/>
       <c r="AL19" s="110" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="AM19" s="111"/>
       <c r="AN19" s="111"/>
@@ -14573,14 +14651,14 @@
       <c r="AV19" s="111"/>
       <c r="AW19" s="112"/>
       <c r="AX19" s="110" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AY19" s="193"/>
       <c r="AZ19" s="193"/>
       <c r="BA19" s="193"/>
       <c r="BB19" s="194"/>
       <c r="BC19" s="110" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="BD19" s="111"/>
       <c r="BE19" s="111"/>
@@ -14594,8 +14672,8 @@
       <c r="BM19" s="91"/>
       <c r="BN19" s="92"/>
     </row>
-    <row r="20" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="160">
@@ -14779,21 +14857,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:BR28"/>
+  <dimension ref="A1:BR38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="4.83203125" style="21" customWidth="1"/>
+    <col min="1" max="29" width="4.77734375" style="21" customWidth="1"/>
     <col min="30" max="30" width="5" style="21" customWidth="1"/>
-    <col min="31" max="70" width="4.83203125" style="21" customWidth="1"/>
+    <col min="31" max="70" width="4.77734375" style="21" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -14851,7 +14929,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -14898,12 +14976,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -14952,17 +15030,17 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="183" t="s">
         <v>0</v>
       </c>
@@ -15013,7 +15091,7 @@
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="183"/>
       <c r="B9" s="252"/>
       <c r="C9" s="253"/>
@@ -15089,22 +15167,22 @@
       <c r="BQ9" s="17"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="246" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="248" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="248" t="s">
-        <v>33</v>
       </c>
       <c r="K10" s="248"/>
       <c r="L10" s="248"/>
@@ -15120,17 +15198,17 @@
       <c r="V10" s="248"/>
       <c r="W10" s="248"/>
       <c r="X10" s="248"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="246"/>
-      <c r="AE10" s="246"/>
-      <c r="AF10" s="246"/>
-      <c r="AG10" s="246"/>
-      <c r="AH10" s="246"/>
-      <c r="AI10" s="246"/>
+      <c r="Y10" s="247"/>
+      <c r="Z10" s="247"/>
+      <c r="AA10" s="247"/>
+      <c r="AB10" s="247"/>
+      <c r="AC10" s="247"/>
+      <c r="AD10" s="247"/>
+      <c r="AE10" s="247"/>
+      <c r="AF10" s="247"/>
+      <c r="AG10" s="247"/>
+      <c r="AH10" s="247"/>
+      <c r="AI10" s="247"/>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
@@ -15167,22 +15245,22 @@
       <c r="BQ10" s="17"/>
       <c r="BR10" s="17"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="255" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
-      <c r="H11" s="255"/>
-      <c r="I11" s="255"/>
+      <c r="B11" s="246" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
       <c r="J11" s="248" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="248"/>
       <c r="L11" s="248"/>
@@ -15198,17 +15276,17 @@
       <c r="V11" s="248"/>
       <c r="W11" s="248"/>
       <c r="X11" s="248"/>
-      <c r="Y11" s="246"/>
-      <c r="Z11" s="246"/>
-      <c r="AA11" s="246"/>
-      <c r="AB11" s="246"/>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="246"/>
-      <c r="AE11" s="246"/>
-      <c r="AF11" s="246"/>
-      <c r="AG11" s="246"/>
-      <c r="AH11" s="246"/>
-      <c r="AI11" s="246"/>
+      <c r="Y11" s="247"/>
+      <c r="Z11" s="247"/>
+      <c r="AA11" s="247"/>
+      <c r="AB11" s="247"/>
+      <c r="AC11" s="247"/>
+      <c r="AD11" s="247"/>
+      <c r="AE11" s="247"/>
+      <c r="AF11" s="247"/>
+      <c r="AG11" s="247"/>
+      <c r="AH11" s="247"/>
+      <c r="AI11" s="247"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
@@ -15245,22 +15323,22 @@
       <c r="BQ11" s="17"/>
       <c r="BR11" s="17"/>
     </row>
-    <row r="12" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="256" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="248"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="248"/>
-      <c r="F12" s="248"/>
-      <c r="G12" s="248"/>
-      <c r="H12" s="248"/>
-      <c r="I12" s="248"/>
+      <c r="B12" s="246" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="248" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12" s="248"/>
       <c r="L12" s="248"/>
@@ -15276,17 +15354,17 @@
       <c r="V12" s="248"/>
       <c r="W12" s="248"/>
       <c r="X12" s="248"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="246"/>
-      <c r="AF12" s="246"/>
-      <c r="AG12" s="246"/>
-      <c r="AH12" s="246"/>
-      <c r="AI12" s="246"/>
+      <c r="Y12" s="247"/>
+      <c r="Z12" s="247"/>
+      <c r="AA12" s="247"/>
+      <c r="AB12" s="247"/>
+      <c r="AC12" s="247"/>
+      <c r="AD12" s="247"/>
+      <c r="AE12" s="247"/>
+      <c r="AF12" s="247"/>
+      <c r="AG12" s="247"/>
+      <c r="AH12" s="247"/>
+      <c r="AI12" s="247"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -15323,22 +15401,22 @@
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
     </row>
-    <row r="13" spans="1:70" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>4</v>
       </c>
-      <c r="B13" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
+      <c r="B13" s="246" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
       <c r="J13" s="248" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K13" s="248"/>
       <c r="L13" s="248"/>
@@ -15354,17 +15432,17 @@
       <c r="V13" s="248"/>
       <c r="W13" s="248"/>
       <c r="X13" s="248"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="246"/>
-      <c r="AH13" s="246"/>
-      <c r="AI13" s="246"/>
+      <c r="Y13" s="247"/>
+      <c r="Z13" s="247"/>
+      <c r="AA13" s="247"/>
+      <c r="AB13" s="247"/>
+      <c r="AC13" s="247"/>
+      <c r="AD13" s="247"/>
+      <c r="AE13" s="247"/>
+      <c r="AF13" s="247"/>
+      <c r="AG13" s="247"/>
+      <c r="AH13" s="247"/>
+      <c r="AI13" s="247"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
@@ -15401,12 +15479,12 @@
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>5</v>
       </c>
-      <c r="B14" s="256" t="s">
-        <v>39</v>
+      <c r="B14" s="246" t="s">
+        <v>186</v>
       </c>
       <c r="C14" s="248"/>
       <c r="D14" s="248"/>
@@ -15416,7 +15494,7 @@
       <c r="H14" s="248"/>
       <c r="I14" s="248"/>
       <c r="J14" s="248" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K14" s="248"/>
       <c r="L14" s="248"/>
@@ -15432,17 +15510,17 @@
       <c r="V14" s="248"/>
       <c r="W14" s="248"/>
       <c r="X14" s="248"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="246"/>
-      <c r="AH14" s="246"/>
-      <c r="AI14" s="246"/>
+      <c r="Y14" s="247"/>
+      <c r="Z14" s="247"/>
+      <c r="AA14" s="247"/>
+      <c r="AB14" s="247"/>
+      <c r="AC14" s="247"/>
+      <c r="AD14" s="247"/>
+      <c r="AE14" s="247"/>
+      <c r="AF14" s="247"/>
+      <c r="AG14" s="247"/>
+      <c r="AH14" s="247"/>
+      <c r="AI14" s="247"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
@@ -15479,22 +15557,22 @@
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
     </row>
-    <row r="15" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>6</v>
       </c>
-      <c r="B15" s="256" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="248"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248"/>
-      <c r="H15" s="248"/>
-      <c r="I15" s="248"/>
+      <c r="B15" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K15" s="248"/>
       <c r="L15" s="248"/>
@@ -15510,17 +15588,17 @@
       <c r="V15" s="248"/>
       <c r="W15" s="248"/>
       <c r="X15" s="248"/>
-      <c r="Y15" s="246"/>
-      <c r="Z15" s="246"/>
-      <c r="AA15" s="246"/>
-      <c r="AB15" s="246"/>
-      <c r="AC15" s="246"/>
-      <c r="AD15" s="246"/>
-      <c r="AE15" s="246"/>
-      <c r="AF15" s="246"/>
-      <c r="AG15" s="246"/>
-      <c r="AH15" s="246"/>
-      <c r="AI15" s="246"/>
+      <c r="Y15" s="247"/>
+      <c r="Z15" s="247"/>
+      <c r="AA15" s="247"/>
+      <c r="AB15" s="247"/>
+      <c r="AC15" s="247"/>
+      <c r="AD15" s="247"/>
+      <c r="AE15" s="247"/>
+      <c r="AF15" s="247"/>
+      <c r="AG15" s="247"/>
+      <c r="AH15" s="247"/>
+      <c r="AI15" s="247"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
@@ -15557,48 +15635,48 @@
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
     </row>
-    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>7</v>
       </c>
-      <c r="B16" s="248" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="248"/>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="248"/>
-      <c r="J16" s="256" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="256"/>
-      <c r="S16" s="256"/>
-      <c r="T16" s="256"/>
-      <c r="U16" s="256"/>
-      <c r="V16" s="256"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="246"/>
-      <c r="Z16" s="246"/>
-      <c r="AA16" s="246"/>
-      <c r="AB16" s="246"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="246"/>
-      <c r="AE16" s="246"/>
-      <c r="AF16" s="246"/>
-      <c r="AG16" s="246"/>
-      <c r="AH16" s="246"/>
-      <c r="AI16" s="246"/>
+      <c r="B16" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="248" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="248"/>
+      <c r="L16" s="248"/>
+      <c r="M16" s="248"/>
+      <c r="N16" s="248"/>
+      <c r="O16" s="248"/>
+      <c r="P16" s="248"/>
+      <c r="Q16" s="248"/>
+      <c r="R16" s="248"/>
+      <c r="S16" s="248"/>
+      <c r="T16" s="248"/>
+      <c r="U16" s="248"/>
+      <c r="V16" s="248"/>
+      <c r="W16" s="248"/>
+      <c r="X16" s="248"/>
+      <c r="Y16" s="247"/>
+      <c r="Z16" s="247"/>
+      <c r="AA16" s="247"/>
+      <c r="AB16" s="247"/>
+      <c r="AC16" s="247"/>
+      <c r="AD16" s="247"/>
+      <c r="AE16" s="247"/>
+      <c r="AF16" s="247"/>
+      <c r="AG16" s="247"/>
+      <c r="AH16" s="247"/>
+      <c r="AI16" s="247"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
@@ -15635,48 +15713,48 @@
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
     </row>
-    <row r="17" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>8</v>
       </c>
-      <c r="B17" s="248" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="248"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="248"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="256"/>
-      <c r="U17" s="256"/>
-      <c r="V17" s="256"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="246"/>
-      <c r="Z17" s="246"/>
-      <c r="AA17" s="246"/>
-      <c r="AB17" s="246"/>
-      <c r="AC17" s="246"/>
-      <c r="AD17" s="246"/>
-      <c r="AE17" s="246"/>
-      <c r="AF17" s="246"/>
-      <c r="AG17" s="246"/>
-      <c r="AH17" s="246"/>
-      <c r="AI17" s="246"/>
+      <c r="B17" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="248" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="248"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="248"/>
+      <c r="O17" s="248"/>
+      <c r="P17" s="248"/>
+      <c r="Q17" s="248"/>
+      <c r="R17" s="248"/>
+      <c r="S17" s="248"/>
+      <c r="T17" s="248"/>
+      <c r="U17" s="248"/>
+      <c r="V17" s="248"/>
+      <c r="W17" s="248"/>
+      <c r="X17" s="248"/>
+      <c r="Y17" s="247"/>
+      <c r="Z17" s="247"/>
+      <c r="AA17" s="247"/>
+      <c r="AB17" s="247"/>
+      <c r="AC17" s="247"/>
+      <c r="AD17" s="247"/>
+      <c r="AE17" s="247"/>
+      <c r="AF17" s="247"/>
+      <c r="AG17" s="247"/>
+      <c r="AH17" s="247"/>
+      <c r="AI17" s="247"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
@@ -15713,48 +15791,48 @@
       <c r="BQ17" s="17"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>9</v>
       </c>
-      <c r="B18" s="256" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="256"/>
-      <c r="U18" s="256"/>
-      <c r="V18" s="256"/>
-      <c r="W18" s="256"/>
-      <c r="X18" s="256"/>
-      <c r="Y18" s="246"/>
-      <c r="Z18" s="246"/>
-      <c r="AA18" s="246"/>
-      <c r="AB18" s="246"/>
-      <c r="AC18" s="246"/>
-      <c r="AD18" s="246"/>
-      <c r="AE18" s="246"/>
-      <c r="AF18" s="246"/>
-      <c r="AG18" s="246"/>
-      <c r="AH18" s="246"/>
-      <c r="AI18" s="246"/>
+      <c r="B18" s="246" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="248"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="248"/>
+      <c r="H18" s="248"/>
+      <c r="I18" s="248"/>
+      <c r="J18" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="248"/>
+      <c r="L18" s="248"/>
+      <c r="M18" s="248"/>
+      <c r="N18" s="248"/>
+      <c r="O18" s="248"/>
+      <c r="P18" s="248"/>
+      <c r="Q18" s="248"/>
+      <c r="R18" s="248"/>
+      <c r="S18" s="248"/>
+      <c r="T18" s="248"/>
+      <c r="U18" s="248"/>
+      <c r="V18" s="248"/>
+      <c r="W18" s="248"/>
+      <c r="X18" s="248"/>
+      <c r="Y18" s="247"/>
+      <c r="Z18" s="247"/>
+      <c r="AA18" s="247"/>
+      <c r="AB18" s="247"/>
+      <c r="AC18" s="247"/>
+      <c r="AD18" s="247"/>
+      <c r="AE18" s="247"/>
+      <c r="AF18" s="247"/>
+      <c r="AG18" s="247"/>
+      <c r="AH18" s="247"/>
+      <c r="AI18" s="247"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
@@ -15791,42 +15869,48 @@
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
+    <row r="19" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>10</v>
+      </c>
+      <c r="B19" s="246" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="248"/>
+      <c r="L19" s="248"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="248"/>
+      <c r="O19" s="248"/>
+      <c r="P19" s="248"/>
+      <c r="Q19" s="248"/>
+      <c r="R19" s="248"/>
+      <c r="S19" s="248"/>
+      <c r="T19" s="248"/>
+      <c r="U19" s="248"/>
+      <c r="V19" s="248"/>
+      <c r="W19" s="248"/>
+      <c r="X19" s="248"/>
+      <c r="Y19" s="247"/>
+      <c r="Z19" s="247"/>
+      <c r="AA19" s="247"/>
+      <c r="AB19" s="247"/>
+      <c r="AC19" s="247"/>
+      <c r="AD19" s="247"/>
+      <c r="AE19" s="247"/>
+      <c r="AF19" s="247"/>
+      <c r="AG19" s="247"/>
+      <c r="AH19" s="247"/>
+      <c r="AI19" s="247"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
@@ -15863,42 +15947,48 @@
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
+    <row r="20" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>11</v>
+      </c>
+      <c r="B20" s="246" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="248"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="248"/>
+      <c r="G20" s="248"/>
+      <c r="H20" s="248"/>
+      <c r="I20" s="248"/>
+      <c r="J20" s="248" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="248"/>
+      <c r="L20" s="248"/>
+      <c r="M20" s="248"/>
+      <c r="N20" s="248"/>
+      <c r="O20" s="248"/>
+      <c r="P20" s="248"/>
+      <c r="Q20" s="248"/>
+      <c r="R20" s="248"/>
+      <c r="S20" s="248"/>
+      <c r="T20" s="248"/>
+      <c r="U20" s="248"/>
+      <c r="V20" s="248"/>
+      <c r="W20" s="248"/>
+      <c r="X20" s="248"/>
+      <c r="Y20" s="247"/>
+      <c r="Z20" s="247"/>
+      <c r="AA20" s="247"/>
+      <c r="AB20" s="247"/>
+      <c r="AC20" s="247"/>
+      <c r="AD20" s="247"/>
+      <c r="AE20" s="247"/>
+      <c r="AF20" s="247"/>
+      <c r="AG20" s="247"/>
+      <c r="AH20" s="247"/>
+      <c r="AI20" s="247"/>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
       <c r="AL20" s="17"/>
@@ -15935,42 +16025,48 @@
       <c r="BQ20" s="17"/>
       <c r="BR20" s="17"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
+    <row r="21" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>12</v>
+      </c>
+      <c r="B21" s="246" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="248" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="248"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="248"/>
+      <c r="O21" s="248"/>
+      <c r="P21" s="248"/>
+      <c r="Q21" s="248"/>
+      <c r="R21" s="248"/>
+      <c r="S21" s="248"/>
+      <c r="T21" s="248"/>
+      <c r="U21" s="248"/>
+      <c r="V21" s="248"/>
+      <c r="W21" s="248"/>
+      <c r="X21" s="248"/>
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="247"/>
+      <c r="AA21" s="247"/>
+      <c r="AB21" s="247"/>
+      <c r="AC21" s="247"/>
+      <c r="AD21" s="247"/>
+      <c r="AE21" s="247"/>
+      <c r="AF21" s="247"/>
+      <c r="AG21" s="247"/>
+      <c r="AH21" s="247"/>
+      <c r="AI21" s="247"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
@@ -16007,42 +16103,48 @@
       <c r="BQ21" s="17"/>
       <c r="BR21" s="17"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
+    <row r="22" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>13</v>
+      </c>
+      <c r="B22" s="246" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="248"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="248"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="248" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="248"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="248"/>
+      <c r="O22" s="248"/>
+      <c r="P22" s="248"/>
+      <c r="Q22" s="248"/>
+      <c r="R22" s="248"/>
+      <c r="S22" s="248"/>
+      <c r="T22" s="248"/>
+      <c r="U22" s="248"/>
+      <c r="V22" s="248"/>
+      <c r="W22" s="248"/>
+      <c r="X22" s="248"/>
+      <c r="Y22" s="247"/>
+      <c r="Z22" s="247"/>
+      <c r="AA22" s="247"/>
+      <c r="AB22" s="247"/>
+      <c r="AC22" s="247"/>
+      <c r="AD22" s="247"/>
+      <c r="AE22" s="247"/>
+      <c r="AF22" s="247"/>
+      <c r="AG22" s="247"/>
+      <c r="AH22" s="247"/>
+      <c r="AI22" s="247"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
       <c r="AL22" s="17"/>
@@ -16079,42 +16181,48 @@
       <c r="BQ22" s="17"/>
       <c r="BR22" s="17"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
+    <row r="23" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>14</v>
+      </c>
+      <c r="B23" s="246" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="246" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="247"/>
+      <c r="AA23" s="247"/>
+      <c r="AB23" s="247"/>
+      <c r="AC23" s="247"/>
+      <c r="AD23" s="247"/>
+      <c r="AE23" s="247"/>
+      <c r="AF23" s="247"/>
+      <c r="AG23" s="247"/>
+      <c r="AH23" s="247"/>
+      <c r="AI23" s="247"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
       <c r="AL23" s="17"/>
@@ -16151,10 +16259,48 @@
       <c r="BQ23" s="17"/>
       <c r="BR23" s="17"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
+    <row r="24" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>15</v>
+      </c>
+      <c r="B24" s="246" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="248"/>
+      <c r="I24" s="248"/>
+      <c r="J24" s="246" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="246"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="246"/>
+      <c r="U24" s="246"/>
+      <c r="V24" s="246"/>
+      <c r="W24" s="246"/>
+      <c r="X24" s="246"/>
+      <c r="Y24" s="247"/>
+      <c r="Z24" s="247"/>
+      <c r="AA24" s="247"/>
+      <c r="AB24" s="247"/>
+      <c r="AC24" s="247"/>
+      <c r="AD24" s="247"/>
+      <c r="AE24" s="247"/>
+      <c r="AF24" s="247"/>
+      <c r="AG24" s="247"/>
+      <c r="AH24" s="247"/>
+      <c r="AI24" s="247"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
       <c r="AL24" s="17"/>
@@ -16191,10 +16337,48 @@
       <c r="BQ24" s="17"/>
       <c r="BR24" s="17"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
+    <row r="25" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>16</v>
+      </c>
+      <c r="B25" s="246" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="248"/>
+      <c r="I25" s="248"/>
+      <c r="J25" s="246" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="246"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="246"/>
+      <c r="N25" s="246"/>
+      <c r="O25" s="246"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="246"/>
+      <c r="U25" s="246"/>
+      <c r="V25" s="246"/>
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="247"/>
+      <c r="Z25" s="247"/>
+      <c r="AA25" s="247"/>
+      <c r="AB25" s="247"/>
+      <c r="AC25" s="247"/>
+      <c r="AD25" s="247"/>
+      <c r="AE25" s="247"/>
+      <c r="AF25" s="247"/>
+      <c r="AG25" s="247"/>
+      <c r="AH25" s="247"/>
+      <c r="AI25" s="247"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
       <c r="AL25" s="17"/>
@@ -16231,10 +16415,48 @@
       <c r="BQ25" s="17"/>
       <c r="BR25" s="17"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
+    <row r="26" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>17</v>
+      </c>
+      <c r="B26" s="246" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="246"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="246" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="246"/>
+      <c r="L26" s="246"/>
+      <c r="M26" s="246"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="246"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="246"/>
+      <c r="U26" s="246"/>
+      <c r="V26" s="246"/>
+      <c r="W26" s="246"/>
+      <c r="X26" s="246"/>
+      <c r="Y26" s="247"/>
+      <c r="Z26" s="247"/>
+      <c r="AA26" s="247"/>
+      <c r="AB26" s="247"/>
+      <c r="AC26" s="247"/>
+      <c r="AD26" s="247"/>
+      <c r="AE26" s="247"/>
+      <c r="AF26" s="247"/>
+      <c r="AG26" s="247"/>
+      <c r="AH26" s="247"/>
+      <c r="AI26" s="247"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
       <c r="AL26" s="17"/>
@@ -16271,10 +16493,48 @@
       <c r="BQ26" s="17"/>
       <c r="BR26" s="17"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
+    <row r="27" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>18</v>
+      </c>
+      <c r="B27" s="246" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="246" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" s="246"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="246"/>
+      <c r="N27" s="246"/>
+      <c r="O27" s="246"/>
+      <c r="P27" s="246"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="246"/>
+      <c r="S27" s="246"/>
+      <c r="T27" s="246"/>
+      <c r="U27" s="246"/>
+      <c r="V27" s="246"/>
+      <c r="W27" s="246"/>
+      <c r="X27" s="246"/>
+      <c r="Y27" s="247"/>
+      <c r="Z27" s="247"/>
+      <c r="AA27" s="247"/>
+      <c r="AB27" s="247"/>
+      <c r="AC27" s="247"/>
+      <c r="AD27" s="247"/>
+      <c r="AE27" s="247"/>
+      <c r="AF27" s="247"/>
+      <c r="AG27" s="247"/>
+      <c r="AH27" s="247"/>
+      <c r="AI27" s="247"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
       <c r="AL27" s="17"/>
@@ -16311,10 +16571,48 @@
       <c r="BQ27" s="17"/>
       <c r="BR27" s="17"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
+    <row r="28" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>19</v>
+      </c>
+      <c r="B28" s="246" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="246" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="246"/>
+      <c r="L28" s="246"/>
+      <c r="M28" s="246"/>
+      <c r="N28" s="246"/>
+      <c r="O28" s="246"/>
+      <c r="P28" s="246"/>
+      <c r="Q28" s="246"/>
+      <c r="R28" s="246"/>
+      <c r="S28" s="246"/>
+      <c r="T28" s="246"/>
+      <c r="U28" s="246"/>
+      <c r="V28" s="246"/>
+      <c r="W28" s="246"/>
+      <c r="X28" s="246"/>
+      <c r="Y28" s="247"/>
+      <c r="Z28" s="247"/>
+      <c r="AA28" s="247"/>
+      <c r="AB28" s="247"/>
+      <c r="AC28" s="247"/>
+      <c r="AD28" s="247"/>
+      <c r="AE28" s="247"/>
+      <c r="AF28" s="247"/>
+      <c r="AG28" s="247"/>
+      <c r="AH28" s="247"/>
+      <c r="AI28" s="247"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
       <c r="AL28" s="17"/>
@@ -16351,49 +16649,577 @@
       <c r="BQ28" s="17"/>
       <c r="BR28" s="17"/>
     </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="17"/>
+      <c r="AV29" s="17"/>
+      <c r="AW29" s="17"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="17"/>
+      <c r="BD29" s="17"/>
+      <c r="BE29" s="17"/>
+      <c r="BF29" s="17"/>
+      <c r="BG29" s="17"/>
+      <c r="BH29" s="17"/>
+      <c r="BI29" s="17"/>
+      <c r="BJ29" s="17"/>
+      <c r="BK29" s="17"/>
+      <c r="BL29" s="17"/>
+      <c r="BM29" s="17"/>
+      <c r="BN29" s="17"/>
+      <c r="BO29" s="17"/>
+      <c r="BP29" s="17"/>
+      <c r="BQ29" s="17"/>
+      <c r="BR29" s="17"/>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
+      <c r="BE30" s="17"/>
+      <c r="BF30" s="17"/>
+      <c r="BG30" s="17"/>
+      <c r="BH30" s="17"/>
+      <c r="BI30" s="17"/>
+      <c r="BJ30" s="17"/>
+      <c r="BK30" s="17"/>
+      <c r="BL30" s="17"/>
+      <c r="BM30" s="17"/>
+      <c r="BN30" s="17"/>
+      <c r="BO30" s="17"/>
+      <c r="BP30" s="17"/>
+      <c r="BQ30" s="17"/>
+      <c r="BR30" s="17"/>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="17"/>
+      <c r="BD31" s="17"/>
+      <c r="BE31" s="17"/>
+      <c r="BF31" s="17"/>
+      <c r="BG31" s="17"/>
+      <c r="BH31" s="17"/>
+      <c r="BI31" s="17"/>
+      <c r="BJ31" s="17"/>
+      <c r="BK31" s="17"/>
+      <c r="BL31" s="17"/>
+      <c r="BM31" s="17"/>
+      <c r="BN31" s="17"/>
+      <c r="BO31" s="17"/>
+      <c r="BP31" s="17"/>
+      <c r="BQ31" s="17"/>
+      <c r="BR31" s="17"/>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
+      <c r="AT32" s="17"/>
+      <c r="AU32" s="17"/>
+      <c r="AV32" s="17"/>
+      <c r="AW32" s="17"/>
+      <c r="AX32" s="17"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="17"/>
+      <c r="BC32" s="17"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17"/>
+      <c r="BF32" s="17"/>
+      <c r="BG32" s="17"/>
+      <c r="BH32" s="17"/>
+      <c r="BI32" s="17"/>
+      <c r="BJ32" s="17"/>
+      <c r="BK32" s="17"/>
+      <c r="BL32" s="17"/>
+      <c r="BM32" s="17"/>
+      <c r="BN32" s="17"/>
+      <c r="BO32" s="17"/>
+      <c r="BP32" s="17"/>
+      <c r="BQ32" s="17"/>
+      <c r="BR32" s="17"/>
+    </row>
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="17"/>
+      <c r="BH33" s="17"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="17"/>
+      <c r="BK33" s="17"/>
+      <c r="BL33" s="17"/>
+      <c r="BM33" s="17"/>
+      <c r="BN33" s="17"/>
+      <c r="BO33" s="17"/>
+      <c r="BP33" s="17"/>
+      <c r="BQ33" s="17"/>
+      <c r="BR33" s="17"/>
+    </row>
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="17"/>
+      <c r="BL34" s="17"/>
+      <c r="BM34" s="17"/>
+      <c r="BN34" s="17"/>
+      <c r="BO34" s="17"/>
+      <c r="BP34" s="17"/>
+      <c r="BQ34" s="17"/>
+      <c r="BR34" s="17"/>
+    </row>
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="17"/>
+      <c r="BG35" s="17"/>
+      <c r="BH35" s="17"/>
+      <c r="BI35" s="17"/>
+      <c r="BJ35" s="17"/>
+      <c r="BK35" s="17"/>
+      <c r="BL35" s="17"/>
+      <c r="BM35" s="17"/>
+      <c r="BN35" s="17"/>
+      <c r="BO35" s="17"/>
+      <c r="BP35" s="17"/>
+      <c r="BQ35" s="17"/>
+      <c r="BR35" s="17"/>
+    </row>
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17"/>
+      <c r="AU36" s="17"/>
+      <c r="AV36" s="17"/>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17"/>
+      <c r="BG36" s="17"/>
+      <c r="BH36" s="17"/>
+      <c r="BI36" s="17"/>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="17"/>
+      <c r="BL36" s="17"/>
+      <c r="BM36" s="17"/>
+      <c r="BN36" s="17"/>
+      <c r="BO36" s="17"/>
+      <c r="BP36" s="17"/>
+      <c r="BQ36" s="17"/>
+      <c r="BR36" s="17"/>
+    </row>
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="17"/>
+      <c r="BH37" s="17"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="17"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="17"/>
+    </row>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="17"/>
+      <c r="BL38" s="17"/>
+      <c r="BM38" s="17"/>
+      <c r="BN38" s="17"/>
+      <c r="BO38" s="17"/>
+      <c r="BP38" s="17"/>
+      <c r="BQ38" s="17"/>
+      <c r="BR38" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
+  <mergeCells count="99">
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16404,14 +17230,86 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="Y8:AI8"/>
     <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B8:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
     <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:X28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC28:AI28"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AC27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -16432,15 +17330,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="4.83203125" style="21" customWidth="1"/>
+    <col min="1" max="29" width="4.77734375" style="21" customWidth="1"/>
     <col min="30" max="30" width="5" style="21" customWidth="1"/>
-    <col min="31" max="70" width="4.83203125" style="21" customWidth="1"/>
+    <col min="31" max="70" width="4.77734375" style="21" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -16498,7 +17396,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -16545,12 +17443,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>44833</v>
+        <v>45058</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -16599,17 +17497,17 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="183" t="s">
         <v>0</v>
       </c>
@@ -16689,7 +17587,7 @@
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="183"/>
       <c r="B9" s="252"/>
       <c r="C9" s="253"/>
@@ -16765,7 +17663,7 @@
       <c r="BQ9" s="17"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="248"/>
       <c r="C10" s="248"/>
@@ -16775,32 +17673,32 @@
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
       <c r="I10" s="248"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="256"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="256"/>
-      <c r="U10" s="256"/>
-      <c r="V10" s="256"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="256"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="246"/>
-      <c r="AE10" s="246"/>
-      <c r="AF10" s="246"/>
-      <c r="AG10" s="246"/>
-      <c r="AH10" s="246"/>
-      <c r="AI10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
+      <c r="T10" s="246"/>
+      <c r="U10" s="246"/>
+      <c r="V10" s="246"/>
+      <c r="W10" s="246"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="247"/>
+      <c r="Z10" s="247"/>
+      <c r="AA10" s="247"/>
+      <c r="AB10" s="247"/>
+      <c r="AC10" s="247"/>
+      <c r="AD10" s="247"/>
+      <c r="AE10" s="247"/>
+      <c r="AF10" s="247"/>
+      <c r="AG10" s="247"/>
+      <c r="AH10" s="247"/>
+      <c r="AI10" s="247"/>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
@@ -16837,7 +17735,7 @@
       <c r="BQ10" s="17"/>
       <c r="BR10" s="17"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="248"/>
       <c r="C11" s="248"/>
@@ -16862,17 +17760,17 @@
       <c r="V11" s="248"/>
       <c r="W11" s="248"/>
       <c r="X11" s="248"/>
-      <c r="Y11" s="246"/>
-      <c r="Z11" s="246"/>
-      <c r="AA11" s="246"/>
-      <c r="AB11" s="246"/>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="246"/>
-      <c r="AE11" s="246"/>
-      <c r="AF11" s="246"/>
-      <c r="AG11" s="246"/>
-      <c r="AH11" s="246"/>
-      <c r="AI11" s="246"/>
+      <c r="Y11" s="247"/>
+      <c r="Z11" s="247"/>
+      <c r="AA11" s="247"/>
+      <c r="AB11" s="247"/>
+      <c r="AC11" s="247"/>
+      <c r="AD11" s="247"/>
+      <c r="AE11" s="247"/>
+      <c r="AF11" s="247"/>
+      <c r="AG11" s="247"/>
+      <c r="AH11" s="247"/>
+      <c r="AI11" s="247"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
@@ -16909,7 +17807,7 @@
       <c r="BQ11" s="17"/>
       <c r="BR11" s="17"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="248"/>
       <c r="C12" s="248"/>
@@ -16934,17 +17832,17 @@
       <c r="V12" s="248"/>
       <c r="W12" s="248"/>
       <c r="X12" s="248"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="246"/>
-      <c r="AF12" s="246"/>
-      <c r="AG12" s="246"/>
-      <c r="AH12" s="246"/>
-      <c r="AI12" s="246"/>
+      <c r="Y12" s="247"/>
+      <c r="Z12" s="247"/>
+      <c r="AA12" s="247"/>
+      <c r="AB12" s="247"/>
+      <c r="AC12" s="247"/>
+      <c r="AD12" s="247"/>
+      <c r="AE12" s="247"/>
+      <c r="AF12" s="247"/>
+      <c r="AG12" s="247"/>
+      <c r="AH12" s="247"/>
+      <c r="AI12" s="247"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -16981,7 +17879,7 @@
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="248"/>
       <c r="C13" s="248"/>
@@ -17006,17 +17904,17 @@
       <c r="V13" s="248"/>
       <c r="W13" s="248"/>
       <c r="X13" s="248"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="246"/>
-      <c r="AH13" s="246"/>
-      <c r="AI13" s="246"/>
+      <c r="Y13" s="247"/>
+      <c r="Z13" s="247"/>
+      <c r="AA13" s="247"/>
+      <c r="AB13" s="247"/>
+      <c r="AC13" s="247"/>
+      <c r="AD13" s="247"/>
+      <c r="AE13" s="247"/>
+      <c r="AF13" s="247"/>
+      <c r="AG13" s="247"/>
+      <c r="AH13" s="247"/>
+      <c r="AI13" s="247"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
@@ -17053,9 +17951,9 @@
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="256"/>
+      <c r="B14" s="246"/>
       <c r="C14" s="248"/>
       <c r="D14" s="248"/>
       <c r="E14" s="248"/>
@@ -17078,17 +17976,17 @@
       <c r="V14" s="248"/>
       <c r="W14" s="248"/>
       <c r="X14" s="248"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="246"/>
-      <c r="AH14" s="246"/>
-      <c r="AI14" s="246"/>
+      <c r="Y14" s="247"/>
+      <c r="Z14" s="247"/>
+      <c r="AA14" s="247"/>
+      <c r="AB14" s="247"/>
+      <c r="AC14" s="247"/>
+      <c r="AD14" s="247"/>
+      <c r="AE14" s="247"/>
+      <c r="AF14" s="247"/>
+      <c r="AG14" s="247"/>
+      <c r="AH14" s="247"/>
+      <c r="AI14" s="247"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
@@ -17125,7 +18023,7 @@
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="99"/>
       <c r="C15" s="100"/>
@@ -17150,17 +18048,17 @@
       <c r="V15" s="248"/>
       <c r="W15" s="248"/>
       <c r="X15" s="248"/>
-      <c r="Y15" s="246"/>
-      <c r="Z15" s="246"/>
-      <c r="AA15" s="246"/>
-      <c r="AB15" s="246"/>
-      <c r="AC15" s="246"/>
-      <c r="AD15" s="246"/>
-      <c r="AE15" s="246"/>
-      <c r="AF15" s="246"/>
-      <c r="AG15" s="246"/>
-      <c r="AH15" s="246"/>
-      <c r="AI15" s="246"/>
+      <c r="Y15" s="247"/>
+      <c r="Z15" s="247"/>
+      <c r="AA15" s="247"/>
+      <c r="AB15" s="247"/>
+      <c r="AC15" s="247"/>
+      <c r="AD15" s="247"/>
+      <c r="AE15" s="247"/>
+      <c r="AF15" s="247"/>
+      <c r="AG15" s="247"/>
+      <c r="AH15" s="247"/>
+      <c r="AI15" s="247"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
@@ -17197,9 +18095,9 @@
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="256"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="248"/>
       <c r="D16" s="248"/>
       <c r="E16" s="248"/>
@@ -17222,17 +18120,17 @@
       <c r="V16" s="248"/>
       <c r="W16" s="248"/>
       <c r="X16" s="248"/>
-      <c r="Y16" s="246"/>
-      <c r="Z16" s="246"/>
-      <c r="AA16" s="246"/>
-      <c r="AB16" s="246"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="246"/>
-      <c r="AE16" s="246"/>
-      <c r="AF16" s="246"/>
-      <c r="AG16" s="246"/>
-      <c r="AH16" s="246"/>
-      <c r="AI16" s="246"/>
+      <c r="Y16" s="247"/>
+      <c r="Z16" s="247"/>
+      <c r="AA16" s="247"/>
+      <c r="AB16" s="247"/>
+      <c r="AC16" s="247"/>
+      <c r="AD16" s="247"/>
+      <c r="AE16" s="247"/>
+      <c r="AF16" s="247"/>
+      <c r="AG16" s="247"/>
+      <c r="AH16" s="247"/>
+      <c r="AI16" s="247"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
@@ -17269,16 +18167,16 @@
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="246"/>
       <c r="J17" s="248"/>
       <c r="K17" s="248"/>
       <c r="L17" s="248"/>
@@ -17294,17 +18192,17 @@
       <c r="V17" s="248"/>
       <c r="W17" s="248"/>
       <c r="X17" s="248"/>
-      <c r="Y17" s="246"/>
-      <c r="Z17" s="246"/>
-      <c r="AA17" s="246"/>
-      <c r="AB17" s="246"/>
-      <c r="AC17" s="246"/>
-      <c r="AD17" s="246"/>
-      <c r="AE17" s="246"/>
-      <c r="AF17" s="246"/>
-      <c r="AG17" s="246"/>
-      <c r="AH17" s="246"/>
-      <c r="AI17" s="246"/>
+      <c r="Y17" s="247"/>
+      <c r="Z17" s="247"/>
+      <c r="AA17" s="247"/>
+      <c r="AB17" s="247"/>
+      <c r="AC17" s="247"/>
+      <c r="AD17" s="247"/>
+      <c r="AE17" s="247"/>
+      <c r="AF17" s="247"/>
+      <c r="AG17" s="247"/>
+      <c r="AH17" s="247"/>
+      <c r="AI17" s="247"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
@@ -17341,7 +18239,7 @@
       <c r="BQ17" s="17"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="248"/>
       <c r="C18" s="248"/>
@@ -17366,17 +18264,17 @@
       <c r="V18" s="248"/>
       <c r="W18" s="248"/>
       <c r="X18" s="248"/>
-      <c r="Y18" s="246"/>
-      <c r="Z18" s="246"/>
-      <c r="AA18" s="246"/>
-      <c r="AB18" s="246"/>
-      <c r="AC18" s="246"/>
-      <c r="AD18" s="246"/>
-      <c r="AE18" s="246"/>
-      <c r="AF18" s="246"/>
-      <c r="AG18" s="246"/>
-      <c r="AH18" s="246"/>
-      <c r="AI18" s="246"/>
+      <c r="Y18" s="247"/>
+      <c r="Z18" s="247"/>
+      <c r="AA18" s="247"/>
+      <c r="AB18" s="247"/>
+      <c r="AC18" s="247"/>
+      <c r="AD18" s="247"/>
+      <c r="AE18" s="247"/>
+      <c r="AF18" s="247"/>
+      <c r="AG18" s="247"/>
+      <c r="AH18" s="247"/>
+      <c r="AI18" s="247"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
@@ -17413,7 +18311,7 @@
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="248"/>
       <c r="C19" s="248"/>
@@ -17438,17 +18336,17 @@
       <c r="V19" s="248"/>
       <c r="W19" s="248"/>
       <c r="X19" s="248"/>
-      <c r="Y19" s="246"/>
-      <c r="Z19" s="246"/>
-      <c r="AA19" s="246"/>
-      <c r="AB19" s="246"/>
-      <c r="AC19" s="246"/>
-      <c r="AD19" s="246"/>
-      <c r="AE19" s="246"/>
-      <c r="AF19" s="246"/>
-      <c r="AG19" s="246"/>
-      <c r="AH19" s="246"/>
-      <c r="AI19" s="246"/>
+      <c r="Y19" s="247"/>
+      <c r="Z19" s="247"/>
+      <c r="AA19" s="247"/>
+      <c r="AB19" s="247"/>
+      <c r="AC19" s="247"/>
+      <c r="AD19" s="247"/>
+      <c r="AE19" s="247"/>
+      <c r="AF19" s="247"/>
+      <c r="AG19" s="247"/>
+      <c r="AH19" s="247"/>
+      <c r="AI19" s="247"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
@@ -17485,9 +18383,9 @@
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="256"/>
+      <c r="B20" s="246"/>
       <c r="C20" s="248"/>
       <c r="D20" s="248"/>
       <c r="E20" s="248"/>
@@ -17510,21 +18408,21 @@
       <c r="V20" s="248"/>
       <c r="W20" s="248"/>
       <c r="X20" s="248"/>
-      <c r="Y20" s="246"/>
-      <c r="Z20" s="246"/>
-      <c r="AA20" s="246"/>
-      <c r="AB20" s="246"/>
-      <c r="AC20" s="246"/>
-      <c r="AD20" s="246"/>
-      <c r="AE20" s="246"/>
-      <c r="AF20" s="246"/>
-      <c r="AG20" s="246"/>
-      <c r="AH20" s="246"/>
-      <c r="AI20" s="246"/>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="Y20" s="247"/>
+      <c r="Z20" s="247"/>
+      <c r="AA20" s="247"/>
+      <c r="AB20" s="247"/>
+      <c r="AC20" s="247"/>
+      <c r="AD20" s="247"/>
+      <c r="AE20" s="247"/>
+      <c r="AF20" s="247"/>
+      <c r="AG20" s="247"/>
+      <c r="AH20" s="247"/>
+      <c r="AI20" s="247"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="256"/>
+      <c r="B21" s="246"/>
       <c r="C21" s="248"/>
       <c r="D21" s="248"/>
       <c r="E21" s="248"/>
@@ -17547,21 +18445,21 @@
       <c r="V21" s="248"/>
       <c r="W21" s="248"/>
       <c r="X21" s="248"/>
-      <c r="Y21" s="246"/>
-      <c r="Z21" s="246"/>
-      <c r="AA21" s="246"/>
-      <c r="AB21" s="246"/>
-      <c r="AC21" s="246"/>
-      <c r="AD21" s="246"/>
-      <c r="AE21" s="246"/>
-      <c r="AF21" s="246"/>
-      <c r="AG21" s="246"/>
-      <c r="AH21" s="246"/>
-      <c r="AI21" s="246"/>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="247"/>
+      <c r="AA21" s="247"/>
+      <c r="AB21" s="247"/>
+      <c r="AC21" s="247"/>
+      <c r="AD21" s="247"/>
+      <c r="AE21" s="247"/>
+      <c r="AF21" s="247"/>
+      <c r="AG21" s="247"/>
+      <c r="AH21" s="247"/>
+      <c r="AI21" s="247"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="256"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="248"/>
       <c r="D22" s="248"/>
       <c r="E22" s="248"/>
@@ -17584,19 +18482,19 @@
       <c r="V22" s="248"/>
       <c r="W22" s="248"/>
       <c r="X22" s="248"/>
-      <c r="Y22" s="246"/>
-      <c r="Z22" s="246"/>
-      <c r="AA22" s="246"/>
-      <c r="AB22" s="246"/>
-      <c r="AC22" s="246"/>
-      <c r="AD22" s="246"/>
-      <c r="AE22" s="246"/>
-      <c r="AF22" s="246"/>
-      <c r="AG22" s="246"/>
-      <c r="AH22" s="246"/>
-      <c r="AI22" s="246"/>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="Y22" s="247"/>
+      <c r="Z22" s="247"/>
+      <c r="AA22" s="247"/>
+      <c r="AB22" s="247"/>
+      <c r="AC22" s="247"/>
+      <c r="AD22" s="247"/>
+      <c r="AE22" s="247"/>
+      <c r="AF22" s="247"/>
+      <c r="AG22" s="247"/>
+      <c r="AH22" s="247"/>
+      <c r="AI22" s="247"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="248"/>
       <c r="C23" s="248"/>
@@ -17606,34 +18504,34 @@
       <c r="G23" s="248"/>
       <c r="H23" s="248"/>
       <c r="I23" s="248"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="256"/>
-      <c r="S23" s="256"/>
-      <c r="T23" s="256"/>
-      <c r="U23" s="256"/>
-      <c r="V23" s="256"/>
-      <c r="W23" s="256"/>
-      <c r="X23" s="256"/>
-      <c r="Y23" s="246"/>
-      <c r="Z23" s="246"/>
-      <c r="AA23" s="246"/>
-      <c r="AB23" s="246"/>
-      <c r="AC23" s="246"/>
-      <c r="AD23" s="246"/>
-      <c r="AE23" s="246"/>
-      <c r="AF23" s="246"/>
-      <c r="AG23" s="246"/>
-      <c r="AH23" s="246"/>
-      <c r="AI23" s="246"/>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="J23" s="246"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="247"/>
+      <c r="AA23" s="247"/>
+      <c r="AB23" s="247"/>
+      <c r="AC23" s="247"/>
+      <c r="AD23" s="247"/>
+      <c r="AE23" s="247"/>
+      <c r="AF23" s="247"/>
+      <c r="AG23" s="247"/>
+      <c r="AH23" s="247"/>
+      <c r="AI23" s="247"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="248"/>
       <c r="C24" s="248"/>
@@ -17643,34 +18541,34 @@
       <c r="G24" s="248"/>
       <c r="H24" s="248"/>
       <c r="I24" s="248"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="256"/>
-      <c r="Q24" s="256"/>
-      <c r="R24" s="256"/>
-      <c r="S24" s="256"/>
-      <c r="T24" s="256"/>
-      <c r="U24" s="256"/>
-      <c r="V24" s="256"/>
-      <c r="W24" s="256"/>
-      <c r="X24" s="256"/>
-      <c r="Y24" s="246"/>
-      <c r="Z24" s="246"/>
-      <c r="AA24" s="246"/>
-      <c r="AB24" s="246"/>
-      <c r="AC24" s="246"/>
-      <c r="AD24" s="246"/>
-      <c r="AE24" s="246"/>
-      <c r="AF24" s="246"/>
-      <c r="AG24" s="246"/>
-      <c r="AH24" s="246"/>
-      <c r="AI24" s="246"/>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="J24" s="246"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="246"/>
+      <c r="U24" s="246"/>
+      <c r="V24" s="246"/>
+      <c r="W24" s="246"/>
+      <c r="X24" s="246"/>
+      <c r="Y24" s="247"/>
+      <c r="Z24" s="247"/>
+      <c r="AA24" s="247"/>
+      <c r="AB24" s="247"/>
+      <c r="AC24" s="247"/>
+      <c r="AD24" s="247"/>
+      <c r="AE24" s="247"/>
+      <c r="AF24" s="247"/>
+      <c r="AG24" s="247"/>
+      <c r="AH24" s="247"/>
+      <c r="AI24" s="247"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="248"/>
       <c r="C25" s="248"/>
@@ -17680,32 +18578,32 @@
       <c r="G25" s="248"/>
       <c r="H25" s="248"/>
       <c r="I25" s="248"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="256"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="256"/>
-      <c r="Q25" s="256"/>
-      <c r="R25" s="256"/>
-      <c r="S25" s="256"/>
-      <c r="T25" s="256"/>
-      <c r="U25" s="256"/>
-      <c r="V25" s="256"/>
-      <c r="W25" s="256"/>
-      <c r="X25" s="256"/>
-      <c r="Y25" s="246"/>
-      <c r="Z25" s="246"/>
-      <c r="AA25" s="246"/>
-      <c r="AB25" s="246"/>
-      <c r="AC25" s="246"/>
-      <c r="AD25" s="246"/>
-      <c r="AE25" s="246"/>
-      <c r="AF25" s="246"/>
-      <c r="AG25" s="246"/>
-      <c r="AH25" s="246"/>
-      <c r="AI25" s="246"/>
+      <c r="J25" s="246"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="246"/>
+      <c r="N25" s="246"/>
+      <c r="O25" s="246"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="246"/>
+      <c r="U25" s="246"/>
+      <c r="V25" s="246"/>
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="247"/>
+      <c r="Z25" s="247"/>
+      <c r="AA25" s="247"/>
+      <c r="AB25" s="247"/>
+      <c r="AC25" s="247"/>
+      <c r="AD25" s="247"/>
+      <c r="AE25" s="247"/>
+      <c r="AF25" s="247"/>
+      <c r="AG25" s="247"/>
+      <c r="AH25" s="247"/>
+      <c r="AI25" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -17817,112 +18715,112 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="30.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>23</v>
       </c>

--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Client_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Client_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C243245-6079-441F-81F7-2C79DBC30748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197B3EA-E959-4953-A3DB-0303FF3FD4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1. Domain definition'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch standard'!$A$1:$AI$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch standard'!$A$1:$AI$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. System specific-validation'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Data!$A$1:$A$22</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="199">
   <si>
     <t>No.</t>
   </si>
@@ -148,13 +148,37 @@
     <t>2.1. Nablarch standard validation</t>
   </si>
   <si>
+    <t>Character type validation (half-width alphanumeric characters)</t>
+  </si>
+  <si>
     <t>Checks that the input value is a valid character type.</t>
   </si>
   <si>
+    <t>Character type validation (Full-width characters)</t>
+  </si>
+  <si>
     <t>Same as above</t>
   </si>
   <si>
+    <t>Character type validation (characters permitted by the system)</t>
+  </si>
+  <si>
+    <t>Character number validation (variable number of digits, specify maximum value)</t>
+  </si>
+  <si>
     <t>Checks that the input value has a valid number of characters.</t>
+  </si>
+  <si>
+    <t>Number validation (integer)</t>
+  </si>
+  <si>
+    <t>Checks that the input value is an integer.</t>
+  </si>
+  <si>
+    <t>Number range validation (specify both minimum and maximum values)</t>
+  </si>
+  <si>
+    <t>Checks that the input value is within the specified range (including both ends).</t>
   </si>
   <si>
     <t>Code value effective validation</t>
@@ -164,6 +188,20 @@
 Also checks that the code value is included in the pattern, when a pattern is specified.</t>
   </si>
   <si>
+    <t>Year, month and day validation</t>
+  </si>
+  <si>
+    <t>Checks that the input value is valid as a character string representing the year, month and day. 
+Valid formats are yyyy/MM/dd or yyyyMMdd.</t>
+  </si>
+  <si>
+    <t>Year, month, day, hour, minute and second validation</t>
+  </si>
+  <si>
+    <t>Checks that the input value is valid as a character string representing the year, month, day, hour, minute and second. 
+Valid formats are yyyy/MM/dd hh/mm/ss or yyyyMMdd hhmmss.</t>
+  </si>
+  <si>
     <t>1. Domain definition</t>
   </si>
   <si>
@@ -213,6 +251,10 @@
   </si>
   <si>
     <t>Name of the client.</t>
+  </si>
+  <si>
+    <t>Character type validation (characters permitted by the system)
+Character number validation (variable number of digits, specify maximum value)</t>
   </si>
   <si>
     <t>Industry code</t>
@@ -652,6 +694,21 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>Character type validation (half-width alphanumeric characters)
+Character count validation (minimum value specified, maximum value specified)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (system allowed characters)
+Character count validation (variable number of digits, maximum value specified)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Character type validation (one-byte numbers)
+Character count validation (minimum value specified, maximum value specified)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>half-width alphanumeric character</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -688,175 +745,12 @@
     <phoneticPr fontId="31"/>
   </si>
   <si>
+    <t>Version 1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Domain Definition</t>
     <phoneticPr fontId="31"/>
-  </si>
-  <si>
-    <t>Character type validation (ASCII characters)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (half-width alphanumeric characters)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (half-width numeric characters)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (Full-width characters)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (characters permitted by the system)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character number validation (fixed number of digits)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character number validation (variable number of digits, specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Same as above</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character number validation (variable number of digits, specify both maximum and minimum values)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Numeric digit validation (specify decimal part)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Check that the input value is a valid number of digits.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Numeric digit validation (No decimal part specified)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Numeric range validation (specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the input value is less than or equal to the specified maximum value.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Numeric range validation (specify only minimum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the input value is greater than or equal to the specified minimum value.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Numeric range validation (specify both minimum and maximum values)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the input value is within the specified range (including both ends).</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Element count validation (specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the number of elements in the input value is less than or equal to the specified maximum number.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Element count validation (specify only minimum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the number of elements in the input value is greater than or equal to the specified minimum number.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Element count validation (specify both minimum and maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the number of elements in the input value is within the specified range (including both ends).</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Code value effective validation</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Enumerated value validation</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the input value is contained in the specified enumerated type element.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Date format validation</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Checks that the input value is a date string in the specified date format.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Numeric digit validation (No decimal part specified)</t>
-  </si>
-  <si>
-    <t>Character type validation (characters permitted by the system)
-Character number validation (variable number of digits, specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (half-width alphanumeric characters)
-Character number validation (variable number of digits, specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (system allowed characters)
-Character number validation (variable number of digits, specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (one-byte numbers)
-Character number validation (variable number of digits, specify only maximum value)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (half-width alphanumeric characters)
-Character number validation (variable number of digits, specify both maximum and minimum values)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Character type validation (one-byte numbers)
-Character number validation (variable number of digits, specify both maximum and minimum values)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Version 1.2</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
-    <t>1. Domain definition
-2.1. Nablarch standard</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
-    <t>- Changed maximum number of digits for customer ID
-- Added enumerated value validation and date format validation to standard provided validation</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
-    <t>Version 1.2</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -867,7 +761,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1144,6 +1038,11 @@
     <font>
       <sz val="9"/>
       <color indexed="55"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1899,7 +1798,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2413,13 +2312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2600,10 +2499,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2632,8 +2531,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2732,8 +2634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7896225" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7943850" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3840,8 +3742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2903157" y="16415302"/>
-          <a:ext cx="1498871" cy="1267224"/>
+          <a:off x="2934907" y="17101102"/>
+          <a:ext cx="1517921" cy="1318024"/>
           <a:chOff x="3536661" y="8131330"/>
           <a:chExt cx="1522826" cy="1267664"/>
         </a:xfrm>
@@ -6465,8 +6367,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7750175" y="10013950"/>
-          <a:ext cx="1187579" cy="2023167"/>
+          <a:off x="7839075" y="10420350"/>
+          <a:ext cx="1200279" cy="2112067"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -7256,8 +7158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7740650" y="16779875"/>
-          <a:ext cx="1187579" cy="2023167"/>
+          <a:off x="7829550" y="17478375"/>
+          <a:ext cx="1200279" cy="2112067"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -8148,9 +8050,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8188,9 +8090,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8223,9 +8125,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8258,9 +8177,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8439,53 +8375,53 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="12"/>
       <c r="J23" s="10" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8494,19 +8430,19 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="93">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="J25" s="93"/>
       <c r="K25" s="93"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -8515,7 +8451,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -8524,7 +8460,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -8533,7 +8469,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="12"/>
@@ -8541,7 +8477,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
@@ -8550,7 +8486,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="9"/>
       <c r="H31" s="5"/>
@@ -8559,7 +8495,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="6:12" ht="19" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="9"/>
       <c r="H32" s="5"/>
@@ -8568,7 +8504,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="6:19" ht="19" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="12"/>
@@ -8580,7 +8516,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="12"/>
@@ -8595,515 +8531,515 @@
       <c r="R34" s="97"/>
       <c r="S34" s="97"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="97"/>
       <c r="R35" s="97"/>
       <c r="S35" s="97"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="98"/>
       <c r="P36" s="97"/>
       <c r="Q36" s="98"/>
       <c r="R36" s="97"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="94"/>
       <c r="P37" s="95"/>
       <c r="Q37" s="94"/>
       <c r="R37" s="95"/>
       <c r="S37" s="94"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="95"/>
       <c r="P38" s="95"/>
       <c r="Q38" s="95"/>
       <c r="R38" s="95"/>
       <c r="S38" s="95"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="95"/>
       <c r="P39" s="95"/>
       <c r="Q39" s="95"/>
       <c r="R39" s="95"/>
       <c r="S39" s="95"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -9131,20 +9067,20 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="17"/>
+    <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="102" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
       <c r="D1" s="103"/>
       <c r="E1" s="159" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F1" s="160"/>
       <c r="G1" s="160"/>
@@ -9156,13 +9092,13 @@
       <c r="M1" s="160"/>
       <c r="N1" s="161"/>
       <c r="O1" s="150" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P1" s="151"/>
       <c r="Q1" s="151"/>
       <c r="R1" s="152"/>
       <c r="S1" s="113" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="T1" s="114"/>
       <c r="U1" s="114"/>
@@ -9172,7 +9108,7 @@
       <c r="Y1" s="114"/>
       <c r="Z1" s="115"/>
       <c r="AA1" s="102" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AB1" s="103"/>
       <c r="AC1" s="104" t="str">
@@ -9194,15 +9130,15 @@
       <c r="AM1" s="22"/>
       <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="102" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B2" s="149"/>
       <c r="C2" s="149"/>
       <c r="D2" s="103"/>
       <c r="E2" s="159" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F2" s="160"/>
       <c r="G2" s="160"/>
@@ -9226,7 +9162,7 @@
       <c r="Y2" s="117"/>
       <c r="Z2" s="118"/>
       <c r="AA2" s="102" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AB2" s="103"/>
       <c r="AC2" s="162" t="str">
@@ -9238,7 +9174,7 @@
       <c r="AF2" s="164"/>
       <c r="AG2" s="107">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="AH2" s="108"/>
       <c r="AI2" s="109"/>
@@ -9248,9 +9184,9 @@
       <c r="AM2" s="22"/>
       <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="102" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -9292,9 +9228,9 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
     </row>
-    <row r="5" spans="1:40" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N5" s="84" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AA5" s="85"/>
       <c r="AB5" s="85"/>
@@ -9306,7 +9242,7 @@
       <c r="AH5" s="85"/>
       <c r="AI5" s="85"/>
     </row>
-    <row r="6" spans="1:40" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N6" s="84"/>
       <c r="AA6" s="85"/>
       <c r="AB6" s="85"/>
@@ -9318,26 +9254,26 @@
       <c r="AH6" s="85"/>
       <c r="AI6" s="85"/>
     </row>
-    <row r="7" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="130" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C7" s="131"/>
       <c r="D7" s="132" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E7" s="133"/>
       <c r="F7" s="134"/>
       <c r="G7" s="132" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H7" s="133"/>
       <c r="I7" s="134"/>
       <c r="J7" s="132" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K7" s="133"/>
       <c r="L7" s="133"/>
@@ -9346,7 +9282,7 @@
       <c r="O7" s="133"/>
       <c r="P7" s="134"/>
       <c r="Q7" s="132" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="R7" s="133"/>
       <c r="S7" s="133"/>
@@ -9363,18 +9299,18 @@
       <c r="AD7" s="133"/>
       <c r="AE7" s="134"/>
       <c r="AF7" s="132" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AG7" s="133"/>
       <c r="AH7" s="133"/>
       <c r="AI7" s="134"/>
     </row>
-    <row r="8" spans="1:40" s="88" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="88" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="89">
         <v>1</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C8" s="136"/>
       <c r="D8" s="137">
@@ -9383,7 +9319,7 @@
       <c r="E8" s="138"/>
       <c r="F8" s="139"/>
       <c r="G8" s="140" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="H8" s="141"/>
       <c r="I8" s="142"/>
@@ -9397,7 +9333,7 @@
       <c r="O8" s="147"/>
       <c r="P8" s="148"/>
       <c r="Q8" s="146" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="R8" s="147"/>
       <c r="S8" s="147"/>
@@ -9420,12 +9356,12 @@
       <c r="AH8" s="144"/>
       <c r="AI8" s="145"/>
     </row>
-    <row r="9" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="88" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89">
         <v>2</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C9" s="129"/>
       <c r="D9" s="125">
@@ -9434,12 +9370,12 @@
       <c r="E9" s="126"/>
       <c r="F9" s="127"/>
       <c r="G9" s="122" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H9" s="123"/>
       <c r="I9" s="124"/>
       <c r="J9" s="99" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="100"/>
@@ -9448,7 +9384,7 @@
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="110" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="R9" s="111"/>
       <c r="S9" s="111"/>
@@ -9465,42 +9401,30 @@
       <c r="AD9" s="111"/>
       <c r="AE9" s="112"/>
       <c r="AF9" s="99" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AG9" s="100"/>
       <c r="AH9" s="100"/>
       <c r="AI9" s="101"/>
     </row>
-    <row r="10" spans="1:40" s="88" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89">
-        <v>3</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>218</v>
-      </c>
+    <row r="10" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="89"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="129"/>
-      <c r="D10" s="125">
-        <v>45058</v>
-      </c>
+      <c r="D10" s="125"/>
       <c r="E10" s="126"/>
       <c r="F10" s="127"/>
-      <c r="G10" s="122" t="s">
-        <v>178</v>
-      </c>
+      <c r="G10" s="122"/>
       <c r="H10" s="123"/>
       <c r="I10" s="124"/>
-      <c r="J10" s="110" t="s">
-        <v>219</v>
-      </c>
+      <c r="J10" s="99"/>
       <c r="K10" s="100"/>
       <c r="L10" s="100"/>
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
       <c r="O10" s="100"/>
       <c r="P10" s="101"/>
-      <c r="Q10" s="255" t="s">
-        <v>220</v>
-      </c>
+      <c r="Q10" s="110"/>
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
       <c r="T10" s="111"/>
@@ -9515,14 +9439,12 @@
       <c r="AC10" s="111"/>
       <c r="AD10" s="111"/>
       <c r="AE10" s="112"/>
-      <c r="AF10" s="99" t="s">
-        <v>180</v>
-      </c>
+      <c r="AF10" s="99"/>
       <c r="AG10" s="100"/>
       <c r="AH10" s="100"/>
       <c r="AI10" s="101"/>
     </row>
-    <row r="11" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89"/>
       <c r="B11" s="128"/>
       <c r="C11" s="129"/>
@@ -9559,7 +9481,7 @@
       <c r="AH11" s="100"/>
       <c r="AI11" s="101"/>
     </row>
-    <row r="12" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89"/>
       <c r="B12" s="128"/>
       <c r="C12" s="129"/>
@@ -9596,7 +9518,7 @@
       <c r="AH12" s="100"/>
       <c r="AI12" s="101"/>
     </row>
-    <row r="13" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89"/>
       <c r="B13" s="128"/>
       <c r="C13" s="129"/>
@@ -9633,7 +9555,7 @@
       <c r="AH13" s="100"/>
       <c r="AI13" s="101"/>
     </row>
-    <row r="14" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
       <c r="B14" s="128"/>
       <c r="C14" s="129"/>
@@ -9670,7 +9592,7 @@
       <c r="AH14" s="100"/>
       <c r="AI14" s="101"/>
     </row>
-    <row r="15" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="89"/>
       <c r="B15" s="128"/>
       <c r="C15" s="129"/>
@@ -9707,7 +9629,7 @@
       <c r="AH15" s="100"/>
       <c r="AI15" s="101"/>
     </row>
-    <row r="16" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="89"/>
       <c r="B16" s="128"/>
       <c r="C16" s="129"/>
@@ -9744,7 +9666,7 @@
       <c r="AH16" s="100"/>
       <c r="AI16" s="101"/>
     </row>
-    <row r="17" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="89"/>
       <c r="B17" s="128"/>
       <c r="C17" s="129"/>
@@ -9781,7 +9703,7 @@
       <c r="AH17" s="100"/>
       <c r="AI17" s="101"/>
     </row>
-    <row r="18" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="89"/>
       <c r="B18" s="128"/>
       <c r="C18" s="129"/>
@@ -9818,7 +9740,7 @@
       <c r="AH18" s="100"/>
       <c r="AI18" s="101"/>
     </row>
-    <row r="19" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
       <c r="B19" s="128"/>
       <c r="C19" s="129"/>
@@ -9855,7 +9777,7 @@
       <c r="AH19" s="100"/>
       <c r="AI19" s="101"/>
     </row>
-    <row r="20" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="89"/>
       <c r="B20" s="128"/>
       <c r="C20" s="129"/>
@@ -9892,7 +9814,7 @@
       <c r="AH20" s="100"/>
       <c r="AI20" s="101"/>
     </row>
-    <row r="21" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="89"/>
       <c r="B21" s="128"/>
       <c r="C21" s="129"/>
@@ -9929,7 +9851,7 @@
       <c r="AH21" s="100"/>
       <c r="AI21" s="101"/>
     </row>
-    <row r="22" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="89"/>
       <c r="B22" s="128"/>
       <c r="C22" s="129"/>
@@ -9966,7 +9888,7 @@
       <c r="AH22" s="100"/>
       <c r="AI22" s="101"/>
     </row>
-    <row r="23" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="89"/>
       <c r="B23" s="128"/>
       <c r="C23" s="129"/>
@@ -10003,7 +9925,7 @@
       <c r="AH23" s="100"/>
       <c r="AI23" s="101"/>
     </row>
-    <row r="24" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="89"/>
       <c r="B24" s="128"/>
       <c r="C24" s="129"/>
@@ -10040,7 +9962,7 @@
       <c r="AH24" s="100"/>
       <c r="AI24" s="101"/>
     </row>
-    <row r="25" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="89"/>
       <c r="B25" s="128"/>
       <c r="C25" s="129"/>
@@ -10077,7 +9999,7 @@
       <c r="AH25" s="100"/>
       <c r="AI25" s="101"/>
     </row>
-    <row r="26" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="89"/>
       <c r="B26" s="128"/>
       <c r="C26" s="129"/>
@@ -10114,7 +10036,7 @@
       <c r="AH26" s="100"/>
       <c r="AI26" s="101"/>
     </row>
-    <row r="27" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="89"/>
       <c r="B27" s="128"/>
       <c r="C27" s="129"/>
@@ -10151,7 +10073,7 @@
       <c r="AH27" s="100"/>
       <c r="AI27" s="101"/>
     </row>
-    <row r="28" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="89"/>
       <c r="B28" s="128"/>
       <c r="C28" s="129"/>
@@ -10188,7 +10110,7 @@
       <c r="AH28" s="100"/>
       <c r="AI28" s="101"/>
     </row>
-    <row r="29" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="89"/>
       <c r="B29" s="128"/>
       <c r="C29" s="129"/>
@@ -10225,7 +10147,7 @@
       <c r="AH29" s="100"/>
       <c r="AI29" s="101"/>
     </row>
-    <row r="30" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="89"/>
       <c r="B30" s="128"/>
       <c r="C30" s="129"/>
@@ -10262,7 +10184,7 @@
       <c r="AH30" s="100"/>
       <c r="AI30" s="101"/>
     </row>
-    <row r="31" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="89"/>
       <c r="B31" s="128"/>
       <c r="C31" s="129"/>
@@ -10299,7 +10221,7 @@
       <c r="AH31" s="100"/>
       <c r="AI31" s="101"/>
     </row>
-    <row r="32" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="89"/>
       <c r="B32" s="128"/>
       <c r="C32" s="129"/>
@@ -10336,7 +10258,7 @@
       <c r="AH32" s="100"/>
       <c r="AI32" s="101"/>
     </row>
-    <row r="33" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="89"/>
       <c r="B33" s="128"/>
       <c r="C33" s="129"/>
@@ -10373,7 +10295,7 @@
       <c r="AH33" s="100"/>
       <c r="AI33" s="101"/>
     </row>
-    <row r="34" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -10608,142 +10530,142 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="31" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="31" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="31"/>
-    <col min="257" max="290" width="4.77734375" style="31" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="31"/>
-    <col min="513" max="546" width="4.77734375" style="31" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="31"/>
-    <col min="769" max="802" width="4.77734375" style="31" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="31"/>
-    <col min="1025" max="1058" width="4.77734375" style="31" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="31"/>
-    <col min="1281" max="1314" width="4.77734375" style="31" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="31"/>
-    <col min="1537" max="1570" width="4.77734375" style="31" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="31"/>
-    <col min="1793" max="1826" width="4.77734375" style="31" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="31"/>
-    <col min="2049" max="2082" width="4.77734375" style="31" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="31"/>
-    <col min="2305" max="2338" width="4.77734375" style="31" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="31"/>
-    <col min="2561" max="2594" width="4.77734375" style="31" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="31"/>
-    <col min="2817" max="2850" width="4.77734375" style="31" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="31"/>
-    <col min="3073" max="3106" width="4.77734375" style="31" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="31"/>
-    <col min="3329" max="3362" width="4.77734375" style="31" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="31"/>
-    <col min="3585" max="3618" width="4.77734375" style="31" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="31"/>
-    <col min="3841" max="3874" width="4.77734375" style="31" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="31"/>
-    <col min="4097" max="4130" width="4.77734375" style="31" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="31"/>
-    <col min="4353" max="4386" width="4.77734375" style="31" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="31"/>
-    <col min="4609" max="4642" width="4.77734375" style="31" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="31"/>
-    <col min="4865" max="4898" width="4.77734375" style="31" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="31"/>
-    <col min="5121" max="5154" width="4.77734375" style="31" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="31"/>
-    <col min="5377" max="5410" width="4.77734375" style="31" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="31"/>
-    <col min="5633" max="5666" width="4.77734375" style="31" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="31"/>
-    <col min="5889" max="5922" width="4.77734375" style="31" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="31"/>
-    <col min="6145" max="6178" width="4.77734375" style="31" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="31"/>
-    <col min="6401" max="6434" width="4.77734375" style="31" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="31"/>
-    <col min="6657" max="6690" width="4.77734375" style="31" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="31"/>
-    <col min="6913" max="6946" width="4.77734375" style="31" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="31"/>
-    <col min="7169" max="7202" width="4.77734375" style="31" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="31"/>
-    <col min="7425" max="7458" width="4.77734375" style="31" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="31"/>
-    <col min="7681" max="7714" width="4.77734375" style="31" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="31"/>
-    <col min="7937" max="7970" width="4.77734375" style="31" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="31"/>
-    <col min="8193" max="8226" width="4.77734375" style="31" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="31"/>
-    <col min="8449" max="8482" width="4.77734375" style="31" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="31"/>
-    <col min="8705" max="8738" width="4.77734375" style="31" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="31"/>
-    <col min="8961" max="8994" width="4.77734375" style="31" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="31"/>
-    <col min="9217" max="9250" width="4.77734375" style="31" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="31"/>
-    <col min="9473" max="9506" width="4.77734375" style="31" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="31"/>
-    <col min="9729" max="9762" width="4.77734375" style="31" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="31"/>
-    <col min="9985" max="10018" width="4.77734375" style="31" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="31"/>
-    <col min="10241" max="10274" width="4.77734375" style="31" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="31"/>
-    <col min="10497" max="10530" width="4.77734375" style="31" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="31"/>
-    <col min="10753" max="10786" width="4.77734375" style="31" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="31"/>
-    <col min="11009" max="11042" width="4.77734375" style="31" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="31"/>
-    <col min="11265" max="11298" width="4.77734375" style="31" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="31"/>
-    <col min="11521" max="11554" width="4.77734375" style="31" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="31"/>
-    <col min="11777" max="11810" width="4.77734375" style="31" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="31"/>
-    <col min="12033" max="12066" width="4.77734375" style="31" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="31"/>
-    <col min="12289" max="12322" width="4.77734375" style="31" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="31"/>
-    <col min="12545" max="12578" width="4.77734375" style="31" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="31"/>
-    <col min="12801" max="12834" width="4.77734375" style="31" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="31"/>
-    <col min="13057" max="13090" width="4.77734375" style="31" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="31"/>
-    <col min="13313" max="13346" width="4.77734375" style="31" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="31"/>
-    <col min="13569" max="13602" width="4.77734375" style="31" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="31"/>
-    <col min="13825" max="13858" width="4.77734375" style="31" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="31"/>
-    <col min="14081" max="14114" width="4.77734375" style="31" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="31"/>
-    <col min="14337" max="14370" width="4.77734375" style="31" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="31"/>
-    <col min="14593" max="14626" width="4.77734375" style="31" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="31"/>
-    <col min="14849" max="14882" width="4.77734375" style="31" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="31"/>
-    <col min="15105" max="15138" width="4.77734375" style="31" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="31"/>
-    <col min="15361" max="15394" width="4.77734375" style="31" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="31"/>
-    <col min="15617" max="15650" width="4.77734375" style="31" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="31"/>
-    <col min="15873" max="15906" width="4.77734375" style="31" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="31"/>
-    <col min="16129" max="16162" width="4.77734375" style="31" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="31"/>
+    <col min="1" max="16" width="4.83203125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="31" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="31"/>
+    <col min="257" max="290" width="4.83203125" style="31" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="31"/>
+    <col min="513" max="546" width="4.83203125" style="31" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="31"/>
+    <col min="769" max="802" width="4.83203125" style="31" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="31"/>
+    <col min="1025" max="1058" width="4.83203125" style="31" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="31"/>
+    <col min="1281" max="1314" width="4.83203125" style="31" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="31"/>
+    <col min="1537" max="1570" width="4.83203125" style="31" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="31"/>
+    <col min="1793" max="1826" width="4.83203125" style="31" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="31"/>
+    <col min="2049" max="2082" width="4.83203125" style="31" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="31"/>
+    <col min="2305" max="2338" width="4.83203125" style="31" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="31"/>
+    <col min="2561" max="2594" width="4.83203125" style="31" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="31"/>
+    <col min="2817" max="2850" width="4.83203125" style="31" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="31"/>
+    <col min="3073" max="3106" width="4.83203125" style="31" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="31"/>
+    <col min="3329" max="3362" width="4.83203125" style="31" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="31"/>
+    <col min="3585" max="3618" width="4.83203125" style="31" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="31"/>
+    <col min="3841" max="3874" width="4.83203125" style="31" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="31"/>
+    <col min="4097" max="4130" width="4.83203125" style="31" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="31"/>
+    <col min="4353" max="4386" width="4.83203125" style="31" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="31"/>
+    <col min="4609" max="4642" width="4.83203125" style="31" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="31"/>
+    <col min="4865" max="4898" width="4.83203125" style="31" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="31"/>
+    <col min="5121" max="5154" width="4.83203125" style="31" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="31"/>
+    <col min="5377" max="5410" width="4.83203125" style="31" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="31"/>
+    <col min="5633" max="5666" width="4.83203125" style="31" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="31"/>
+    <col min="5889" max="5922" width="4.83203125" style="31" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="31"/>
+    <col min="6145" max="6178" width="4.83203125" style="31" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="31"/>
+    <col min="6401" max="6434" width="4.83203125" style="31" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="31"/>
+    <col min="6657" max="6690" width="4.83203125" style="31" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="31"/>
+    <col min="6913" max="6946" width="4.83203125" style="31" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="31"/>
+    <col min="7169" max="7202" width="4.83203125" style="31" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="31"/>
+    <col min="7425" max="7458" width="4.83203125" style="31" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="31"/>
+    <col min="7681" max="7714" width="4.83203125" style="31" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="31"/>
+    <col min="7937" max="7970" width="4.83203125" style="31" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="31"/>
+    <col min="8193" max="8226" width="4.83203125" style="31" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="31"/>
+    <col min="8449" max="8482" width="4.83203125" style="31" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="31"/>
+    <col min="8705" max="8738" width="4.83203125" style="31" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="31"/>
+    <col min="8961" max="8994" width="4.83203125" style="31" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="31"/>
+    <col min="9217" max="9250" width="4.83203125" style="31" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="31"/>
+    <col min="9473" max="9506" width="4.83203125" style="31" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="31"/>
+    <col min="9729" max="9762" width="4.83203125" style="31" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="31"/>
+    <col min="9985" max="10018" width="4.83203125" style="31" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="31"/>
+    <col min="10241" max="10274" width="4.83203125" style="31" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="31"/>
+    <col min="10497" max="10530" width="4.83203125" style="31" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="31"/>
+    <col min="10753" max="10786" width="4.83203125" style="31" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="31"/>
+    <col min="11009" max="11042" width="4.83203125" style="31" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="31"/>
+    <col min="11265" max="11298" width="4.83203125" style="31" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="31"/>
+    <col min="11521" max="11554" width="4.83203125" style="31" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="31"/>
+    <col min="11777" max="11810" width="4.83203125" style="31" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="31"/>
+    <col min="12033" max="12066" width="4.83203125" style="31" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="31"/>
+    <col min="12289" max="12322" width="4.83203125" style="31" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="31"/>
+    <col min="12545" max="12578" width="4.83203125" style="31" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="31"/>
+    <col min="12801" max="12834" width="4.83203125" style="31" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="31"/>
+    <col min="13057" max="13090" width="4.83203125" style="31" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="31"/>
+    <col min="13313" max="13346" width="4.83203125" style="31" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="31"/>
+    <col min="13569" max="13602" width="4.83203125" style="31" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="31"/>
+    <col min="13825" max="13858" width="4.83203125" style="31" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="31"/>
+    <col min="14081" max="14114" width="4.83203125" style="31" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="31"/>
+    <col min="14337" max="14370" width="4.83203125" style="31" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="31"/>
+    <col min="14593" max="14626" width="4.83203125" style="31" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="31"/>
+    <col min="14849" max="14882" width="4.83203125" style="31" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="31"/>
+    <col min="15105" max="15138" width="4.83203125" style="31" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="31"/>
+    <col min="15361" max="15394" width="4.83203125" style="31" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="31"/>
+    <col min="15617" max="15650" width="4.83203125" style="31" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="31"/>
+    <col min="15873" max="15906" width="4.83203125" style="31" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="31"/>
+    <col min="16129" max="16162" width="4.83203125" style="31" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -10801,7 +10723,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -10848,12 +10770,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -10902,7 +10824,7 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="4" spans="1:35" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10939,7 +10861,7 @@
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
     </row>
-    <row r="5" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -10957,7 +10879,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="58" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -10978,7 +10900,7 @@
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
     </row>
-    <row r="6" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -11015,10 +10937,10 @@
       <c r="AH6" s="17"/>
       <c r="AI6" s="17"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="59" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -11048,7 +10970,7 @@
       <c r="AH7" s="61"/>
       <c r="AI7" s="17"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="59"/>
@@ -11079,7 +11001,7 @@
       <c r="AH8" s="61"/>
       <c r="AI8" s="17"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
@@ -11108,7 +11030,7 @@
       <c r="AH9" s="61"/>
       <c r="AI9" s="17"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="s">
@@ -11141,7 +11063,7 @@
       <c r="AH10" s="61"/>
       <c r="AI10" s="17"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="59"/>
       <c r="C11" s="21" t="s">
@@ -11180,7 +11102,7 @@
       <c r="AH11" s="61"/>
       <c r="AI11" s="17"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="P12" s="56"/>
       <c r="Q12" s="17"/>
@@ -11203,7 +11125,7 @@
       <c r="AH12" s="61"/>
       <c r="AI12" s="17"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -11240,7 +11162,7 @@
       <c r="AH13" s="61"/>
       <c r="AI13" s="17"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="C14" s="17"/>
       <c r="O14" s="17"/>
@@ -11265,7 +11187,7 @@
       <c r="AH14" s="61"/>
       <c r="AI14" s="17"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -11302,7 +11224,7 @@
       <c r="AH15" s="61"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -11339,7 +11261,7 @@
       <c r="AH16" s="61"/>
       <c r="AI16" s="17"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -11374,7 +11296,7 @@
       <c r="AH17" s="61"/>
       <c r="AI17" s="17"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -11396,7 +11318,7 @@
       <c r="AH18" s="61"/>
       <c r="AI18" s="17"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="N19" s="62"/>
       <c r="P19" s="59"/>
@@ -11416,7 +11338,7 @@
       <c r="AH19" s="61"/>
       <c r="AI19" s="17"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
@@ -11434,7 +11356,7 @@
       <c r="AH20" s="61"/>
       <c r="AI20" s="17"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
@@ -11452,7 +11374,7 @@
       <c r="AH21" s="61"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
@@ -11470,7 +11392,7 @@
       <c r="AH22" s="61"/>
       <c r="AI22" s="17"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
@@ -11488,7 +11410,7 @@
       <c r="AH23" s="61"/>
       <c r="AI23" s="17"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -11523,7 +11445,7 @@
       <c r="AH24" s="61"/>
       <c r="AI24" s="17"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -11560,7 +11482,7 @@
       <c r="AH25" s="61"/>
       <c r="AI25" s="17"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -11597,7 +11519,7 @@
       <c r="AH26" s="61"/>
       <c r="AI26" s="17"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -11634,7 +11556,7 @@
       <c r="AH27" s="61"/>
       <c r="AI27" s="17"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -11671,7 +11593,7 @@
       <c r="AH28" s="61"/>
       <c r="AI28" s="17"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -11708,7 +11630,7 @@
       <c r="AH29" s="61"/>
       <c r="AI29" s="17"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -11745,7 +11667,7 @@
       <c r="AH30" s="66"/>
       <c r="AI30" s="64"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="64"/>
       <c r="B31" s="17"/>
       <c r="C31" s="56"/>
@@ -11782,7 +11704,7 @@
       <c r="AH31" s="66"/>
       <c r="AI31" s="64"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="17"/>
@@ -11819,7 +11741,7 @@
       <c r="AH32" s="66"/>
       <c r="AI32" s="64"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="17"/>
@@ -11856,7 +11778,7 @@
       <c r="AH33" s="66"/>
       <c r="AI33" s="64"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="17"/>
@@ -11893,7 +11815,7 @@
       <c r="AH34" s="66"/>
       <c r="AI34" s="64"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="17"/>
@@ -11930,7 +11852,7 @@
       <c r="AH35" s="66"/>
       <c r="AI35" s="64"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
@@ -11967,50 +11889,50 @@
       <c r="AH36" s="66"/>
       <c r="AI36" s="64"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="72"/>
       <c r="U37" s="73"/>
       <c r="AG37" s="74"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U38" s="73"/>
       <c r="AF38" s="74"/>
       <c r="AG38" s="72"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T39" s="73"/>
       <c r="AF39" s="74"/>
       <c r="AG39" s="74"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG40" s="72"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG41" s="72"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF42" s="74"/>
       <c r="AG42" s="72"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF44" s="74"/>
       <c r="AG44" s="74"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG45" s="74"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="74"/>
       <c r="AG46" s="74"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="74"/>
     </row>
-    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG49" s="74"/>
     </row>
   </sheetData>
@@ -12051,14 +11973,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="4.77734375" style="17"/>
-    <col min="33" max="35" width="4.77734375" style="17" customWidth="1"/>
-    <col min="36" max="16384" width="4.77734375" style="17"/>
+    <col min="1" max="32" width="4.83203125" style="17"/>
+    <col min="33" max="35" width="4.83203125" style="17" customWidth="1"/>
+    <col min="36" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -12116,7 +12038,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -12163,12 +12085,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -12217,34 +12139,34 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C13" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C15" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D17" s="183" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E17" s="183"/>
       <c r="F17" s="183"/>
@@ -12253,7 +12175,7 @@
       <c r="I17" s="183"/>
       <c r="J17" s="183"/>
       <c r="K17" s="183" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L17" s="183"/>
       <c r="M17" s="183"/>
@@ -12278,9 +12200,9 @@
       <c r="AF17" s="183"/>
       <c r="AG17" s="183"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D18" s="182" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E18" s="182"/>
       <c r="F18" s="182"/>
@@ -12289,7 +12211,7 @@
       <c r="I18" s="182"/>
       <c r="J18" s="182"/>
       <c r="K18" s="182" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="L18" s="182"/>
       <c r="M18" s="182"/>
@@ -12314,9 +12236,9 @@
       <c r="AF18" s="182"/>
       <c r="AG18" s="182"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D19" s="181" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E19" s="181"/>
       <c r="F19" s="181"/>
@@ -12325,7 +12247,7 @@
       <c r="I19" s="181"/>
       <c r="J19" s="181"/>
       <c r="K19" s="192" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L19" s="181"/>
       <c r="M19" s="181"/>
@@ -12350,7 +12272,7 @@
       <c r="AF19" s="181"/>
       <c r="AG19" s="181"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D20" s="180"/>
       <c r="E20" s="180"/>
       <c r="F20" s="180"/>
@@ -12359,7 +12281,7 @@
       <c r="I20" s="180"/>
       <c r="J20" s="180"/>
       <c r="K20" s="184" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="L20" s="180"/>
       <c r="M20" s="180"/>
@@ -12384,14 +12306,14 @@
       <c r="AF20" s="180"/>
       <c r="AG20" s="180"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D24" s="183" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E24" s="183"/>
       <c r="F24" s="183"/>
@@ -12400,7 +12322,7 @@
       <c r="I24" s="183"/>
       <c r="J24" s="183"/>
       <c r="K24" s="183" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L24" s="183"/>
       <c r="M24" s="183"/>
@@ -12425,9 +12347,9 @@
       <c r="AF24" s="183"/>
       <c r="AG24" s="183"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D25" s="182" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E25" s="182"/>
       <c r="F25" s="182"/>
@@ -12436,7 +12358,7 @@
       <c r="I25" s="182"/>
       <c r="J25" s="182"/>
       <c r="K25" s="182" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L25" s="182"/>
       <c r="M25" s="182"/>
@@ -12461,9 +12383,9 @@
       <c r="AF25" s="182"/>
       <c r="AG25" s="182"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D26" s="182" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E26" s="182"/>
       <c r="F26" s="182"/>
@@ -12472,7 +12394,7 @@
       <c r="I26" s="182"/>
       <c r="J26" s="182"/>
       <c r="K26" s="182" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L26" s="182"/>
       <c r="M26" s="182"/>
@@ -12497,9 +12419,9 @@
       <c r="AF26" s="182"/>
       <c r="AG26" s="182"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D27" s="182" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E27" s="182"/>
       <c r="F27" s="182"/>
@@ -12508,7 +12430,7 @@
       <c r="I27" s="182"/>
       <c r="J27" s="182"/>
       <c r="K27" s="182" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L27" s="182"/>
       <c r="M27" s="182"/>
@@ -12533,14 +12455,14 @@
       <c r="AF27" s="182"/>
       <c r="AG27" s="182"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D31" s="183" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E31" s="183"/>
       <c r="F31" s="183"/>
@@ -12549,7 +12471,7 @@
       <c r="I31" s="183"/>
       <c r="J31" s="183"/>
       <c r="K31" s="183" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L31" s="183"/>
       <c r="M31" s="183"/>
@@ -12574,9 +12496,9 @@
       <c r="AF31" s="183"/>
       <c r="AG31" s="183"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D32" s="181" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E32" s="181"/>
       <c r="F32" s="181"/>
@@ -12585,7 +12507,7 @@
       <c r="I32" s="181"/>
       <c r="J32" s="181"/>
       <c r="K32" s="181" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L32" s="181"/>
       <c r="M32" s="181"/>
@@ -12610,7 +12532,7 @@
       <c r="AF32" s="181"/>
       <c r="AG32" s="181"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D33" s="180"/>
       <c r="E33" s="180"/>
       <c r="F33" s="180"/>
@@ -12619,7 +12541,7 @@
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
       <c r="K33" s="180" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L33" s="180"/>
       <c r="M33" s="180"/>
@@ -12644,9 +12566,9 @@
       <c r="AF33" s="180"/>
       <c r="AG33" s="180"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D34" s="181" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E34" s="181"/>
       <c r="F34" s="181"/>
@@ -12655,7 +12577,7 @@
       <c r="I34" s="181"/>
       <c r="J34" s="181"/>
       <c r="K34" s="181" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L34" s="181"/>
       <c r="M34" s="181"/>
@@ -12680,7 +12602,7 @@
       <c r="AF34" s="181"/>
       <c r="AG34" s="181"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D35" s="180"/>
       <c r="E35" s="180"/>
       <c r="F35" s="180"/>
@@ -12689,7 +12611,7 @@
       <c r="I35" s="180"/>
       <c r="J35" s="180"/>
       <c r="K35" s="180" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="L35" s="180"/>
       <c r="M35" s="180"/>
@@ -12714,9 +12636,9 @@
       <c r="AF35" s="180"/>
       <c r="AG35" s="180"/>
     </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="182" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E36" s="182"/>
       <c r="F36" s="182"/>
@@ -12725,7 +12647,7 @@
       <c r="I36" s="182"/>
       <c r="J36" s="182"/>
       <c r="K36" s="182" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L36" s="182"/>
       <c r="M36" s="182"/>
@@ -12750,14 +12672,14 @@
       <c r="AF36" s="182"/>
       <c r="AG36" s="182"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D40" s="183" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E40" s="183"/>
       <c r="F40" s="183"/>
@@ -12766,7 +12688,7 @@
       <c r="I40" s="183"/>
       <c r="J40" s="183"/>
       <c r="K40" s="183" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L40" s="183"/>
       <c r="M40" s="183"/>
@@ -12791,9 +12713,9 @@
       <c r="AF40" s="183"/>
       <c r="AG40" s="183"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D41" s="182" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E41" s="182"/>
       <c r="F41" s="182"/>
@@ -12802,7 +12724,7 @@
       <c r="I41" s="182"/>
       <c r="J41" s="182"/>
       <c r="K41" s="182" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L41" s="182"/>
       <c r="M41" s="182"/>
@@ -12827,7 +12749,7 @@
       <c r="AF41" s="182"/>
       <c r="AG41" s="182"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -12859,34 +12781,34 @@
       <c r="AF42" s="31"/>
       <c r="AG42" s="31"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D51" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E53" s="191" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F53" s="191"/>
       <c r="G53" s="191"/>
@@ -12918,7 +12840,7 @@
       <c r="AG53" s="191"/>
       <c r="AH53" s="191"/>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E54" s="191"/>
       <c r="F54" s="191"/>
       <c r="G54" s="191"/>
@@ -12950,109 +12872,109 @@
       <c r="AG54" s="191"/>
       <c r="AH54" s="191"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E87" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E88" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E89" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E90" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E91" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E92" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E99" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E100" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D132" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E134" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E135" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E136" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E137" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E138" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C142" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C143" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="3:31" ht="23" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="3:31" ht="24" x14ac:dyDescent="0.2">
       <c r="C145" s="76" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D145" s="32"/>
       <c r="E145" s="32"/>
@@ -13063,10 +12985,10 @@
       <c r="J145" s="32"/>
       <c r="K145" s="33"/>
       <c r="L145" s="75" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M145" s="76" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="N145" s="32"/>
       <c r="O145" s="32"/>
@@ -13087,9 +13009,9 @@
       <c r="AD145" s="32"/>
       <c r="AE145" s="33"/>
     </row>
-    <row r="146" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C146" s="34" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="35"/>
@@ -13122,10 +13044,10 @@
       <c r="AD146" s="35"/>
       <c r="AE146" s="38"/>
     </row>
-    <row r="147" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C147" s="39"/>
       <c r="D147" s="40" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E147" s="41"/>
       <c r="F147" s="41"/>
@@ -13135,10 +13057,10 @@
       <c r="J147" s="41"/>
       <c r="K147" s="42"/>
       <c r="L147" s="43" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M147" s="40" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="N147" s="41"/>
       <c r="O147" s="41"/>
@@ -13159,10 +13081,10 @@
       <c r="AD147" s="41"/>
       <c r="AE147" s="42"/>
     </row>
-    <row r="148" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C148" s="44"/>
       <c r="D148" s="45" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E148" s="46"/>
       <c r="F148" s="46"/>
@@ -13173,7 +13095,7 @@
       <c r="K148" s="47"/>
       <c r="L148" s="48"/>
       <c r="M148" s="45" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="N148" s="46"/>
       <c r="O148" s="46"/>
@@ -13194,7 +13116,7 @@
       <c r="AD148" s="46"/>
       <c r="AE148" s="47"/>
     </row>
-    <row r="149" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C149" s="34" t="s">
         <v>31</v>
       </c>
@@ -13208,7 +13130,7 @@
       <c r="K149" s="38"/>
       <c r="L149" s="49"/>
       <c r="M149" s="34" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="N149" s="35"/>
       <c r="O149" s="35"/>
@@ -13229,16 +13151,16 @@
       <c r="AD149" s="35"/>
       <c r="AE149" s="38"/>
     </row>
-    <row r="150" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C150" s="39"/>
       <c r="K150" s="50"/>
       <c r="L150" s="51"/>
       <c r="M150" s="39" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AE150" s="50"/>
     </row>
-    <row r="151" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C151" s="34" t="s">
         <v>25</v>
       </c>
@@ -13252,7 +13174,7 @@
       <c r="K151" s="38"/>
       <c r="L151" s="52"/>
       <c r="M151" s="185" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="N151" s="186"/>
       <c r="O151" s="186"/>
@@ -13273,7 +13195,7 @@
       <c r="AD151" s="186"/>
       <c r="AE151" s="187"/>
     </row>
-    <row r="152" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C152" s="44"/>
       <c r="D152" s="53"/>
       <c r="E152" s="53"/>
@@ -13304,44 +13226,44 @@
       <c r="AD152" s="189"/>
       <c r="AE152" s="190"/>
     </row>
-    <row r="154" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C154" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="156" spans="3:31" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C156" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="3:31" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="157" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C157" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="158" spans="3:31" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C158" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="159" spans="3:31" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C159" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="160" spans="3:31" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C160" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="17" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -13423,18 +13345,18 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="4.77734375" style="17"/>
-    <col min="24" max="24" width="4.77734375" style="17" customWidth="1"/>
-    <col min="25" max="36" width="4.77734375" style="17"/>
-    <col min="37" max="39" width="4.77734375" style="17" customWidth="1"/>
-    <col min="40" max="41" width="4.77734375" style="17"/>
-    <col min="42" max="44" width="4.77734375" style="17" customWidth="1"/>
-    <col min="45" max="16384" width="4.77734375" style="17"/>
+    <col min="1" max="23" width="4.83203125" style="17"/>
+    <col min="24" max="24" width="4.83203125" style="17" customWidth="1"/>
+    <col min="25" max="36" width="4.83203125" style="17"/>
+    <col min="37" max="39" width="4.83203125" style="17" customWidth="1"/>
+    <col min="40" max="41" width="4.83203125" style="17"/>
+    <col min="42" max="44" width="4.83203125" style="17" customWidth="1"/>
+    <col min="45" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -13495,7 +13417,7 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="23"/>
     </row>
-    <row r="2" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -13542,7 +13464,7 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
@@ -13550,7 +13472,7 @@
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
     </row>
-    <row r="3" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -13602,24 +13524,24 @@
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="233" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="235" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" s="235"/>
       <c r="D7" s="235"/>
       <c r="E7" s="235"/>
       <c r="F7" s="235"/>
       <c r="G7" s="219" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H7" s="220"/>
       <c r="I7" s="220"/>
@@ -13634,7 +13556,7 @@
       <c r="P7" s="232"/>
       <c r="Q7" s="232"/>
       <c r="R7" s="183" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="S7" s="183"/>
       <c r="T7" s="183"/>
@@ -13650,7 +13572,7 @@
       <c r="AB7" s="230"/>
       <c r="AC7" s="231"/>
       <c r="AD7" s="232" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AE7" s="232"/>
       <c r="AF7" s="232"/>
@@ -13673,21 +13595,21 @@
       <c r="AV7" s="237"/>
       <c r="AW7" s="237"/>
       <c r="AX7" s="237" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AY7" s="237"/>
       <c r="AZ7" s="237"/>
       <c r="BA7" s="237"/>
       <c r="BB7" s="237"/>
       <c r="BC7" s="238" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="BD7" s="239"/>
       <c r="BE7" s="239"/>
       <c r="BF7" s="239"/>
       <c r="BG7" s="240"/>
       <c r="BH7" s="237" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="BI7" s="237"/>
       <c r="BJ7" s="237"/>
@@ -13696,7 +13618,7 @@
       <c r="BM7" s="237"/>
       <c r="BN7" s="237"/>
     </row>
-    <row r="8" spans="1:66" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="234"/>
       <c r="B8" s="235"/>
       <c r="C8" s="235"/>
@@ -13715,24 +13637,24 @@
       <c r="P8" s="232"/>
       <c r="Q8" s="232"/>
       <c r="R8" s="236" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S8" s="228"/>
       <c r="T8" s="228" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="U8" s="228"/>
       <c r="V8" s="225" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W8" s="226"/>
       <c r="X8" s="227" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="228"/>
       <c r="Z8" s="228"/>
       <c r="AA8" s="228" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="228"/>
       <c r="AC8" s="226"/>
@@ -13773,19 +13695,19 @@
       <c r="BM8" s="237"/>
       <c r="BN8" s="237"/>
     </row>
-    <row r="9" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="209" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C9" s="210"/>
       <c r="D9" s="210"/>
       <c r="E9" s="210"/>
       <c r="F9" s="211"/>
       <c r="G9" s="110" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
@@ -13821,7 +13743,7 @@
       <c r="AI9" s="112"/>
       <c r="AJ9" s="28"/>
       <c r="AL9" s="110" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AM9" s="100"/>
       <c r="AN9" s="100"/>
@@ -13835,7 +13757,7 @@
       <c r="AV9" s="100"/>
       <c r="AW9" s="101"/>
       <c r="AX9" s="244" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="AY9" s="244"/>
       <c r="AZ9" s="244"/>
@@ -13854,19 +13776,19 @@
       <c r="BM9" s="245"/>
       <c r="BN9" s="245"/>
     </row>
-    <row r="10" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>2</v>
       </c>
       <c r="B10" s="209" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C10" s="210"/>
       <c r="D10" s="210"/>
       <c r="E10" s="210"/>
       <c r="F10" s="211"/>
       <c r="G10" s="110" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H10" s="111"/>
       <c r="I10" s="111"/>
@@ -13902,7 +13824,7 @@
       <c r="AI10" s="112"/>
       <c r="AJ10" s="30"/>
       <c r="AL10" s="110" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="AM10" s="100"/>
       <c r="AN10" s="100"/>
@@ -13916,14 +13838,14 @@
       <c r="AV10" s="100"/>
       <c r="AW10" s="101"/>
       <c r="AX10" s="244" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AY10" s="244"/>
       <c r="AZ10" s="244"/>
       <c r="BA10" s="244"/>
       <c r="BB10" s="244"/>
       <c r="BC10" s="110" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="BD10" s="111"/>
       <c r="BE10" s="111"/>
@@ -13937,19 +13859,19 @@
       <c r="BM10" s="245"/>
       <c r="BN10" s="245"/>
     </row>
-    <row r="11" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>3</v>
       </c>
       <c r="B11" s="209" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="210"/>
       <c r="D11" s="210"/>
       <c r="E11" s="210"/>
       <c r="F11" s="211"/>
       <c r="G11" s="110" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H11" s="111"/>
       <c r="I11" s="111"/>
@@ -13972,7 +13894,7 @@
       <c r="V11" s="214"/>
       <c r="W11" s="215"/>
       <c r="X11" s="216" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Y11" s="217"/>
       <c r="Z11" s="217"/>
@@ -13987,7 +13909,7 @@
       <c r="AI11" s="112"/>
       <c r="AJ11" s="28"/>
       <c r="AL11" s="110" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AM11" s="111"/>
       <c r="AN11" s="111"/>
@@ -14001,7 +13923,7 @@
       <c r="AV11" s="111"/>
       <c r="AW11" s="112"/>
       <c r="AX11" s="244" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="AY11" s="244"/>
       <c r="AZ11" s="244"/>
@@ -14020,12 +13942,12 @@
       <c r="BM11" s="245"/>
       <c r="BN11" s="245"/>
     </row>
-    <row r="12" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>4</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
@@ -14066,7 +13988,7 @@
       <c r="AI12" s="194"/>
       <c r="AJ12" s="28"/>
       <c r="AL12" s="110" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AM12" s="111"/>
       <c r="AN12" s="111"/>
@@ -14080,14 +14002,14 @@
       <c r="AV12" s="111"/>
       <c r="AW12" s="112"/>
       <c r="AX12" s="110" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="AY12" s="193"/>
       <c r="AZ12" s="193"/>
       <c r="BA12" s="193"/>
       <c r="BB12" s="194"/>
       <c r="BC12" s="195" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="BD12" s="196"/>
       <c r="BE12" s="196"/>
@@ -14101,12 +14023,12 @@
       <c r="BM12" s="91"/>
       <c r="BN12" s="92"/>
     </row>
-    <row r="13" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>5</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
@@ -14147,7 +14069,7 @@
       <c r="AI13" s="194"/>
       <c r="AJ13" s="28"/>
       <c r="AL13" s="110" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AM13" s="111"/>
       <c r="AN13" s="111"/>
@@ -14161,14 +14083,14 @@
       <c r="AV13" s="111"/>
       <c r="AW13" s="112"/>
       <c r="AX13" s="110" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AY13" s="193"/>
       <c r="AZ13" s="193"/>
       <c r="BA13" s="193"/>
       <c r="BB13" s="194"/>
       <c r="BC13" s="195" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="BD13" s="196"/>
       <c r="BE13" s="196"/>
@@ -14182,12 +14104,12 @@
       <c r="BM13" s="91"/>
       <c r="BN13" s="92"/>
     </row>
-    <row r="14" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>6</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -14228,7 +14150,7 @@
       <c r="AI14" s="194"/>
       <c r="AJ14" s="28"/>
       <c r="AL14" s="110" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AM14" s="111"/>
       <c r="AN14" s="111"/>
@@ -14242,14 +14164,14 @@
       <c r="AV14" s="111"/>
       <c r="AW14" s="112"/>
       <c r="AX14" s="110" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AY14" s="193"/>
       <c r="AZ14" s="193"/>
       <c r="BA14" s="193"/>
       <c r="BB14" s="194"/>
       <c r="BC14" s="110" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="BD14" s="111"/>
       <c r="BE14" s="111"/>
@@ -14263,12 +14185,12 @@
       <c r="BM14" s="91"/>
       <c r="BN14" s="92"/>
     </row>
-    <row r="15" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>7</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
@@ -14309,7 +14231,7 @@
       <c r="AI15" s="194"/>
       <c r="AJ15" s="28"/>
       <c r="AL15" s="110" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AM15" s="111"/>
       <c r="AN15" s="111"/>
@@ -14323,14 +14245,14 @@
       <c r="AV15" s="111"/>
       <c r="AW15" s="112"/>
       <c r="AX15" s="110" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AY15" s="193"/>
       <c r="AZ15" s="193"/>
       <c r="BA15" s="193"/>
       <c r="BB15" s="194"/>
       <c r="BC15" s="110" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="BD15" s="111"/>
       <c r="BE15" s="111"/>
@@ -14344,12 +14266,12 @@
       <c r="BM15" s="91"/>
       <c r="BN15" s="92"/>
     </row>
-    <row r="16" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>8</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
@@ -14392,7 +14314,7 @@
       <c r="AI16" s="194"/>
       <c r="AJ16" s="28"/>
       <c r="AL16" s="110" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AM16" s="111"/>
       <c r="AN16" s="111"/>
@@ -14406,14 +14328,14 @@
       <c r="AV16" s="111"/>
       <c r="AW16" s="112"/>
       <c r="AX16" s="110" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AY16" s="193"/>
       <c r="AZ16" s="193"/>
       <c r="BA16" s="193"/>
       <c r="BB16" s="194"/>
       <c r="BC16" s="195" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="BD16" s="196"/>
       <c r="BE16" s="196"/>
@@ -14427,12 +14349,12 @@
       <c r="BM16" s="91"/>
       <c r="BN16" s="92"/>
     </row>
-    <row r="17" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
@@ -14475,7 +14397,7 @@
       <c r="AI17" s="194"/>
       <c r="AJ17" s="28"/>
       <c r="AL17" s="110" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="AM17" s="111"/>
       <c r="AN17" s="111"/>
@@ -14489,14 +14411,14 @@
       <c r="AV17" s="111"/>
       <c r="AW17" s="112"/>
       <c r="AX17" s="110" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AY17" s="193"/>
       <c r="AZ17" s="193"/>
       <c r="BA17" s="193"/>
       <c r="BB17" s="194"/>
       <c r="BC17" s="195" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="BD17" s="193"/>
       <c r="BE17" s="193"/>
@@ -14510,12 +14432,12 @@
       <c r="BM17" s="91"/>
       <c r="BN17" s="92"/>
     </row>
-    <row r="18" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>10</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
@@ -14556,7 +14478,7 @@
       <c r="AI18" s="194"/>
       <c r="AJ18" s="28"/>
       <c r="AL18" s="110" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="AM18" s="111"/>
       <c r="AN18" s="111"/>
@@ -14570,14 +14492,14 @@
       <c r="AV18" s="111"/>
       <c r="AW18" s="112"/>
       <c r="AX18" s="110" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AY18" s="193"/>
       <c r="AZ18" s="193"/>
       <c r="BA18" s="193"/>
       <c r="BB18" s="194"/>
       <c r="BC18" s="195" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="BD18" s="193"/>
       <c r="BE18" s="193"/>
@@ -14591,12 +14513,12 @@
       <c r="BM18" s="91"/>
       <c r="BN18" s="92"/>
     </row>
-    <row r="19" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>11</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -14637,7 +14559,7 @@
       <c r="AI19" s="194"/>
       <c r="AJ19" s="28"/>
       <c r="AL19" s="110" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AM19" s="111"/>
       <c r="AN19" s="111"/>
@@ -14651,14 +14573,14 @@
       <c r="AV19" s="111"/>
       <c r="AW19" s="112"/>
       <c r="AX19" s="110" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AY19" s="193"/>
       <c r="AZ19" s="193"/>
       <c r="BA19" s="193"/>
       <c r="BB19" s="194"/>
       <c r="BC19" s="110" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="BD19" s="111"/>
       <c r="BE19" s="111"/>
@@ -14672,8 +14594,8 @@
       <c r="BM19" s="91"/>
       <c r="BN19" s="92"/>
     </row>
-    <row r="20" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="160">
@@ -14857,21 +14779,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:BR38"/>
+  <dimension ref="A1:BR28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="4.77734375" style="21" customWidth="1"/>
+    <col min="1" max="29" width="4.83203125" style="21" customWidth="1"/>
     <col min="30" max="30" width="5" style="21" customWidth="1"/>
-    <col min="31" max="70" width="4.77734375" style="21" customWidth="1"/>
+    <col min="31" max="70" width="4.83203125" style="21" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -14929,7 +14851,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -14976,12 +14898,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -15030,17 +14952,17 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="183" t="s">
         <v>0</v>
       </c>
@@ -15091,7 +15013,7 @@
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="183"/>
       <c r="B9" s="252"/>
       <c r="C9" s="253"/>
@@ -15167,22 +15089,22 @@
       <c r="BQ9" s="17"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="246" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
+      <c r="B10" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
       <c r="J10" s="248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="248"/>
       <c r="L10" s="248"/>
@@ -15198,17 +15120,17 @@
       <c r="V10" s="248"/>
       <c r="W10" s="248"/>
       <c r="X10" s="248"/>
-      <c r="Y10" s="247"/>
-      <c r="Z10" s="247"/>
-      <c r="AA10" s="247"/>
-      <c r="AB10" s="247"/>
-      <c r="AC10" s="247"/>
-      <c r="AD10" s="247"/>
-      <c r="AE10" s="247"/>
-      <c r="AF10" s="247"/>
-      <c r="AG10" s="247"/>
-      <c r="AH10" s="247"/>
-      <c r="AI10" s="247"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="246"/>
+      <c r="AE10" s="246"/>
+      <c r="AF10" s="246"/>
+      <c r="AG10" s="246"/>
+      <c r="AH10" s="246"/>
+      <c r="AI10" s="246"/>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
@@ -15245,22 +15167,22 @@
       <c r="BQ10" s="17"/>
       <c r="BR10" s="17"/>
     </row>
-    <row r="11" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="246" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
+      <c r="B11" s="255" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="255"/>
       <c r="J11" s="248" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="248"/>
       <c r="L11" s="248"/>
@@ -15276,17 +15198,17 @@
       <c r="V11" s="248"/>
       <c r="W11" s="248"/>
       <c r="X11" s="248"/>
-      <c r="Y11" s="247"/>
-      <c r="Z11" s="247"/>
-      <c r="AA11" s="247"/>
-      <c r="AB11" s="247"/>
-      <c r="AC11" s="247"/>
-      <c r="AD11" s="247"/>
-      <c r="AE11" s="247"/>
-      <c r="AF11" s="247"/>
-      <c r="AG11" s="247"/>
-      <c r="AH11" s="247"/>
-      <c r="AI11" s="247"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="246"/>
+      <c r="AA11" s="246"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="246"/>
+      <c r="AE11" s="246"/>
+      <c r="AF11" s="246"/>
+      <c r="AG11" s="246"/>
+      <c r="AH11" s="246"/>
+      <c r="AI11" s="246"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
@@ -15323,22 +15245,22 @@
       <c r="BQ11" s="17"/>
       <c r="BR11" s="17"/>
     </row>
-    <row r="12" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="246" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
+      <c r="B12" s="256" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
       <c r="J12" s="248" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12" s="248"/>
       <c r="L12" s="248"/>
@@ -15354,17 +15276,17 @@
       <c r="V12" s="248"/>
       <c r="W12" s="248"/>
       <c r="X12" s="248"/>
-      <c r="Y12" s="247"/>
-      <c r="Z12" s="247"/>
-      <c r="AA12" s="247"/>
-      <c r="AB12" s="247"/>
-      <c r="AC12" s="247"/>
-      <c r="AD12" s="247"/>
-      <c r="AE12" s="247"/>
-      <c r="AF12" s="247"/>
-      <c r="AG12" s="247"/>
-      <c r="AH12" s="247"/>
-      <c r="AI12" s="247"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="246"/>
+      <c r="AE12" s="246"/>
+      <c r="AF12" s="246"/>
+      <c r="AG12" s="246"/>
+      <c r="AH12" s="246"/>
+      <c r="AI12" s="246"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -15401,22 +15323,22 @@
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
     </row>
-    <row r="13" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>4</v>
       </c>
-      <c r="B13" s="246" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
+      <c r="B13" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="248" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K13" s="248"/>
       <c r="L13" s="248"/>
@@ -15432,17 +15354,17 @@
       <c r="V13" s="248"/>
       <c r="W13" s="248"/>
       <c r="X13" s="248"/>
-      <c r="Y13" s="247"/>
-      <c r="Z13" s="247"/>
-      <c r="AA13" s="247"/>
-      <c r="AB13" s="247"/>
-      <c r="AC13" s="247"/>
-      <c r="AD13" s="247"/>
-      <c r="AE13" s="247"/>
-      <c r="AF13" s="247"/>
-      <c r="AG13" s="247"/>
-      <c r="AH13" s="247"/>
-      <c r="AI13" s="247"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="246"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="246"/>
+      <c r="AH13" s="246"/>
+      <c r="AI13" s="246"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
@@ -15479,12 +15401,12 @@
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>5</v>
       </c>
-      <c r="B14" s="246" t="s">
-        <v>186</v>
+      <c r="B14" s="256" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="248"/>
       <c r="D14" s="248"/>
@@ -15494,7 +15416,7 @@
       <c r="H14" s="248"/>
       <c r="I14" s="248"/>
       <c r="J14" s="248" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K14" s="248"/>
       <c r="L14" s="248"/>
@@ -15510,17 +15432,17 @@
       <c r="V14" s="248"/>
       <c r="W14" s="248"/>
       <c r="X14" s="248"/>
-      <c r="Y14" s="247"/>
-      <c r="Z14" s="247"/>
-      <c r="AA14" s="247"/>
-      <c r="AB14" s="247"/>
-      <c r="AC14" s="247"/>
-      <c r="AD14" s="247"/>
-      <c r="AE14" s="247"/>
-      <c r="AF14" s="247"/>
-      <c r="AG14" s="247"/>
-      <c r="AH14" s="247"/>
-      <c r="AI14" s="247"/>
+      <c r="Y14" s="246"/>
+      <c r="Z14" s="246"/>
+      <c r="AA14" s="246"/>
+      <c r="AB14" s="246"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="246"/>
+      <c r="AE14" s="246"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="246"/>
+      <c r="AH14" s="246"/>
+      <c r="AI14" s="246"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
@@ -15557,22 +15479,22 @@
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
     </row>
-    <row r="15" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>6</v>
       </c>
-      <c r="B15" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
+      <c r="B15" s="256" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="248"/>
       <c r="J15" s="248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K15" s="248"/>
       <c r="L15" s="248"/>
@@ -15588,17 +15510,17 @@
       <c r="V15" s="248"/>
       <c r="W15" s="248"/>
       <c r="X15" s="248"/>
-      <c r="Y15" s="247"/>
-      <c r="Z15" s="247"/>
-      <c r="AA15" s="247"/>
-      <c r="AB15" s="247"/>
-      <c r="AC15" s="247"/>
-      <c r="AD15" s="247"/>
-      <c r="AE15" s="247"/>
-      <c r="AF15" s="247"/>
-      <c r="AG15" s="247"/>
-      <c r="AH15" s="247"/>
-      <c r="AI15" s="247"/>
+      <c r="Y15" s="246"/>
+      <c r="Z15" s="246"/>
+      <c r="AA15" s="246"/>
+      <c r="AB15" s="246"/>
+      <c r="AC15" s="246"/>
+      <c r="AD15" s="246"/>
+      <c r="AE15" s="246"/>
+      <c r="AF15" s="246"/>
+      <c r="AG15" s="246"/>
+      <c r="AH15" s="246"/>
+      <c r="AI15" s="246"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
@@ -15635,48 +15557,48 @@
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
     </row>
-    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>7</v>
       </c>
-      <c r="B16" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="248" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="248"/>
-      <c r="L16" s="248"/>
-      <c r="M16" s="248"/>
-      <c r="N16" s="248"/>
-      <c r="O16" s="248"/>
-      <c r="P16" s="248"/>
-      <c r="Q16" s="248"/>
-      <c r="R16" s="248"/>
-      <c r="S16" s="248"/>
-      <c r="T16" s="248"/>
-      <c r="U16" s="248"/>
-      <c r="V16" s="248"/>
-      <c r="W16" s="248"/>
-      <c r="X16" s="248"/>
-      <c r="Y16" s="247"/>
-      <c r="Z16" s="247"/>
-      <c r="AA16" s="247"/>
-      <c r="AB16" s="247"/>
-      <c r="AC16" s="247"/>
-      <c r="AD16" s="247"/>
-      <c r="AE16" s="247"/>
-      <c r="AF16" s="247"/>
-      <c r="AG16" s="247"/>
-      <c r="AH16" s="247"/>
-      <c r="AI16" s="247"/>
+      <c r="B16" s="248" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="256" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="256"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="256"/>
+      <c r="U16" s="256"/>
+      <c r="V16" s="256"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="246"/>
+      <c r="Z16" s="246"/>
+      <c r="AA16" s="246"/>
+      <c r="AB16" s="246"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="246"/>
+      <c r="AE16" s="246"/>
+      <c r="AF16" s="246"/>
+      <c r="AG16" s="246"/>
+      <c r="AH16" s="246"/>
+      <c r="AI16" s="246"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
@@ -15713,48 +15635,48 @@
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
     </row>
-    <row r="17" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>8</v>
       </c>
-      <c r="B17" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="248" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="248"/>
-      <c r="L17" s="248"/>
-      <c r="M17" s="248"/>
-      <c r="N17" s="248"/>
-      <c r="O17" s="248"/>
-      <c r="P17" s="248"/>
-      <c r="Q17" s="248"/>
-      <c r="R17" s="248"/>
-      <c r="S17" s="248"/>
-      <c r="T17" s="248"/>
-      <c r="U17" s="248"/>
-      <c r="V17" s="248"/>
-      <c r="W17" s="248"/>
-      <c r="X17" s="248"/>
-      <c r="Y17" s="247"/>
-      <c r="Z17" s="247"/>
-      <c r="AA17" s="247"/>
-      <c r="AB17" s="247"/>
-      <c r="AC17" s="247"/>
-      <c r="AD17" s="247"/>
-      <c r="AE17" s="247"/>
-      <c r="AF17" s="247"/>
-      <c r="AG17" s="247"/>
-      <c r="AH17" s="247"/>
-      <c r="AI17" s="247"/>
+      <c r="B17" s="248" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="256" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="256"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="256"/>
+      <c r="T17" s="256"/>
+      <c r="U17" s="256"/>
+      <c r="V17" s="256"/>
+      <c r="W17" s="256"/>
+      <c r="X17" s="256"/>
+      <c r="Y17" s="246"/>
+      <c r="Z17" s="246"/>
+      <c r="AA17" s="246"/>
+      <c r="AB17" s="246"/>
+      <c r="AC17" s="246"/>
+      <c r="AD17" s="246"/>
+      <c r="AE17" s="246"/>
+      <c r="AF17" s="246"/>
+      <c r="AG17" s="246"/>
+      <c r="AH17" s="246"/>
+      <c r="AI17" s="246"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
@@ -15791,48 +15713,48 @@
       <c r="BQ17" s="17"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>9</v>
       </c>
-      <c r="B18" s="246" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248"/>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="248"/>
-      <c r="H18" s="248"/>
-      <c r="I18" s="248"/>
-      <c r="J18" s="248" t="s">
-        <v>192</v>
-      </c>
-      <c r="K18" s="248"/>
-      <c r="L18" s="248"/>
-      <c r="M18" s="248"/>
-      <c r="N18" s="248"/>
-      <c r="O18" s="248"/>
-      <c r="P18" s="248"/>
-      <c r="Q18" s="248"/>
-      <c r="R18" s="248"/>
-      <c r="S18" s="248"/>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="248"/>
-      <c r="X18" s="248"/>
-      <c r="Y18" s="247"/>
-      <c r="Z18" s="247"/>
-      <c r="AA18" s="247"/>
-      <c r="AB18" s="247"/>
-      <c r="AC18" s="247"/>
-      <c r="AD18" s="247"/>
-      <c r="AE18" s="247"/>
-      <c r="AF18" s="247"/>
-      <c r="AG18" s="247"/>
-      <c r="AH18" s="247"/>
-      <c r="AI18" s="247"/>
+      <c r="B18" s="256" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="256"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="256"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="256"/>
+      <c r="U18" s="256"/>
+      <c r="V18" s="256"/>
+      <c r="W18" s="256"/>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="246"/>
+      <c r="Z18" s="246"/>
+      <c r="AA18" s="246"/>
+      <c r="AB18" s="246"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="246"/>
+      <c r="AE18" s="246"/>
+      <c r="AF18" s="246"/>
+      <c r="AG18" s="246"/>
+      <c r="AH18" s="246"/>
+      <c r="AI18" s="246"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
@@ -15869,48 +15791,42 @@
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
     </row>
-    <row r="19" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>10</v>
-      </c>
-      <c r="B19" s="246" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="248" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="248"/>
-      <c r="L19" s="248"/>
-      <c r="M19" s="248"/>
-      <c r="N19" s="248"/>
-      <c r="O19" s="248"/>
-      <c r="P19" s="248"/>
-      <c r="Q19" s="248"/>
-      <c r="R19" s="248"/>
-      <c r="S19" s="248"/>
-      <c r="T19" s="248"/>
-      <c r="U19" s="248"/>
-      <c r="V19" s="248"/>
-      <c r="W19" s="248"/>
-      <c r="X19" s="248"/>
-      <c r="Y19" s="247"/>
-      <c r="Z19" s="247"/>
-      <c r="AA19" s="247"/>
-      <c r="AB19" s="247"/>
-      <c r="AC19" s="247"/>
-      <c r="AD19" s="247"/>
-      <c r="AE19" s="247"/>
-      <c r="AF19" s="247"/>
-      <c r="AG19" s="247"/>
-      <c r="AH19" s="247"/>
-      <c r="AI19" s="247"/>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
@@ -15947,48 +15863,42 @@
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
     </row>
-    <row r="20" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>11</v>
-      </c>
-      <c r="B20" s="246" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="248"/>
-      <c r="D20" s="248"/>
-      <c r="E20" s="248"/>
-      <c r="F20" s="248"/>
-      <c r="G20" s="248"/>
-      <c r="H20" s="248"/>
-      <c r="I20" s="248"/>
-      <c r="J20" s="248" t="s">
-        <v>195</v>
-      </c>
-      <c r="K20" s="248"/>
-      <c r="L20" s="248"/>
-      <c r="M20" s="248"/>
-      <c r="N20" s="248"/>
-      <c r="O20" s="248"/>
-      <c r="P20" s="248"/>
-      <c r="Q20" s="248"/>
-      <c r="R20" s="248"/>
-      <c r="S20" s="248"/>
-      <c r="T20" s="248"/>
-      <c r="U20" s="248"/>
-      <c r="V20" s="248"/>
-      <c r="W20" s="248"/>
-      <c r="X20" s="248"/>
-      <c r="Y20" s="247"/>
-      <c r="Z20" s="247"/>
-      <c r="AA20" s="247"/>
-      <c r="AB20" s="247"/>
-      <c r="AC20" s="247"/>
-      <c r="AD20" s="247"/>
-      <c r="AE20" s="247"/>
-      <c r="AF20" s="247"/>
-      <c r="AG20" s="247"/>
-      <c r="AH20" s="247"/>
-      <c r="AI20" s="247"/>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
       <c r="AL20" s="17"/>
@@ -16025,48 +15935,42 @@
       <c r="BQ20" s="17"/>
       <c r="BR20" s="17"/>
     </row>
-    <row r="21" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>12</v>
-      </c>
-      <c r="B21" s="246" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="248"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="248"/>
-      <c r="J21" s="248" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" s="248"/>
-      <c r="L21" s="248"/>
-      <c r="M21" s="248"/>
-      <c r="N21" s="248"/>
-      <c r="O21" s="248"/>
-      <c r="P21" s="248"/>
-      <c r="Q21" s="248"/>
-      <c r="R21" s="248"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="248"/>
-      <c r="U21" s="248"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="248"/>
-      <c r="X21" s="248"/>
-      <c r="Y21" s="247"/>
-      <c r="Z21" s="247"/>
-      <c r="AA21" s="247"/>
-      <c r="AB21" s="247"/>
-      <c r="AC21" s="247"/>
-      <c r="AD21" s="247"/>
-      <c r="AE21" s="247"/>
-      <c r="AF21" s="247"/>
-      <c r="AG21" s="247"/>
-      <c r="AH21" s="247"/>
-      <c r="AI21" s="247"/>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
@@ -16103,48 +16007,42 @@
       <c r="BQ21" s="17"/>
       <c r="BR21" s="17"/>
     </row>
-    <row r="22" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>13</v>
-      </c>
-      <c r="B22" s="246" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="248"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="248"/>
-      <c r="F22" s="248"/>
-      <c r="G22" s="248"/>
-      <c r="H22" s="248"/>
-      <c r="I22" s="248"/>
-      <c r="J22" s="248" t="s">
-        <v>199</v>
-      </c>
-      <c r="K22" s="248"/>
-      <c r="L22" s="248"/>
-      <c r="M22" s="248"/>
-      <c r="N22" s="248"/>
-      <c r="O22" s="248"/>
-      <c r="P22" s="248"/>
-      <c r="Q22" s="248"/>
-      <c r="R22" s="248"/>
-      <c r="S22" s="248"/>
-      <c r="T22" s="248"/>
-      <c r="U22" s="248"/>
-      <c r="V22" s="248"/>
-      <c r="W22" s="248"/>
-      <c r="X22" s="248"/>
-      <c r="Y22" s="247"/>
-      <c r="Z22" s="247"/>
-      <c r="AA22" s="247"/>
-      <c r="AB22" s="247"/>
-      <c r="AC22" s="247"/>
-      <c r="AD22" s="247"/>
-      <c r="AE22" s="247"/>
-      <c r="AF22" s="247"/>
-      <c r="AG22" s="247"/>
-      <c r="AH22" s="247"/>
-      <c r="AI22" s="247"/>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
       <c r="AL22" s="17"/>
@@ -16181,48 +16079,42 @@
       <c r="BQ22" s="17"/>
       <c r="BR22" s="17"/>
     </row>
-    <row r="23" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>14</v>
-      </c>
-      <c r="B23" s="246" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="248"/>
-      <c r="J23" s="246" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" s="246"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
-      <c r="X23" s="246"/>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="247"/>
-      <c r="AA23" s="247"/>
-      <c r="AB23" s="247"/>
-      <c r="AC23" s="247"/>
-      <c r="AD23" s="247"/>
-      <c r="AE23" s="247"/>
-      <c r="AF23" s="247"/>
-      <c r="AG23" s="247"/>
-      <c r="AH23" s="247"/>
-      <c r="AI23" s="247"/>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
       <c r="AL23" s="17"/>
@@ -16259,48 +16151,10 @@
       <c r="BQ23" s="17"/>
       <c r="BR23" s="17"/>
     </row>
-    <row r="24" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>15</v>
-      </c>
-      <c r="B24" s="246" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="248"/>
-      <c r="I24" s="248"/>
-      <c r="J24" s="246" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="246"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="246"/>
-      <c r="U24" s="246"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
-      <c r="X24" s="246"/>
-      <c r="Y24" s="247"/>
-      <c r="Z24" s="247"/>
-      <c r="AA24" s="247"/>
-      <c r="AB24" s="247"/>
-      <c r="AC24" s="247"/>
-      <c r="AD24" s="247"/>
-      <c r="AE24" s="247"/>
-      <c r="AF24" s="247"/>
-      <c r="AG24" s="247"/>
-      <c r="AH24" s="247"/>
-      <c r="AI24" s="247"/>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
       <c r="AL24" s="17"/>
@@ -16337,48 +16191,10 @@
       <c r="BQ24" s="17"/>
       <c r="BR24" s="17"/>
     </row>
-    <row r="25" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>16</v>
-      </c>
-      <c r="B25" s="246" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
-      <c r="E25" s="248"/>
-      <c r="F25" s="248"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="248"/>
-      <c r="I25" s="248"/>
-      <c r="J25" s="246" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="246"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="246"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="246"/>
-      <c r="U25" s="246"/>
-      <c r="V25" s="246"/>
-      <c r="W25" s="246"/>
-      <c r="X25" s="246"/>
-      <c r="Y25" s="247"/>
-      <c r="Z25" s="247"/>
-      <c r="AA25" s="247"/>
-      <c r="AB25" s="247"/>
-      <c r="AC25" s="247"/>
-      <c r="AD25" s="247"/>
-      <c r="AE25" s="247"/>
-      <c r="AF25" s="247"/>
-      <c r="AG25" s="247"/>
-      <c r="AH25" s="247"/>
-      <c r="AI25" s="247"/>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
       <c r="AL25" s="17"/>
@@ -16415,48 +16231,10 @@
       <c r="BQ25" s="17"/>
       <c r="BR25" s="17"/>
     </row>
-    <row r="26" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>17</v>
-      </c>
-      <c r="B26" s="246" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="246"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="246" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="246"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="246"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="246"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="246"/>
-      <c r="U26" s="246"/>
-      <c r="V26" s="246"/>
-      <c r="W26" s="246"/>
-      <c r="X26" s="246"/>
-      <c r="Y26" s="247"/>
-      <c r="Z26" s="247"/>
-      <c r="AA26" s="247"/>
-      <c r="AB26" s="247"/>
-      <c r="AC26" s="247"/>
-      <c r="AD26" s="247"/>
-      <c r="AE26" s="247"/>
-      <c r="AF26" s="247"/>
-      <c r="AG26" s="247"/>
-      <c r="AH26" s="247"/>
-      <c r="AI26" s="247"/>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
       <c r="AL26" s="17"/>
@@ -16493,48 +16271,10 @@
       <c r="BQ26" s="17"/>
       <c r="BR26" s="17"/>
     </row>
-    <row r="27" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
-        <v>18</v>
-      </c>
-      <c r="B27" s="246" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="246"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="246" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" s="246"/>
-      <c r="L27" s="246"/>
-      <c r="M27" s="246"/>
-      <c r="N27" s="246"/>
-      <c r="O27" s="246"/>
-      <c r="P27" s="246"/>
-      <c r="Q27" s="246"/>
-      <c r="R27" s="246"/>
-      <c r="S27" s="246"/>
-      <c r="T27" s="246"/>
-      <c r="U27" s="246"/>
-      <c r="V27" s="246"/>
-      <c r="W27" s="246"/>
-      <c r="X27" s="246"/>
-      <c r="Y27" s="247"/>
-      <c r="Z27" s="247"/>
-      <c r="AA27" s="247"/>
-      <c r="AB27" s="247"/>
-      <c r="AC27" s="247"/>
-      <c r="AD27" s="247"/>
-      <c r="AE27" s="247"/>
-      <c r="AF27" s="247"/>
-      <c r="AG27" s="247"/>
-      <c r="AH27" s="247"/>
-      <c r="AI27" s="247"/>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
       <c r="AL27" s="17"/>
@@ -16571,48 +16311,10 @@
       <c r="BQ27" s="17"/>
       <c r="BR27" s="17"/>
     </row>
-    <row r="28" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
-        <v>19</v>
-      </c>
-      <c r="B28" s="246" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="246"/>
-      <c r="J28" s="246" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="246"/>
-      <c r="L28" s="246"/>
-      <c r="M28" s="246"/>
-      <c r="N28" s="246"/>
-      <c r="O28" s="246"/>
-      <c r="P28" s="246"/>
-      <c r="Q28" s="246"/>
-      <c r="R28" s="246"/>
-      <c r="S28" s="246"/>
-      <c r="T28" s="246"/>
-      <c r="U28" s="246"/>
-      <c r="V28" s="246"/>
-      <c r="W28" s="246"/>
-      <c r="X28" s="246"/>
-      <c r="Y28" s="247"/>
-      <c r="Z28" s="247"/>
-      <c r="AA28" s="247"/>
-      <c r="AB28" s="247"/>
-      <c r="AC28" s="247"/>
-      <c r="AD28" s="247"/>
-      <c r="AE28" s="247"/>
-      <c r="AF28" s="247"/>
-      <c r="AG28" s="247"/>
-      <c r="AH28" s="247"/>
-      <c r="AI28" s="247"/>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
       <c r="AL28" s="17"/>
@@ -16649,577 +16351,49 @@
       <c r="BQ28" s="17"/>
       <c r="BR28" s="17"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="17"/>
-      <c r="BH29" s="17"/>
-      <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
-      <c r="BL29" s="17"/>
-      <c r="BM29" s="17"/>
-      <c r="BN29" s="17"/>
-      <c r="BO29" s="17"/>
-      <c r="BP29" s="17"/>
-      <c r="BQ29" s="17"/>
-      <c r="BR29" s="17"/>
-    </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="17"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-      <c r="BF30" s="17"/>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
-      <c r="BI30" s="17"/>
-      <c r="BJ30" s="17"/>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
-      <c r="BM30" s="17"/>
-      <c r="BN30" s="17"/>
-      <c r="BO30" s="17"/>
-      <c r="BP30" s="17"/>
-      <c r="BQ30" s="17"/>
-      <c r="BR30" s="17"/>
-    </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
-      <c r="AO31" s="17"/>
-      <c r="AP31" s="17"/>
-      <c r="AQ31" s="17"/>
-      <c r="AR31" s="17"/>
-      <c r="AS31" s="17"/>
-      <c r="AT31" s="17"/>
-      <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
-      <c r="AW31" s="17"/>
-      <c r="AX31" s="17"/>
-      <c r="AY31" s="17"/>
-      <c r="AZ31" s="17"/>
-      <c r="BA31" s="17"/>
-      <c r="BB31" s="17"/>
-      <c r="BC31" s="17"/>
-      <c r="BD31" s="17"/>
-      <c r="BE31" s="17"/>
-      <c r="BF31" s="17"/>
-      <c r="BG31" s="17"/>
-      <c r="BH31" s="17"/>
-      <c r="BI31" s="17"/>
-      <c r="BJ31" s="17"/>
-      <c r="BK31" s="17"/>
-      <c r="BL31" s="17"/>
-      <c r="BM31" s="17"/>
-      <c r="BN31" s="17"/>
-      <c r="BO31" s="17"/>
-      <c r="BP31" s="17"/>
-      <c r="BQ31" s="17"/>
-      <c r="BR31" s="17"/>
-    </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
-      <c r="AW32" s="17"/>
-      <c r="AX32" s="17"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="17"/>
-      <c r="BA32" s="17"/>
-      <c r="BB32" s="17"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="17"/>
-      <c r="BE32" s="17"/>
-      <c r="BF32" s="17"/>
-      <c r="BG32" s="17"/>
-      <c r="BH32" s="17"/>
-      <c r="BI32" s="17"/>
-      <c r="BJ32" s="17"/>
-      <c r="BK32" s="17"/>
-      <c r="BL32" s="17"/>
-      <c r="BM32" s="17"/>
-      <c r="BN32" s="17"/>
-      <c r="BO32" s="17"/>
-      <c r="BP32" s="17"/>
-      <c r="BQ32" s="17"/>
-      <c r="BR32" s="17"/>
-    </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
-      <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
-      <c r="AW33" s="17"/>
-      <c r="AX33" s="17"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="17"/>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="17"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="17"/>
-      <c r="BE33" s="17"/>
-      <c r="BF33" s="17"/>
-      <c r="BG33" s="17"/>
-      <c r="BH33" s="17"/>
-      <c r="BI33" s="17"/>
-      <c r="BJ33" s="17"/>
-      <c r="BK33" s="17"/>
-      <c r="BL33" s="17"/>
-      <c r="BM33" s="17"/>
-      <c r="BN33" s="17"/>
-      <c r="BO33" s="17"/>
-      <c r="BP33" s="17"/>
-      <c r="BQ33" s="17"/>
-      <c r="BR33" s="17"/>
-    </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="17"/>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
-      <c r="AT34" s="17"/>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
-      <c r="AW34" s="17"/>
-      <c r="AX34" s="17"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="17"/>
-      <c r="BA34" s="17"/>
-      <c r="BB34" s="17"/>
-      <c r="BC34" s="17"/>
-      <c r="BD34" s="17"/>
-      <c r="BE34" s="17"/>
-      <c r="BF34" s="17"/>
-      <c r="BG34" s="17"/>
-      <c r="BH34" s="17"/>
-      <c r="BI34" s="17"/>
-      <c r="BJ34" s="17"/>
-      <c r="BK34" s="17"/>
-      <c r="BL34" s="17"/>
-      <c r="BM34" s="17"/>
-      <c r="BN34" s="17"/>
-      <c r="BO34" s="17"/>
-      <c r="BP34" s="17"/>
-      <c r="BQ34" s="17"/>
-      <c r="BR34" s="17"/>
-    </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="17"/>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="17"/>
-      <c r="BK35" s="17"/>
-      <c r="BL35" s="17"/>
-      <c r="BM35" s="17"/>
-      <c r="BN35" s="17"/>
-      <c r="BO35" s="17"/>
-      <c r="BP35" s="17"/>
-      <c r="BQ35" s="17"/>
-      <c r="BR35" s="17"/>
-    </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="17"/>
-      <c r="AR36" s="17"/>
-      <c r="AS36" s="17"/>
-      <c r="AT36" s="17"/>
-      <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
-      <c r="AW36" s="17"/>
-      <c r="AX36" s="17"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="17"/>
-      <c r="BA36" s="17"/>
-      <c r="BB36" s="17"/>
-      <c r="BC36" s="17"/>
-      <c r="BD36" s="17"/>
-      <c r="BE36" s="17"/>
-      <c r="BF36" s="17"/>
-      <c r="BG36" s="17"/>
-      <c r="BH36" s="17"/>
-      <c r="BI36" s="17"/>
-      <c r="BJ36" s="17"/>
-      <c r="BK36" s="17"/>
-      <c r="BL36" s="17"/>
-      <c r="BM36" s="17"/>
-      <c r="BN36" s="17"/>
-      <c r="BO36" s="17"/>
-      <c r="BP36" s="17"/>
-      <c r="BQ36" s="17"/>
-      <c r="BR36" s="17"/>
-    </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="17"/>
-      <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
-      <c r="AW37" s="17"/>
-      <c r="AX37" s="17"/>
-      <c r="AY37" s="17"/>
-      <c r="AZ37" s="17"/>
-      <c r="BA37" s="17"/>
-      <c r="BB37" s="17"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="17"/>
-      <c r="BE37" s="17"/>
-      <c r="BF37" s="17"/>
-      <c r="BG37" s="17"/>
-      <c r="BH37" s="17"/>
-      <c r="BI37" s="17"/>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="17"/>
-      <c r="BL37" s="17"/>
-      <c r="BM37" s="17"/>
-      <c r="BN37" s="17"/>
-      <c r="BO37" s="17"/>
-      <c r="BP37" s="17"/>
-      <c r="BQ37" s="17"/>
-      <c r="BR37" s="17"/>
-    </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-      <c r="BF38" s="17"/>
-      <c r="BG38" s="17"/>
-      <c r="BH38" s="17"/>
-      <c r="BI38" s="17"/>
-      <c r="BJ38" s="17"/>
-      <c r="BK38" s="17"/>
-      <c r="BL38" s="17"/>
-      <c r="BM38" s="17"/>
-      <c r="BN38" s="17"/>
-      <c r="BO38" s="17"/>
-      <c r="BP38" s="17"/>
-      <c r="BQ38" s="17"/>
-      <c r="BR38" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="59">
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="J8:X9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17230,86 +16404,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="Y8:AI8"/>
     <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="AC10:AI10"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
     <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:X28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC28:AI28"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="AC27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17330,15 +16432,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="4.77734375" style="21" customWidth="1"/>
+    <col min="1" max="29" width="4.83203125" style="21" customWidth="1"/>
     <col min="30" max="30" width="5" style="21" customWidth="1"/>
-    <col min="31" max="70" width="4.77734375" style="21" customWidth="1"/>
+    <col min="31" max="70" width="4.83203125" style="21" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
@@ -17396,7 +16498,7 @@
       <c r="AH1" s="166"/>
       <c r="AI1" s="167"/>
     </row>
-    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
@@ -17443,12 +16545,12 @@
       <c r="AF2" s="106"/>
       <c r="AG2" s="165">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>45058</v>
+        <v>44833</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
     </row>
-    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="168" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
@@ -17497,17 +16599,17 @@
       <c r="AH3" s="166"/>
       <c r="AI3" s="167"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="183" t="s">
         <v>0</v>
       </c>
@@ -17587,7 +16689,7 @@
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="183"/>
       <c r="B9" s="252"/>
       <c r="C9" s="253"/>
@@ -17663,7 +16765,7 @@
       <c r="BQ9" s="17"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="248"/>
       <c r="C10" s="248"/>
@@ -17673,32 +16775,32 @@
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
       <c r="I10" s="248"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="246"/>
-      <c r="U10" s="246"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="246"/>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="247"/>
-      <c r="Z10" s="247"/>
-      <c r="AA10" s="247"/>
-      <c r="AB10" s="247"/>
-      <c r="AC10" s="247"/>
-      <c r="AD10" s="247"/>
-      <c r="AE10" s="247"/>
-      <c r="AF10" s="247"/>
-      <c r="AG10" s="247"/>
-      <c r="AH10" s="247"/>
-      <c r="AI10" s="247"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="256"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="256"/>
+      <c r="Q10" s="256"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="256"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="246"/>
+      <c r="AE10" s="246"/>
+      <c r="AF10" s="246"/>
+      <c r="AG10" s="246"/>
+      <c r="AH10" s="246"/>
+      <c r="AI10" s="246"/>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
@@ -17735,7 +16837,7 @@
       <c r="BQ10" s="17"/>
       <c r="BR10" s="17"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="248"/>
       <c r="C11" s="248"/>
@@ -17760,17 +16862,17 @@
       <c r="V11" s="248"/>
       <c r="W11" s="248"/>
       <c r="X11" s="248"/>
-      <c r="Y11" s="247"/>
-      <c r="Z11" s="247"/>
-      <c r="AA11" s="247"/>
-      <c r="AB11" s="247"/>
-      <c r="AC11" s="247"/>
-      <c r="AD11" s="247"/>
-      <c r="AE11" s="247"/>
-      <c r="AF11" s="247"/>
-      <c r="AG11" s="247"/>
-      <c r="AH11" s="247"/>
-      <c r="AI11" s="247"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="246"/>
+      <c r="AA11" s="246"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="246"/>
+      <c r="AE11" s="246"/>
+      <c r="AF11" s="246"/>
+      <c r="AG11" s="246"/>
+      <c r="AH11" s="246"/>
+      <c r="AI11" s="246"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
@@ -17807,7 +16909,7 @@
       <c r="BQ11" s="17"/>
       <c r="BR11" s="17"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="248"/>
       <c r="C12" s="248"/>
@@ -17832,17 +16934,17 @@
       <c r="V12" s="248"/>
       <c r="W12" s="248"/>
       <c r="X12" s="248"/>
-      <c r="Y12" s="247"/>
-      <c r="Z12" s="247"/>
-      <c r="AA12" s="247"/>
-      <c r="AB12" s="247"/>
-      <c r="AC12" s="247"/>
-      <c r="AD12" s="247"/>
-      <c r="AE12" s="247"/>
-      <c r="AF12" s="247"/>
-      <c r="AG12" s="247"/>
-      <c r="AH12" s="247"/>
-      <c r="AI12" s="247"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="246"/>
+      <c r="AE12" s="246"/>
+      <c r="AF12" s="246"/>
+      <c r="AG12" s="246"/>
+      <c r="AH12" s="246"/>
+      <c r="AI12" s="246"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -17879,7 +16981,7 @@
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="248"/>
       <c r="C13" s="248"/>
@@ -17904,17 +17006,17 @@
       <c r="V13" s="248"/>
       <c r="W13" s="248"/>
       <c r="X13" s="248"/>
-      <c r="Y13" s="247"/>
-      <c r="Z13" s="247"/>
-      <c r="AA13" s="247"/>
-      <c r="AB13" s="247"/>
-      <c r="AC13" s="247"/>
-      <c r="AD13" s="247"/>
-      <c r="AE13" s="247"/>
-      <c r="AF13" s="247"/>
-      <c r="AG13" s="247"/>
-      <c r="AH13" s="247"/>
-      <c r="AI13" s="247"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="246"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="246"/>
+      <c r="AH13" s="246"/>
+      <c r="AI13" s="246"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
@@ -17951,9 +17053,9 @@
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
-      <c r="B14" s="246"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="248"/>
       <c r="D14" s="248"/>
       <c r="E14" s="248"/>
@@ -17976,17 +17078,17 @@
       <c r="V14" s="248"/>
       <c r="W14" s="248"/>
       <c r="X14" s="248"/>
-      <c r="Y14" s="247"/>
-      <c r="Z14" s="247"/>
-      <c r="AA14" s="247"/>
-      <c r="AB14" s="247"/>
-      <c r="AC14" s="247"/>
-      <c r="AD14" s="247"/>
-      <c r="AE14" s="247"/>
-      <c r="AF14" s="247"/>
-      <c r="AG14" s="247"/>
-      <c r="AH14" s="247"/>
-      <c r="AI14" s="247"/>
+      <c r="Y14" s="246"/>
+      <c r="Z14" s="246"/>
+      <c r="AA14" s="246"/>
+      <c r="AB14" s="246"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="246"/>
+      <c r="AE14" s="246"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="246"/>
+      <c r="AH14" s="246"/>
+      <c r="AI14" s="246"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
@@ -18023,7 +17125,7 @@
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="99"/>
       <c r="C15" s="100"/>
@@ -18048,17 +17150,17 @@
       <c r="V15" s="248"/>
       <c r="W15" s="248"/>
       <c r="X15" s="248"/>
-      <c r="Y15" s="247"/>
-      <c r="Z15" s="247"/>
-      <c r="AA15" s="247"/>
-      <c r="AB15" s="247"/>
-      <c r="AC15" s="247"/>
-      <c r="AD15" s="247"/>
-      <c r="AE15" s="247"/>
-      <c r="AF15" s="247"/>
-      <c r="AG15" s="247"/>
-      <c r="AH15" s="247"/>
-      <c r="AI15" s="247"/>
+      <c r="Y15" s="246"/>
+      <c r="Z15" s="246"/>
+      <c r="AA15" s="246"/>
+      <c r="AB15" s="246"/>
+      <c r="AC15" s="246"/>
+      <c r="AD15" s="246"/>
+      <c r="AE15" s="246"/>
+      <c r="AF15" s="246"/>
+      <c r="AG15" s="246"/>
+      <c r="AH15" s="246"/>
+      <c r="AI15" s="246"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
@@ -18095,9 +17197,9 @@
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
-      <c r="B16" s="246"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="248"/>
       <c r="D16" s="248"/>
       <c r="E16" s="248"/>
@@ -18120,17 +17222,17 @@
       <c r="V16" s="248"/>
       <c r="W16" s="248"/>
       <c r="X16" s="248"/>
-      <c r="Y16" s="247"/>
-      <c r="Z16" s="247"/>
-      <c r="AA16" s="247"/>
-      <c r="AB16" s="247"/>
-      <c r="AC16" s="247"/>
-      <c r="AD16" s="247"/>
-      <c r="AE16" s="247"/>
-      <c r="AF16" s="247"/>
-      <c r="AG16" s="247"/>
-      <c r="AH16" s="247"/>
-      <c r="AI16" s="247"/>
+      <c r="Y16" s="246"/>
+      <c r="Z16" s="246"/>
+      <c r="AA16" s="246"/>
+      <c r="AB16" s="246"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="246"/>
+      <c r="AE16" s="246"/>
+      <c r="AF16" s="246"/>
+      <c r="AG16" s="246"/>
+      <c r="AH16" s="246"/>
+      <c r="AI16" s="246"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
@@ -18167,16 +17269,16 @@
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
       <c r="J17" s="248"/>
       <c r="K17" s="248"/>
       <c r="L17" s="248"/>
@@ -18192,17 +17294,17 @@
       <c r="V17" s="248"/>
       <c r="W17" s="248"/>
       <c r="X17" s="248"/>
-      <c r="Y17" s="247"/>
-      <c r="Z17" s="247"/>
-      <c r="AA17" s="247"/>
-      <c r="AB17" s="247"/>
-      <c r="AC17" s="247"/>
-      <c r="AD17" s="247"/>
-      <c r="AE17" s="247"/>
-      <c r="AF17" s="247"/>
-      <c r="AG17" s="247"/>
-      <c r="AH17" s="247"/>
-      <c r="AI17" s="247"/>
+      <c r="Y17" s="246"/>
+      <c r="Z17" s="246"/>
+      <c r="AA17" s="246"/>
+      <c r="AB17" s="246"/>
+      <c r="AC17" s="246"/>
+      <c r="AD17" s="246"/>
+      <c r="AE17" s="246"/>
+      <c r="AF17" s="246"/>
+      <c r="AG17" s="246"/>
+      <c r="AH17" s="246"/>
+      <c r="AI17" s="246"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
@@ -18239,7 +17341,7 @@
       <c r="BQ17" s="17"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="248"/>
       <c r="C18" s="248"/>
@@ -18264,17 +17366,17 @@
       <c r="V18" s="248"/>
       <c r="W18" s="248"/>
       <c r="X18" s="248"/>
-      <c r="Y18" s="247"/>
-      <c r="Z18" s="247"/>
-      <c r="AA18" s="247"/>
-      <c r="AB18" s="247"/>
-      <c r="AC18" s="247"/>
-      <c r="AD18" s="247"/>
-      <c r="AE18" s="247"/>
-      <c r="AF18" s="247"/>
-      <c r="AG18" s="247"/>
-      <c r="AH18" s="247"/>
-      <c r="AI18" s="247"/>
+      <c r="Y18" s="246"/>
+      <c r="Z18" s="246"/>
+      <c r="AA18" s="246"/>
+      <c r="AB18" s="246"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="246"/>
+      <c r="AE18" s="246"/>
+      <c r="AF18" s="246"/>
+      <c r="AG18" s="246"/>
+      <c r="AH18" s="246"/>
+      <c r="AI18" s="246"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
@@ -18311,7 +17413,7 @@
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="248"/>
       <c r="C19" s="248"/>
@@ -18336,17 +17438,17 @@
       <c r="V19" s="248"/>
       <c r="W19" s="248"/>
       <c r="X19" s="248"/>
-      <c r="Y19" s="247"/>
-      <c r="Z19" s="247"/>
-      <c r="AA19" s="247"/>
-      <c r="AB19" s="247"/>
-      <c r="AC19" s="247"/>
-      <c r="AD19" s="247"/>
-      <c r="AE19" s="247"/>
-      <c r="AF19" s="247"/>
-      <c r="AG19" s="247"/>
-      <c r="AH19" s="247"/>
-      <c r="AI19" s="247"/>
+      <c r="Y19" s="246"/>
+      <c r="Z19" s="246"/>
+      <c r="AA19" s="246"/>
+      <c r="AB19" s="246"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="246"/>
+      <c r="AE19" s="246"/>
+      <c r="AF19" s="246"/>
+      <c r="AG19" s="246"/>
+      <c r="AH19" s="246"/>
+      <c r="AI19" s="246"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
@@ -18383,9 +17485,9 @@
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="246"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="248"/>
       <c r="D20" s="248"/>
       <c r="E20" s="248"/>
@@ -18408,21 +17510,21 @@
       <c r="V20" s="248"/>
       <c r="W20" s="248"/>
       <c r="X20" s="248"/>
-      <c r="Y20" s="247"/>
-      <c r="Z20" s="247"/>
-      <c r="AA20" s="247"/>
-      <c r="AB20" s="247"/>
-      <c r="AC20" s="247"/>
-      <c r="AD20" s="247"/>
-      <c r="AE20" s="247"/>
-      <c r="AF20" s="247"/>
-      <c r="AG20" s="247"/>
-      <c r="AH20" s="247"/>
-      <c r="AI20" s="247"/>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="Y20" s="246"/>
+      <c r="Z20" s="246"/>
+      <c r="AA20" s="246"/>
+      <c r="AB20" s="246"/>
+      <c r="AC20" s="246"/>
+      <c r="AD20" s="246"/>
+      <c r="AE20" s="246"/>
+      <c r="AF20" s="246"/>
+      <c r="AG20" s="246"/>
+      <c r="AH20" s="246"/>
+      <c r="AI20" s="246"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="246"/>
+      <c r="B21" s="256"/>
       <c r="C21" s="248"/>
       <c r="D21" s="248"/>
       <c r="E21" s="248"/>
@@ -18445,21 +17547,21 @@
       <c r="V21" s="248"/>
       <c r="W21" s="248"/>
       <c r="X21" s="248"/>
-      <c r="Y21" s="247"/>
-      <c r="Z21" s="247"/>
-      <c r="AA21" s="247"/>
-      <c r="AB21" s="247"/>
-      <c r="AC21" s="247"/>
-      <c r="AD21" s="247"/>
-      <c r="AE21" s="247"/>
-      <c r="AF21" s="247"/>
-      <c r="AG21" s="247"/>
-      <c r="AH21" s="247"/>
-      <c r="AI21" s="247"/>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="Y21" s="246"/>
+      <c r="Z21" s="246"/>
+      <c r="AA21" s="246"/>
+      <c r="AB21" s="246"/>
+      <c r="AC21" s="246"/>
+      <c r="AD21" s="246"/>
+      <c r="AE21" s="246"/>
+      <c r="AF21" s="246"/>
+      <c r="AG21" s="246"/>
+      <c r="AH21" s="246"/>
+      <c r="AI21" s="246"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="246"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="248"/>
       <c r="D22" s="248"/>
       <c r="E22" s="248"/>
@@ -18482,19 +17584,19 @@
       <c r="V22" s="248"/>
       <c r="W22" s="248"/>
       <c r="X22" s="248"/>
-      <c r="Y22" s="247"/>
-      <c r="Z22" s="247"/>
-      <c r="AA22" s="247"/>
-      <c r="AB22" s="247"/>
-      <c r="AC22" s="247"/>
-      <c r="AD22" s="247"/>
-      <c r="AE22" s="247"/>
-      <c r="AF22" s="247"/>
-      <c r="AG22" s="247"/>
-      <c r="AH22" s="247"/>
-      <c r="AI22" s="247"/>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="Y22" s="246"/>
+      <c r="Z22" s="246"/>
+      <c r="AA22" s="246"/>
+      <c r="AB22" s="246"/>
+      <c r="AC22" s="246"/>
+      <c r="AD22" s="246"/>
+      <c r="AE22" s="246"/>
+      <c r="AF22" s="246"/>
+      <c r="AG22" s="246"/>
+      <c r="AH22" s="246"/>
+      <c r="AI22" s="246"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="248"/>
       <c r="C23" s="248"/>
@@ -18504,34 +17606,34 @@
       <c r="G23" s="248"/>
       <c r="H23" s="248"/>
       <c r="I23" s="248"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
-      <c r="X23" s="246"/>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="247"/>
-      <c r="AA23" s="247"/>
-      <c r="AB23" s="247"/>
-      <c r="AC23" s="247"/>
-      <c r="AD23" s="247"/>
-      <c r="AE23" s="247"/>
-      <c r="AF23" s="247"/>
-      <c r="AG23" s="247"/>
-      <c r="AH23" s="247"/>
-      <c r="AI23" s="247"/>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="256"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="256"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="256"/>
+      <c r="U23" s="256"/>
+      <c r="V23" s="256"/>
+      <c r="W23" s="256"/>
+      <c r="X23" s="256"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="246"/>
+      <c r="AA23" s="246"/>
+      <c r="AB23" s="246"/>
+      <c r="AC23" s="246"/>
+      <c r="AD23" s="246"/>
+      <c r="AE23" s="246"/>
+      <c r="AF23" s="246"/>
+      <c r="AG23" s="246"/>
+      <c r="AH23" s="246"/>
+      <c r="AI23" s="246"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="248"/>
       <c r="C24" s="248"/>
@@ -18541,34 +17643,34 @@
       <c r="G24" s="248"/>
       <c r="H24" s="248"/>
       <c r="I24" s="248"/>
-      <c r="J24" s="246"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="246"/>
-      <c r="U24" s="246"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
-      <c r="X24" s="246"/>
-      <c r="Y24" s="247"/>
-      <c r="Z24" s="247"/>
-      <c r="AA24" s="247"/>
-      <c r="AB24" s="247"/>
-      <c r="AC24" s="247"/>
-      <c r="AD24" s="247"/>
-      <c r="AE24" s="247"/>
-      <c r="AF24" s="247"/>
-      <c r="AG24" s="247"/>
-      <c r="AH24" s="247"/>
-      <c r="AI24" s="247"/>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="J24" s="256"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="256"/>
+      <c r="Q24" s="256"/>
+      <c r="R24" s="256"/>
+      <c r="S24" s="256"/>
+      <c r="T24" s="256"/>
+      <c r="U24" s="256"/>
+      <c r="V24" s="256"/>
+      <c r="W24" s="256"/>
+      <c r="X24" s="256"/>
+      <c r="Y24" s="246"/>
+      <c r="Z24" s="246"/>
+      <c r="AA24" s="246"/>
+      <c r="AB24" s="246"/>
+      <c r="AC24" s="246"/>
+      <c r="AD24" s="246"/>
+      <c r="AE24" s="246"/>
+      <c r="AF24" s="246"/>
+      <c r="AG24" s="246"/>
+      <c r="AH24" s="246"/>
+      <c r="AI24" s="246"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="248"/>
       <c r="C25" s="248"/>
@@ -18578,32 +17680,32 @@
       <c r="G25" s="248"/>
       <c r="H25" s="248"/>
       <c r="I25" s="248"/>
-      <c r="J25" s="246"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="246"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="246"/>
-      <c r="U25" s="246"/>
-      <c r="V25" s="246"/>
-      <c r="W25" s="246"/>
-      <c r="X25" s="246"/>
-      <c r="Y25" s="247"/>
-      <c r="Z25" s="247"/>
-      <c r="AA25" s="247"/>
-      <c r="AB25" s="247"/>
-      <c r="AC25" s="247"/>
-      <c r="AD25" s="247"/>
-      <c r="AE25" s="247"/>
-      <c r="AF25" s="247"/>
-      <c r="AG25" s="247"/>
-      <c r="AH25" s="247"/>
-      <c r="AI25" s="247"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="256"/>
+      <c r="M25" s="256"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="256"/>
+      <c r="Q25" s="256"/>
+      <c r="R25" s="256"/>
+      <c r="S25" s="256"/>
+      <c r="T25" s="256"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="256"/>
+      <c r="W25" s="256"/>
+      <c r="X25" s="256"/>
+      <c r="Y25" s="246"/>
+      <c r="Z25" s="246"/>
+      <c r="AA25" s="246"/>
+      <c r="AB25" s="246"/>
+      <c r="AC25" s="246"/>
+      <c r="AD25" s="246"/>
+      <c r="AE25" s="246"/>
+      <c r="AF25" s="246"/>
+      <c r="AG25" s="246"/>
+      <c r="AH25" s="246"/>
+      <c r="AI25" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -18715,112 +17817,112 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="30.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
